--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434C0AC7-3036-4E73-AFA6-54BAAD327079}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715BA2C8-CB35-4153-A5EF-9D2F92BE7BAE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="508">
   <si>
     <t>Duração</t>
   </si>
@@ -516,1177 +516,1177 @@
     <t>SEMANA</t>
   </si>
   <si>
+    <t>1.2.3.2</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1</t>
+  </si>
+  <si>
+    <t>Seg 25/03/24</t>
+  </si>
+  <si>
+    <t>Sex 26/04/24</t>
+  </si>
+  <si>
+    <t>Atrasada</t>
+  </si>
+  <si>
+    <t>Em definição de TAC</t>
+  </si>
+  <si>
+    <t>Ter 19/03/24</t>
+  </si>
+  <si>
+    <t>Qua 10/04/24</t>
+  </si>
+  <si>
+    <t>Mec</t>
+  </si>
+  <si>
+    <t>No prazo</t>
+  </si>
+  <si>
+    <t>Caldeiras D&amp;E</t>
+  </si>
+  <si>
+    <t>1.2.3.3.3</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>MONTAGEM DAS CALDEIRAS D &amp; E</t>
+  </si>
+  <si>
+    <t>Qui 24/08/23</t>
+  </si>
+  <si>
+    <t>Qui 05/12/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Geral - Mobilização</t>
+  </si>
+  <si>
+    <t>Qua 06/03/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Mobilização</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Reunião de Kick off</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboração e aprovação do cronograma detalhado da obra</t>
+  </si>
+  <si>
+    <t>Sex 09/02/24</t>
+  </si>
+  <si>
+    <t>Qua 21/02/24</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Elaboração e aprovação dos principais planos e procedimentos de construção</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Instalação de Canteiro</t>
+  </si>
+  <si>
+    <t>Ter 06/02/24</t>
+  </si>
+  <si>
+    <t>Sex 23/02/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pipe Shop (Fabricação externa)</t>
+  </si>
+  <si>
+    <t>Sex 27/09/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Recebimento dos projetos de detalhamento civis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Pré moldagem de bases</t>
+  </si>
+  <si>
+    <t>Seg 08/04/24</t>
+  </si>
+  <si>
+    <t>Qua 17/04/24</t>
+  </si>
+  <si>
+    <t>1.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Pré moldagem de bases</t>
+  </si>
+  <si>
+    <t>1.2.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Armação Base 01</t>
+  </si>
+  <si>
+    <t>Ter 09/04/24</t>
+  </si>
+  <si>
+    <t>1.2.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Armação Base 02</t>
+  </si>
+  <si>
+    <t>Qui 11/04/24</t>
+  </si>
+  <si>
+    <t>1.2.2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Armação Base 03</t>
+  </si>
+  <si>
+    <t>Sex 12/04/24</t>
+  </si>
+  <si>
+    <t>1.2.2.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Forma Base 01</t>
+  </si>
+  <si>
+    <t>Seg 15/04/24</t>
+  </si>
+  <si>
+    <t>1.2.2.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Forma Base 02</t>
+  </si>
+  <si>
+    <t>1.2.2.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Forma Base 03</t>
+  </si>
+  <si>
+    <t>1.2.2.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Chumbadores Base 01</t>
+  </si>
+  <si>
+    <t>1.2.2.1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Chumbadores Base 02</t>
+  </si>
+  <si>
+    <t>1.2.2.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Chumbadores Base 03</t>
+  </si>
+  <si>
+    <t>1.2.2.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Concretagem Base 01</t>
+  </si>
+  <si>
+    <t>Ter 16/04/24</t>
+  </si>
+  <si>
+    <t>1.2.2.1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Concretagem Base 02</t>
+  </si>
+  <si>
+    <t>1.2.2.1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Concretagem Base 03</t>
+  </si>
+  <si>
+    <t>1.2.2.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Desforma Base 01</t>
+  </si>
+  <si>
+    <t>1.2.2.1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Desforma Base 02</t>
+  </si>
+  <si>
+    <t>1.2.2.1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Desforma Base 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fabricação de componentes</t>
+  </si>
+  <si>
+    <t>Ter 05/03/24</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Aquisição de materiais para fabricação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Estrutura Provisória para movimentação das caldeiras</t>
+  </si>
+  <si>
+    <t>1.2.3.2.1</t>
+  </si>
+  <si>
+    <t>Ter 02/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Furação</t>
+  </si>
+  <si>
+    <t>Sex 05/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Pré-montagem</t>
+  </si>
+  <si>
+    <t>1.2.3.2.4</t>
+  </si>
+  <si>
+    <t>Ter 23/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.2.5</t>
+  </si>
+  <si>
+    <t>1.2.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Estrutura metálica</t>
+  </si>
+  <si>
+    <t>Qua 31/07/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Vigas de rolamento</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Traçagem e corte</t>
+  </si>
+  <si>
+    <t>Qua 20/03/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Furação</t>
+  </si>
+  <si>
+    <t>Qui 21/03/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Pré-montagem</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Soldagem</t>
+  </si>
+  <si>
+    <t>Seg 01/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Acabamento</t>
+  </si>
+  <si>
+    <t>Qua 03/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Jateamento e pintura</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Suportes das caldeiras</t>
+  </si>
+  <si>
+    <t>Seg 06/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.1</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.3</t>
+  </si>
+  <si>
+    <t>Qui 18/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.4</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.5</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Realizar ensaios nas soldas (LP e Ultrasson)</t>
+  </si>
+  <si>
+    <t>Seg 29/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Carrinho de translado</t>
+  </si>
+  <si>
+    <t>Qua 08/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.3.1</t>
+  </si>
+  <si>
+    <t>1.2.3.3.3.2</t>
+  </si>
+  <si>
+    <t>Qui 25/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.3.3</t>
+  </si>
+  <si>
+    <t>Ter 30/04/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.3.4</t>
+  </si>
+  <si>
+    <t>1.2.3.3.3.5</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Plataforma EL. 3,309m</t>
+  </si>
+  <si>
+    <t>Ter 04/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4.1</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4.2</t>
+  </si>
+  <si>
+    <t>Qui 02/05/24</t>
+  </si>
+  <si>
+    <t>Qui 09/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4.3</t>
+  </si>
+  <si>
+    <t>Sex 10/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4.4</t>
+  </si>
+  <si>
+    <t>Seg 20/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4.5</t>
+  </si>
+  <si>
+    <t>Qui 23/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.4.6</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PlataformaEL. 5,030m</t>
+  </si>
+  <si>
+    <t>Seg 15/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5.1</t>
+  </si>
+  <si>
+    <t>Sex 24/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5.2</t>
+  </si>
+  <si>
+    <t>Seg 13/05/24</t>
+  </si>
+  <si>
+    <t>Seg 27/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5.3</t>
+  </si>
+  <si>
+    <t>Qua 29/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5.4</t>
+  </si>
+  <si>
+    <t>Seg 17/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5.5</t>
+  </si>
+  <si>
+    <t>Ter 25/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.5.6</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PlataformaEL. 7,420m&amp;7,350m</t>
+  </si>
+  <si>
+    <t>Qua 03/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6.1</t>
+  </si>
+  <si>
+    <t>Qua 05/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6.2</t>
+  </si>
+  <si>
+    <t>Sex 31/05/24</t>
+  </si>
+  <si>
+    <t>Qui 06/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6.3</t>
+  </si>
+  <si>
+    <t>Qua 12/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6.4</t>
+  </si>
+  <si>
+    <t>Qua 19/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6.5</t>
+  </si>
+  <si>
+    <t>Seg 24/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.6.6</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PlataformaEL. 9,810m, 8,850m&amp;8,040m</t>
+  </si>
+  <si>
+    <t>Seg 29/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7.1</t>
+  </si>
+  <si>
+    <t>Qui 20/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7.2</t>
+  </si>
+  <si>
+    <t>Qui 13/06/24</t>
+  </si>
+  <si>
+    <t>Sex 21/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7.3</t>
+  </si>
+  <si>
+    <t>Ter 02/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7.4</t>
+  </si>
+  <si>
+    <t>Qui 11/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7.5</t>
+  </si>
+  <si>
+    <t>Qua 17/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.7.6</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Monovia</t>
+  </si>
+  <si>
+    <t>Qui 18/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8.1</t>
+  </si>
+  <si>
+    <t>Qui 04/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8.2</t>
+  </si>
+  <si>
+    <t>Sex 05/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8.3</t>
+  </si>
+  <si>
+    <t>Ter 09/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8.4</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8.5</t>
+  </si>
+  <si>
+    <t>Sex 12/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.8.6</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Suportes da tubulação</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Traçagem</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Corte</t>
+  </si>
+  <si>
+    <t>Ter 16/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Pré montagem</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9.4</t>
+  </si>
+  <si>
+    <t>Ter 23/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Jateamento</t>
+  </si>
+  <si>
+    <t>Sex 26/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.3.9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Pintura</t>
+  </si>
+  <si>
+    <t>1.2.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Tubulação</t>
+  </si>
+  <si>
+    <t>Sex 03/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Linhas da Caldeira D</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Fornecimento das tubulações pela Hydro</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               14"-S3-14E-5501-H - VAPOR</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5524 - VAPOR</t>
+  </si>
+  <si>
+    <t>Qui 16/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5525 - VAPOR</t>
+  </si>
+  <si>
+    <t>Ter 21/05/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               2"-S3-14E-5505-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               2"-S3-14E-5506-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               2"-S3-14E-5500-H - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1/2"-S3-14E-5503-P - BOWDOWN</t>
+  </si>
+  <si>
+    <t>Seg 03/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1/2"-S3-14E-5504-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               8"-S1-14E-5520 VENT - CONDENSADO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               4"-S1-14E-5519 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S3-14E-5537 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S3-14E-5536 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Sex 07/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S3-14E-5535 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Seg 10/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S1-14E-5526 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Ter 11/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3"-W6-14E-5518 - RESFRIAMENTO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-W6-14E-5517 - RESFRIAMENTO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-W6-14E-5516 - RESFRIAMENTO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               6"-S3-14E-5502-H - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               14"-S3-14E-5507 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5508 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5509 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5510 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               12"-S3-14E-5511 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Qui 27/06/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-S3-14E-5515 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Seg 01/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-S3-14E-5530 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               12"-S3-14E-5514 - AGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Qua 10/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               4"-W6-14E-5391 - AGUA DESMI</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-W2-14E-5521 - AGUA DESMI</t>
+  </si>
+  <si>
+    <t>1.2.3.4.1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1/2"-S3-14E-5532 - AGUA DESMI</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Linhas da Caldeira E</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               14"-S3-14E-5601-H- VAPOR</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5624 - VAPOR</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5625 - VAPOR</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               2"-S3-14E-5605-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>Ter 30/07/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               2"-S3-14E-5606-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>Qui 01/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1/2"-S3-14E-5604-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>Seg 05/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1/2"-S3-14E-5603-P - BLOWDOWN</t>
+  </si>
+  <si>
+    <t>Qua 07/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               8"-S1-14E-5620 VENT - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Qui 08/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               4"-S1-14E-5619 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Sex 09/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S1-14E-5626-P - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Seg 12/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S3-14E-5637-P - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Ter 13/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S3-14E-5635 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Qua 14/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1"-S3-14E-5636 - CONDENSADO</t>
+  </si>
+  <si>
+    <t>Qui 15/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3"-W6-14E-5618 - RESFRIAMENTO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-W6-14E-5616 - RESFRIAMENTO</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-W6-14E-5617 - RESFRIAMENTO</t>
+  </si>
+  <si>
+    <t>Seg 19/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               6"-S3-14E-5602-H - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Sex 16/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               14"-S3-14E-5607 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Qua 21/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5608 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Sex 23/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5609 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Ter 27/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               10"-S3-14E-5610 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Qui 29/08/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               12"-S3-14E-5611 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Seg 02/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               12"-S3-14E-5612 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Qua 04/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               12"-S3-14E-5613 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Seg 09/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               12"-S3-14E-5614 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Sex 13/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-S3-14E-5615-P - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Ter 17/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-S3-14E-5630 - ÁGUA DA CALDEIRA</t>
+  </si>
+  <si>
+    <t>Qui 19/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1/2"-S3-14E-5632 - ÁGUA DESMI</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-W2-14E-5621 - ÁGUA DESMI</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-A2-14E-5628 - AR INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>Seg 23/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-A2-14E-5629 - AR INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>Qua 25/09/24</t>
+  </si>
+  <si>
+    <t>1.2.3.4.2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               3/4"-A2-14E-5627 - AR INSTRUMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Site</t>
+  </si>
+  <si>
+    <t>Qua 15/05/24</t>
+  </si>
+  <si>
+    <t>Qui 21/11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Geral - Desmobilização</t>
+  </si>
+  <si>
+    <t>Cristiana</t>
+  </si>
+  <si>
+    <t>Fornecimenro de materiais</t>
+  </si>
+  <si>
+    <t>Pendência de fornecimento de materiais de fabricação pela Hydro</t>
+  </si>
+  <si>
     <t>Coluna1</t>
-  </si>
-  <si>
-    <t>1.2.3.2</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1</t>
-  </si>
-  <si>
-    <t>Seg 25/03/24</t>
-  </si>
-  <si>
-    <t>Sex 26/04/24</t>
-  </si>
-  <si>
-    <t>Atrasada</t>
-  </si>
-  <si>
-    <t>Em definição de TAC</t>
-  </si>
-  <si>
-    <t>Ter 19/03/24</t>
-  </si>
-  <si>
-    <t>Qua 10/04/24</t>
-  </si>
-  <si>
-    <t>Mec</t>
-  </si>
-  <si>
-    <t>No prazo</t>
-  </si>
-  <si>
-    <t>Caldeiras D&amp;E</t>
-  </si>
-  <si>
-    <t>1.2.3.3.3</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>MONTAGEM DAS CALDEIRAS D &amp; E</t>
-  </si>
-  <si>
-    <t>Qui 24/08/23</t>
-  </si>
-  <si>
-    <t>Qui 05/12/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Geral - Mobilização</t>
-  </si>
-  <si>
-    <t>Qua 06/03/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Mobilização</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Reunião de Kick off</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Elaboração e aprovação do cronograma detalhado da obra</t>
-  </si>
-  <si>
-    <t>Sex 09/02/24</t>
-  </si>
-  <si>
-    <t>Qua 21/02/24</t>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Elaboração e aprovação dos principais planos e procedimentos de construção</t>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Instalação de Canteiro</t>
-  </si>
-  <si>
-    <t>Ter 06/02/24</t>
-  </si>
-  <si>
-    <t>Sex 23/02/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Pipe Shop (Fabricação externa)</t>
-  </si>
-  <si>
-    <t>Sex 27/09/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Recebimento dos projetos de detalhamento civis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pré moldagem de bases</t>
-  </si>
-  <si>
-    <t>Seg 08/04/24</t>
-  </si>
-  <si>
-    <t>Qua 17/04/24</t>
-  </si>
-  <si>
-    <t>1.2.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Pré moldagem de bases</t>
-  </si>
-  <si>
-    <t>1.2.2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Armação Base 01</t>
-  </si>
-  <si>
-    <t>Ter 09/04/24</t>
-  </si>
-  <si>
-    <t>1.2.2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Armação Base 02</t>
-  </si>
-  <si>
-    <t>Qui 11/04/24</t>
-  </si>
-  <si>
-    <t>1.2.2.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Armação Base 03</t>
-  </si>
-  <si>
-    <t>Sex 12/04/24</t>
-  </si>
-  <si>
-    <t>1.2.2.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Forma Base 01</t>
-  </si>
-  <si>
-    <t>Seg 15/04/24</t>
-  </si>
-  <si>
-    <t>1.2.2.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Forma Base 02</t>
-  </si>
-  <si>
-    <t>1.2.2.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Forma Base 03</t>
-  </si>
-  <si>
-    <t>1.2.2.1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Chumbadores Base 01</t>
-  </si>
-  <si>
-    <t>1.2.2.1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Chumbadores Base 02</t>
-  </si>
-  <si>
-    <t>1.2.2.1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Chumbadores Base 03</t>
-  </si>
-  <si>
-    <t>1.2.2.1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Concretagem Base 01</t>
-  </si>
-  <si>
-    <t>Ter 16/04/24</t>
-  </si>
-  <si>
-    <t>1.2.2.1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Concretagem Base 02</t>
-  </si>
-  <si>
-    <t>1.2.2.1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Concretagem Base 03</t>
-  </si>
-  <si>
-    <t>1.2.2.1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Desforma Base 01</t>
-  </si>
-  <si>
-    <t>1.2.2.1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Desforma Base 02</t>
-  </si>
-  <si>
-    <t>1.2.2.1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Desforma Base 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Fabricação de componentes</t>
-  </si>
-  <si>
-    <t>Ter 05/03/24</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Aquisição de materiais para fabricação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Estrutura Provisória para movimentação das caldeiras</t>
-  </si>
-  <si>
-    <t>1.2.3.2.1</t>
-  </si>
-  <si>
-    <t>Ter 02/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Furação</t>
-  </si>
-  <si>
-    <t>Sex 05/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Pré-montagem</t>
-  </si>
-  <si>
-    <t>1.2.3.2.4</t>
-  </si>
-  <si>
-    <t>Ter 23/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.2.5</t>
-  </si>
-  <si>
-    <t>1.2.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Estrutura metálica</t>
-  </si>
-  <si>
-    <t>Qua 31/07/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Vigas de rolamento</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Traçagem e corte</t>
-  </si>
-  <si>
-    <t>Qua 20/03/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Furação</t>
-  </si>
-  <si>
-    <t>Qui 21/03/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Pré-montagem</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Soldagem</t>
-  </si>
-  <si>
-    <t>Seg 01/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Acabamento</t>
-  </si>
-  <si>
-    <t>Qua 03/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Jateamento e pintura</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Suportes das caldeiras</t>
-  </si>
-  <si>
-    <t>Seg 06/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.1</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.2</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.3</t>
-  </si>
-  <si>
-    <t>Qui 18/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.4</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.5</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Realizar ensaios nas soldas (LP e Ultrasson)</t>
-  </si>
-  <si>
-    <t>Seg 29/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Carrinho de translado</t>
-  </si>
-  <si>
-    <t>Qua 08/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.3.1</t>
-  </si>
-  <si>
-    <t>1.2.3.3.3.2</t>
-  </si>
-  <si>
-    <t>Qui 25/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.3.3</t>
-  </si>
-  <si>
-    <t>Ter 30/04/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.3.4</t>
-  </si>
-  <si>
-    <t>1.2.3.3.3.5</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Plataforma EL. 3,309m</t>
-  </si>
-  <si>
-    <t>Ter 04/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4.1</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4.2</t>
-  </si>
-  <si>
-    <t>Qui 02/05/24</t>
-  </si>
-  <si>
-    <t>Qui 09/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4.3</t>
-  </si>
-  <si>
-    <t>Sex 10/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4.4</t>
-  </si>
-  <si>
-    <t>Seg 20/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4.5</t>
-  </si>
-  <si>
-    <t>Qui 23/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.4.6</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PlataformaEL. 5,030m</t>
-  </si>
-  <si>
-    <t>Seg 15/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5.1</t>
-  </si>
-  <si>
-    <t>Sex 24/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5.2</t>
-  </si>
-  <si>
-    <t>Seg 13/05/24</t>
-  </si>
-  <si>
-    <t>Seg 27/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5.3</t>
-  </si>
-  <si>
-    <t>Qua 29/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5.4</t>
-  </si>
-  <si>
-    <t>Seg 17/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5.5</t>
-  </si>
-  <si>
-    <t>Ter 25/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.5.6</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PlataformaEL. 7,420m&amp;7,350m</t>
-  </si>
-  <si>
-    <t>Qua 03/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6.1</t>
-  </si>
-  <si>
-    <t>Qua 05/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6.2</t>
-  </si>
-  <si>
-    <t>Sex 31/05/24</t>
-  </si>
-  <si>
-    <t>Qui 06/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6.3</t>
-  </si>
-  <si>
-    <t>Qua 12/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6.4</t>
-  </si>
-  <si>
-    <t>Qua 19/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6.5</t>
-  </si>
-  <si>
-    <t>Seg 24/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.6.6</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PlataformaEL. 9,810m, 8,850m&amp;8,040m</t>
-  </si>
-  <si>
-    <t>Seg 29/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7.1</t>
-  </si>
-  <si>
-    <t>Qui 20/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7.2</t>
-  </si>
-  <si>
-    <t>Qui 13/06/24</t>
-  </si>
-  <si>
-    <t>Sex 21/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7.3</t>
-  </si>
-  <si>
-    <t>Ter 02/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7.4</t>
-  </si>
-  <si>
-    <t>Qui 11/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7.5</t>
-  </si>
-  <si>
-    <t>Qua 17/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.7.6</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Monovia</t>
-  </si>
-  <si>
-    <t>Qui 18/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8.1</t>
-  </si>
-  <si>
-    <t>Qui 04/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8.2</t>
-  </si>
-  <si>
-    <t>Sex 05/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8.3</t>
-  </si>
-  <si>
-    <t>Ter 09/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8.4</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8.5</t>
-  </si>
-  <si>
-    <t>Sex 12/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.8.6</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Suportes da tubulação</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Traçagem</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Corte</t>
-  </si>
-  <si>
-    <t>Ter 16/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Pré montagem</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9.4</t>
-  </si>
-  <si>
-    <t>Ter 23/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Jateamento</t>
-  </si>
-  <si>
-    <t>Sex 26/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.3.9.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Pintura</t>
-  </si>
-  <si>
-    <t>1.2.3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Tubulação</t>
-  </si>
-  <si>
-    <t>Sex 03/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Linhas da Caldeira D</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Fornecimento das tubulações pela Hydro</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               14"-S3-14E-5501-H - VAPOR</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5524 - VAPOR</t>
-  </si>
-  <si>
-    <t>Qui 16/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5525 - VAPOR</t>
-  </si>
-  <si>
-    <t>Ter 21/05/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               2"-S3-14E-5505-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               2"-S3-14E-5506-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               2"-S3-14E-5500-H - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1/2"-S3-14E-5503-P - BOWDOWN</t>
-  </si>
-  <si>
-    <t>Seg 03/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1/2"-S3-14E-5504-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               8"-S1-14E-5520 VENT - CONDENSADO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               4"-S1-14E-5519 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S3-14E-5537 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S3-14E-5536 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Sex 07/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S3-14E-5535 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Seg 10/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S1-14E-5526 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Ter 11/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3"-W6-14E-5518 - RESFRIAMENTO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-W6-14E-5517 - RESFRIAMENTO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-W6-14E-5516 - RESFRIAMENTO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               6"-S3-14E-5502-H - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               14"-S3-14E-5507 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5508 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5509 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5510 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               12"-S3-14E-5511 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Qui 27/06/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-S3-14E-5515 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Seg 01/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-S3-14E-5530 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               12"-S3-14E-5514 - AGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Qua 10/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               4"-W6-14E-5391 - AGUA DESMI</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-W2-14E-5521 - AGUA DESMI</t>
-  </si>
-  <si>
-    <t>1.2.3.4.1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1/2"-S3-14E-5532 - AGUA DESMI</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Linhas da Caldeira E</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               14"-S3-14E-5601-H- VAPOR</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5624 - VAPOR</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5625 - VAPOR</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               2"-S3-14E-5605-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>Ter 30/07/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               2"-S3-14E-5606-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>Qui 01/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1/2"-S3-14E-5604-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>Seg 05/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1/2"-S3-14E-5603-P - BLOWDOWN</t>
-  </si>
-  <si>
-    <t>Qua 07/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               8"-S1-14E-5620 VENT - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Qui 08/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               4"-S1-14E-5619 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Sex 09/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S1-14E-5626-P - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Seg 12/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S3-14E-5637-P - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Ter 13/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S3-14E-5635 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Qua 14/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1"-S3-14E-5636 - CONDENSADO</t>
-  </si>
-  <si>
-    <t>Qui 15/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3"-W6-14E-5618 - RESFRIAMENTO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-W6-14E-5616 - RESFRIAMENTO</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-W6-14E-5617 - RESFRIAMENTO</t>
-  </si>
-  <si>
-    <t>Seg 19/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               6"-S3-14E-5602-H - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Sex 16/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               14"-S3-14E-5607 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Qua 21/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5608 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Sex 23/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5609 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Ter 27/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               10"-S3-14E-5610 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Qui 29/08/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               12"-S3-14E-5611 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Seg 02/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               12"-S3-14E-5612 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Qua 04/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               12"-S3-14E-5613 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Seg 09/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               12"-S3-14E-5614 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Sex 13/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-S3-14E-5615-P - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Ter 17/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-S3-14E-5630 - ÁGUA DA CALDEIRA</t>
-  </si>
-  <si>
-    <t>Qui 19/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               1/2"-S3-14E-5632 - ÁGUA DESMI</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-W2-14E-5621 - ÁGUA DESMI</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-A2-14E-5628 - AR INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>Seg 23/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-A2-14E-5629 - AR INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>Qua 25/09/24</t>
-  </si>
-  <si>
-    <t>1.2.3.4.2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               3/4"-A2-14E-5627 - AR INSTRUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Site</t>
-  </si>
-  <si>
-    <t>Qua 15/05/24</t>
-  </si>
-  <si>
-    <t>Qui 21/11/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Geral - Desmobilização</t>
-  </si>
-  <si>
-    <t>Cristiana</t>
-  </si>
-  <si>
-    <t>Fornecimenro de materiais</t>
-  </si>
-  <si>
-    <t>Pendência de fornecimento de materiais de fabricação pela Hydro</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2232,11 +2232,9 @@
     <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2297,6 +2295,21 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2310,6 +2323,19 @@
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -2386,20 +2412,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -3364,13 +3376,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S103" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A6:S103" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:S103" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="25"/>
@@ -3390,7 +3396,7 @@
     <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="11"/>
     <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="10"/>
     <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{E4B92BE4-F73A-44F7-B54E-C362DDF3828C}" name="Coluna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3739,7 +3745,7 @@
   <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="37" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3752,17 +3758,16 @@
     <col min="6" max="6" width="50.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="38.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22" style="61" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22" style="59" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="73" customWidth="1"/>
     <col min="12" max="12" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" style="5" customWidth="1"/>
     <col min="15" max="16" width="12.6640625" style="5" customWidth="1"/>
     <col min="17" max="17" width="11.33203125" style="5" customWidth="1"/>
     <col min="18" max="18" width="53.5546875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -3774,9 +3779,9 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="66"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="18"/>
@@ -3794,9 +3799,9 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="23"/>
@@ -3814,9 +3819,9 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="67"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="23"/>
@@ -3834,9 +3839,9 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="67"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="23"/>
@@ -3854,9 +3859,9 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="68"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="71"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="27"/>
@@ -3890,13 +3895,13 @@
       <c r="H6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="48" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="72" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -3908,7 +3913,7 @@
       <c r="N6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="60" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="12" t="s">
@@ -3920,8 +3925,8 @@
       <c r="R6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="49" t="s">
-        <v>117</v>
+      <c r="S6" s="12" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3929,10 +3934,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>117</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
@@ -3942,17 +3947,17 @@
         <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
         <v>45390</v>
       </c>
-      <c r="I7" s="69" t="str">
+      <c r="I7" s="67" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
         <v>Seg 25/03/24</v>
       </c>
-      <c r="J7" s="60" t="str">
+      <c r="J7" s="58" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
         <v>Sex 26/04/24</v>
       </c>
@@ -3961,28 +3966,30 @@
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R7" s="33"/>
-      <c r="S7" s="50"/>
+      <c r="S7" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>118</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
@@ -3992,17 +3999,17 @@
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9">
         <v>45390</v>
       </c>
-      <c r="I8" s="69" t="str">
+      <c r="I8" s="67" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
         <v>Ter 19/03/24</v>
       </c>
-      <c r="J8" s="60" t="str">
+      <c r="J8" s="58" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
         <v>Qua 10/04/24</v>
       </c>
@@ -4011,28 +4018,30 @@
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R8" s="33"/>
-      <c r="S8" s="50"/>
+      <c r="S8" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="62" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="8" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
@@ -4042,17 +4051,17 @@
         <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
         <v>45397</v>
       </c>
-      <c r="I9" s="69" t="str">
+      <c r="I9" s="67" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
         <v>Qui 18/04/24</v>
       </c>
-      <c r="J9" s="60" t="str">
+      <c r="J9" s="58" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
         <v>Qua 08/05/24</v>
       </c>
@@ -4061,28 +4070,30 @@
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R9" s="33"/>
-      <c r="S9" s="50"/>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>249</v>
+        <v>127</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="D10" s="8" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
@@ -4092,15 +4103,15 @@
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="69" t="str">
+      <c r="I10" s="67" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
         <v>Ter 30/04/24</v>
       </c>
-      <c r="J10" s="60" t="str">
+      <c r="J10" s="58" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
         <v>Ter 04/06/24</v>
       </c>
@@ -4109,28 +4120,30 @@
       </c>
       <c r="L10" s="42"/>
       <c r="M10" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" s="44"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R10" s="33"/>
-      <c r="S10" s="50"/>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>344</v>
+        <v>127</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>343</v>
       </c>
       <c r="D11" s="8" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
@@ -4140,19 +4153,19 @@
         <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H11" s="9">
         <v>45397</v>
       </c>
-      <c r="I11" s="69" t="str">
+      <c r="I11" s="67" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
         <v>Sex 03/05/24</v>
       </c>
-      <c r="J11" s="60" t="str">
+      <c r="J11" s="58" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
         <v>Seg 13/05/24</v>
       </c>
@@ -4160,58 +4173,89 @@
         <v>18</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M11" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R11" s="33"/>
-      <c r="S11" s="50"/>
-    </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="52.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            PlataformaEL. 5,030m</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="47"/>
+      <c r="H12" s="9">
+        <v>45404</v>
+      </c>
+      <c r="I12" s="67" t="str">
+        <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Sex 10/05/24</v>
+      </c>
+      <c r="J12" s="58" t="str">
+        <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 15/07/24</v>
+      </c>
+      <c r="K12" s="47">
+        <v>19</v>
+      </c>
       <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>129</v>
+      </c>
       <c r="O12" s="44"/>
       <c r="P12" s="41"/>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="R12" s="33"/>
-      <c r="S12" s="50"/>
-    </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>9</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="60"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="58"/>
       <c r="K13" s="47"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
@@ -4220,21 +4264,20 @@
       <c r="P13" s="41"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="33"/>
-      <c r="S13" s="50"/>
-    </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>10</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="64"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="60"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="47"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
@@ -4243,21 +4286,20 @@
       <c r="P14" s="41"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="33"/>
-      <c r="S14" s="50"/>
-    </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>11</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="60"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="47"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
@@ -4266,21 +4308,20 @@
       <c r="P15" s="41"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="33"/>
-      <c r="S15" s="50"/>
-    </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>12</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="60"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="58"/>
       <c r="K16" s="47"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
@@ -4289,21 +4330,20 @@
       <c r="P16" s="41"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="33"/>
-      <c r="S16" s="50"/>
-    </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>13</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="60"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="47"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -4312,21 +4352,20 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="33"/>
-      <c r="S17" s="50"/>
-    </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>14</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="60"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="47"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
@@ -4335,21 +4374,20 @@
       <c r="P18" s="41"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="33"/>
-      <c r="S18" s="50"/>
-    </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>15</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="60"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="47"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
@@ -4358,21 +4396,20 @@
       <c r="P19" s="41"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="33"/>
-      <c r="S19" s="50"/>
-    </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>16</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="60"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="47"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
@@ -4381,21 +4418,20 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="33"/>
-      <c r="S20" s="50"/>
-    </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>17</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="64"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="60"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="47"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
@@ -4404,21 +4440,20 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="33"/>
-      <c r="S21" s="50"/>
-    </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>18</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="64"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="60"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="47"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
@@ -4427,21 +4462,20 @@
       <c r="P22" s="41"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="33"/>
-      <c r="S22" s="50"/>
-    </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>19</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="60"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="47"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
@@ -4450,21 +4484,20 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="33"/>
-      <c r="S23" s="50"/>
-    </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>20</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="8"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="60"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="58"/>
       <c r="K24" s="47"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
@@ -4473,21 +4506,20 @@
       <c r="P24" s="41"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="33"/>
-      <c r="S24" s="50"/>
-    </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="60"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="58"/>
       <c r="K25" s="47"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
@@ -4496,21 +4528,20 @@
       <c r="P25" s="41"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="46"/>
-      <c r="S25" s="50"/>
-    </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <v>22</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="64"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="8"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="60"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="47"/>
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
@@ -4519,21 +4550,20 @@
       <c r="P26" s="41"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="46"/>
-      <c r="S26" s="50"/>
-    </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>23</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="64"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="8"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="60"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="58"/>
       <c r="K27" s="47"/>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
@@ -4542,21 +4572,20 @@
       <c r="P27" s="41"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="46"/>
-      <c r="S27" s="50"/>
-    </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>24</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="64"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="8"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="60"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="58"/>
       <c r="K28" s="47"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
@@ -4565,21 +4594,20 @@
       <c r="P28" s="41"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="46"/>
-      <c r="S28" s="50"/>
-    </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>25</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="59"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="8"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="60"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="58"/>
       <c r="K29" s="47"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
@@ -4587,22 +4615,21 @@
       <c r="O29" s="44"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="50"/>
-    </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="55"/>
+    </row>
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>26</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="8"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="60"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="58"/>
       <c r="K30" s="47"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
@@ -4611,21 +4638,20 @@
       <c r="P30" s="41"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="46"/>
-      <c r="S30" s="50"/>
-    </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>27</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="59"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="60"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="47"/>
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
@@ -4634,21 +4660,20 @@
       <c r="P31" s="41"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="46"/>
-      <c r="S31" s="50"/>
-    </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
         <v>28</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="59"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="8"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="60"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="58"/>
       <c r="K32" s="47"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -4657,21 +4682,20 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="46"/>
-      <c r="S32" s="50"/>
-    </row>
-    <row r="33" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45">
         <v>29</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="59"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="60"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="58"/>
       <c r="K33" s="47"/>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
@@ -4680,21 +4704,20 @@
       <c r="P33" s="41"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="33"/>
-      <c r="S33" s="50"/>
-    </row>
-    <row r="34" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45">
         <v>30</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="59"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="8"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="60"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="58"/>
       <c r="K34" s="47"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -4703,21 +4726,20 @@
       <c r="P34" s="41"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="46"/>
-      <c r="S34" s="50"/>
-    </row>
-    <row r="35" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
         <v>31</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="59"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="8"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="60"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="47"/>
       <c r="L35" s="42"/>
       <c r="M35" s="42"/>
@@ -4726,21 +4748,20 @@
       <c r="P35" s="41"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="46"/>
-      <c r="S35" s="50"/>
-    </row>
-    <row r="36" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
         <v>32</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="59"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="8"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="60"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="58"/>
       <c r="K36" s="47"/>
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
@@ -4749,21 +4770,20 @@
       <c r="P36" s="41"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="46"/>
-      <c r="S36" s="50"/>
-    </row>
-    <row r="37" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <v>33</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="59"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="60"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="58"/>
       <c r="K37" s="47"/>
       <c r="L37" s="42"/>
       <c r="M37" s="42"/>
@@ -4772,21 +4792,20 @@
       <c r="P37" s="41"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="33"/>
-      <c r="S37" s="50"/>
-    </row>
-    <row r="38" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <v>34</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="59"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="60"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="47"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
@@ -4795,21 +4814,20 @@
       <c r="P38" s="41"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="46"/>
-      <c r="S38" s="50"/>
-    </row>
-    <row r="39" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <v>35</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="59"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="60"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="58"/>
       <c r="K39" s="47"/>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
@@ -4818,21 +4836,20 @@
       <c r="P39" s="41"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="46"/>
-      <c r="S39" s="50"/>
-    </row>
-    <row r="40" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <v>36</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="59"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="8"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="60"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="58"/>
       <c r="K40" s="47"/>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
@@ -4841,21 +4858,20 @@
       <c r="P40" s="41"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="46"/>
-      <c r="S40" s="50"/>
-    </row>
-    <row r="41" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <v>37</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="59"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="8"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="60"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="47"/>
       <c r="L41" s="42"/>
       <c r="M41" s="42"/>
@@ -4864,21 +4880,20 @@
       <c r="P41" s="41"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="46"/>
-      <c r="S41" s="50"/>
-    </row>
-    <row r="42" spans="1:19" s="11" customFormat="1" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:19" s="11" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>38</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="59"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="8"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="60"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="47"/>
       <c r="L42" s="42"/>
       <c r="M42" s="42"/>
@@ -4887,21 +4902,20 @@
       <c r="P42" s="41"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="46"/>
-      <c r="S42" s="50"/>
-    </row>
-    <row r="43" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
         <v>39</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="59"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="8"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="60"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="58"/>
       <c r="K43" s="47"/>
       <c r="L43" s="42"/>
       <c r="M43" s="42"/>
@@ -4910,21 +4924,20 @@
       <c r="P43" s="41"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="46"/>
-      <c r="S43" s="50"/>
-    </row>
-    <row r="44" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>40</v>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="59"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="60"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="58"/>
       <c r="K44" s="47"/>
       <c r="L44" s="42"/>
       <c r="M44" s="42"/>
@@ -4933,21 +4946,20 @@
       <c r="P44" s="41"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="46"/>
-      <c r="S44" s="50"/>
-    </row>
-    <row r="45" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>41</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="59"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="8"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="60"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="58"/>
       <c r="K45" s="47"/>
       <c r="L45" s="42"/>
       <c r="M45" s="42"/>
@@ -4956,21 +4968,20 @@
       <c r="P45" s="41"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="46"/>
-      <c r="S45" s="50"/>
-    </row>
-    <row r="46" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>42</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="59"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="8"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="60"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="58"/>
       <c r="K46" s="47"/>
       <c r="L46" s="42"/>
       <c r="M46" s="42"/>
@@ -4979,1350 +4990,1349 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="46"/>
-      <c r="S46" s="50"/>
-    </row>
-    <row r="47" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>43</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="59"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="52"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="42"/>
       <c r="M47" s="42"/>
       <c r="N47" s="43"/>
       <c r="O47" s="44"/>
       <c r="P47" s="41"/>
-      <c r="Q47" s="51"/>
+      <c r="Q47" s="49"/>
       <c r="R47" s="46"/>
-      <c r="S47" s="50"/>
-    </row>
-    <row r="48" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>44</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="59"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="52"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="50"/>
       <c r="L48" s="42"/>
       <c r="M48" s="42"/>
       <c r="N48" s="43"/>
       <c r="O48" s="44"/>
       <c r="P48" s="41"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="50"/>
-    </row>
-    <row r="49" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q48" s="49"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <v>45</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="59"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="8"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="52"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="50"/>
       <c r="L49" s="42"/>
       <c r="M49" s="42"/>
       <c r="N49" s="43"/>
       <c r="O49" s="44"/>
       <c r="P49" s="41"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="50"/>
-    </row>
-    <row r="50" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="49"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>46</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="59"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="8"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="52"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="50"/>
       <c r="L50" s="42"/>
       <c r="M50" s="42"/>
       <c r="N50" s="43"/>
       <c r="O50" s="44"/>
       <c r="P50" s="41"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="50"/>
-    </row>
-    <row r="51" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q50" s="49"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>47</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="59"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="8"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="52"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="42"/>
       <c r="M51" s="42"/>
       <c r="N51" s="43"/>
       <c r="O51" s="44"/>
       <c r="P51" s="41"/>
-      <c r="Q51" s="51"/>
+      <c r="Q51" s="49"/>
       <c r="R51" s="46"/>
-      <c r="S51" s="50"/>
-    </row>
-    <row r="52" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <v>48</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="59"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="8"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="52"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="42"/>
       <c r="M52" s="42"/>
       <c r="N52" s="43"/>
       <c r="O52" s="44"/>
       <c r="P52" s="41"/>
-      <c r="Q52" s="51"/>
+      <c r="Q52" s="49"/>
       <c r="R52" s="46"/>
-      <c r="S52" s="50"/>
-    </row>
-    <row r="53" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>49</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="59"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="52"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="50"/>
       <c r="L53" s="42"/>
       <c r="M53" s="42"/>
       <c r="N53" s="43"/>
       <c r="O53" s="44"/>
       <c r="P53" s="41"/>
-      <c r="Q53" s="51"/>
+      <c r="Q53" s="49"/>
       <c r="R53" s="46"/>
-      <c r="S53" s="50"/>
-    </row>
-    <row r="54" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>50</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="59"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="8"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="52"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="42"/>
       <c r="M54" s="42"/>
       <c r="N54" s="43"/>
       <c r="O54" s="44"/>
       <c r="P54" s="41"/>
-      <c r="Q54" s="51"/>
+      <c r="Q54" s="49"/>
       <c r="R54" s="46"/>
-      <c r="S54" s="50"/>
-    </row>
-    <row r="55" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>51</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="59"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="8"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="52"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="50"/>
       <c r="L55" s="42"/>
       <c r="M55" s="42"/>
       <c r="N55" s="43"/>
       <c r="O55" s="44"/>
       <c r="P55" s="41"/>
-      <c r="Q55" s="51"/>
+      <c r="Q55" s="49"/>
       <c r="R55" s="46"/>
-      <c r="S55" s="50"/>
-    </row>
-    <row r="56" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>52</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="59"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="8"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="52"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="50"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
       <c r="N56" s="43"/>
       <c r="O56" s="44"/>
       <c r="P56" s="41"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="50"/>
-    </row>
-    <row r="57" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q56" s="49"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <v>53</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="59"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="8"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="52"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="50"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
       <c r="N57" s="43"/>
       <c r="O57" s="44"/>
       <c r="P57" s="41"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="50"/>
-    </row>
-    <row r="58" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q57" s="49"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>54</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="59"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="8"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="52"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="50"/>
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
       <c r="N58" s="43"/>
       <c r="O58" s="44"/>
       <c r="P58" s="41"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="50"/>
-    </row>
-    <row r="59" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q58" s="49"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45">
         <v>55</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="59"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="8"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="52"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="42"/>
       <c r="M59" s="42"/>
       <c r="N59" s="43"/>
       <c r="O59" s="44"/>
       <c r="P59" s="41"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="50"/>
-    </row>
-    <row r="60" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q59" s="49"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45">
         <v>56</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="59"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="8"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="52"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="42"/>
       <c r="M60" s="42"/>
       <c r="N60" s="43"/>
       <c r="O60" s="44"/>
       <c r="P60" s="41"/>
-      <c r="Q60" s="51"/>
+      <c r="Q60" s="49"/>
       <c r="R60" s="46"/>
-      <c r="S60" s="50"/>
-    </row>
-    <row r="61" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>57</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="59"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="8"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="52"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="42"/>
       <c r="M61" s="42"/>
       <c r="N61" s="43"/>
       <c r="O61" s="44"/>
       <c r="P61" s="41"/>
-      <c r="Q61" s="51"/>
+      <c r="Q61" s="49"/>
       <c r="R61" s="46"/>
-      <c r="S61" s="50"/>
-    </row>
-    <row r="62" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>58</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="59"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="8"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="52"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="50"/>
       <c r="L62" s="42"/>
       <c r="M62" s="42"/>
       <c r="N62" s="43"/>
       <c r="O62" s="44"/>
       <c r="P62" s="41"/>
-      <c r="Q62" s="51"/>
+      <c r="Q62" s="49"/>
       <c r="R62" s="46"/>
-      <c r="S62" s="50"/>
-    </row>
-    <row r="63" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>59</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="59"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="8"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="52"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="50"/>
       <c r="L63" s="42"/>
       <c r="M63" s="42"/>
       <c r="N63" s="43"/>
       <c r="O63" s="44"/>
       <c r="P63" s="41"/>
-      <c r="Q63" s="51"/>
+      <c r="Q63" s="49"/>
       <c r="R63" s="46"/>
-      <c r="S63" s="50"/>
-    </row>
-    <row r="64" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>60</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="59"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="8"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="52"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="50"/>
       <c r="L64" s="42"/>
       <c r="M64" s="42"/>
       <c r="N64" s="43"/>
       <c r="O64" s="44"/>
       <c r="P64" s="41"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="50"/>
-    </row>
-    <row r="65" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q64" s="49"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>61</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="59"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="8"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="52"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="42"/>
       <c r="M65" s="42"/>
       <c r="N65" s="43"/>
       <c r="O65" s="44"/>
       <c r="P65" s="41"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="50"/>
-    </row>
-    <row r="66" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q65" s="49"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>62</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="59"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="8"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="52"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="50"/>
       <c r="L66" s="42"/>
       <c r="M66" s="42"/>
       <c r="N66" s="43"/>
       <c r="O66" s="44"/>
       <c r="P66" s="41"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="50"/>
-    </row>
-    <row r="67" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q66" s="49"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>63</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="59"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="8"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="52"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="50"/>
       <c r="L67" s="42"/>
       <c r="M67" s="42"/>
       <c r="N67" s="43"/>
       <c r="O67" s="44"/>
       <c r="P67" s="41"/>
-      <c r="Q67" s="51"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="50"/>
-    </row>
-    <row r="68" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q67" s="49"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="11"/>
+    </row>
+    <row r="68" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45">
         <v>64</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="59"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="8"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="52"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="50"/>
       <c r="L68" s="42"/>
       <c r="M68" s="42"/>
       <c r="N68" s="43"/>
       <c r="O68" s="44"/>
       <c r="P68" s="41"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="50"/>
-    </row>
-    <row r="69" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q68" s="49"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="11"/>
+    </row>
+    <row r="69" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <v>65</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="59"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="8"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="52"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="50"/>
       <c r="L69" s="42"/>
       <c r="M69" s="42"/>
       <c r="N69" s="43"/>
       <c r="O69" s="44"/>
       <c r="P69" s="41"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="50"/>
-    </row>
-    <row r="70" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q69" s="49"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="11"/>
+    </row>
+    <row r="70" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <v>66</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="59"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="8"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="52"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="50"/>
       <c r="L70" s="42"/>
       <c r="M70" s="42"/>
       <c r="N70" s="43"/>
       <c r="O70" s="44"/>
       <c r="P70" s="41"/>
-      <c r="Q70" s="51"/>
+      <c r="Q70" s="49"/>
       <c r="R70" s="46"/>
-      <c r="S70" s="50"/>
-    </row>
-    <row r="71" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <v>67</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="59"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="8"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="52"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="50"/>
       <c r="L71" s="42"/>
       <c r="M71" s="42"/>
       <c r="N71" s="43"/>
       <c r="O71" s="44"/>
       <c r="P71" s="41"/>
-      <c r="Q71" s="51"/>
+      <c r="Q71" s="49"/>
       <c r="R71" s="46"/>
-      <c r="S71" s="50"/>
-    </row>
-    <row r="72" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45">
         <v>68</v>
       </c>
       <c r="B72" s="7"/>
-      <c r="C72" s="59"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="8"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="52"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="42"/>
       <c r="M72" s="42"/>
       <c r="N72" s="43"/>
       <c r="O72" s="44"/>
       <c r="P72" s="41"/>
-      <c r="Q72" s="51"/>
+      <c r="Q72" s="49"/>
       <c r="R72" s="46"/>
-      <c r="S72" s="50"/>
-    </row>
-    <row r="73" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45">
         <v>69</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="59"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="8"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="52"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="50"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
       <c r="N73" s="43"/>
       <c r="O73" s="44"/>
       <c r="P73" s="41"/>
-      <c r="Q73" s="51"/>
+      <c r="Q73" s="49"/>
       <c r="R73" s="46"/>
-      <c r="S73" s="50"/>
-    </row>
-    <row r="74" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45">
         <v>70</v>
       </c>
       <c r="B74" s="7"/>
-      <c r="C74" s="59"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="8"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="52"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="50"/>
       <c r="L74" s="42"/>
       <c r="M74" s="42"/>
       <c r="N74" s="43"/>
       <c r="O74" s="44"/>
       <c r="P74" s="41"/>
-      <c r="Q74" s="51"/>
+      <c r="Q74" s="49"/>
       <c r="R74" s="46"/>
-      <c r="S74" s="50"/>
-    </row>
-    <row r="75" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45">
         <v>71</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="59"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="8"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="52"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="50"/>
       <c r="L75" s="42"/>
       <c r="M75" s="42"/>
       <c r="N75" s="43"/>
       <c r="O75" s="44"/>
       <c r="P75" s="41"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="50"/>
-    </row>
-    <row r="76" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q75" s="49"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="11"/>
+    </row>
+    <row r="76" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="45">
         <v>72</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="59"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="8"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="52"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="50"/>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
       <c r="N76" s="43"/>
       <c r="O76" s="44"/>
       <c r="P76" s="41"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="50"/>
-    </row>
-    <row r="77" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="54">
+      <c r="Q76" s="49"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="11"/>
+    </row>
+    <row r="77" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="52">
         <v>73</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="63"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="52"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="50"/>
       <c r="L77" s="42"/>
       <c r="M77" s="42"/>
       <c r="N77" s="43"/>
       <c r="O77" s="44"/>
       <c r="P77" s="41"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="50"/>
-    </row>
-    <row r="78" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="54">
+      <c r="Q77" s="49"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="11"/>
+    </row>
+    <row r="78" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="52">
         <v>74</v>
       </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="63"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="52"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="50"/>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
       <c r="N78" s="43"/>
       <c r="O78" s="44"/>
       <c r="P78" s="41"/>
-      <c r="Q78" s="51"/>
+      <c r="Q78" s="49"/>
       <c r="R78" s="46"/>
-      <c r="S78" s="50"/>
-    </row>
-    <row r="79" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54">
+      <c r="S78" s="11"/>
+    </row>
+    <row r="79" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="52">
         <v>75</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="63"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="52"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="50"/>
       <c r="L79" s="42"/>
       <c r="M79" s="42"/>
       <c r="N79" s="43"/>
       <c r="O79" s="44"/>
       <c r="P79" s="41"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="50"/>
-    </row>
-    <row r="80" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="54">
+      <c r="Q79" s="49"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="11"/>
+    </row>
+    <row r="80" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="52">
         <v>76</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="63"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="61"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="52"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
       <c r="N80" s="43"/>
       <c r="O80" s="44"/>
       <c r="P80" s="41"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="50"/>
-    </row>
-    <row r="81" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="54">
+      <c r="Q80" s="49"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="52">
         <v>77</v>
       </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="63"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="61"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="52"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="50"/>
       <c r="L81" s="42"/>
       <c r="M81" s="42"/>
       <c r="N81" s="43"/>
       <c r="O81" s="44"/>
       <c r="P81" s="41"/>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="50"/>
-    </row>
-    <row r="82" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="54">
+      <c r="Q81" s="49"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="52">
         <v>78</v>
       </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="63"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="61"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="52"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="50"/>
       <c r="L82" s="42"/>
       <c r="M82" s="42"/>
       <c r="N82" s="43"/>
       <c r="O82" s="44"/>
       <c r="P82" s="41"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="53"/>
-      <c r="S82" s="50"/>
-    </row>
-    <row r="83" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54">
+      <c r="Q82" s="49"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="11"/>
+    </row>
+    <row r="83" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="52">
         <v>79</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="63"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="61"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="52"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="50"/>
       <c r="L83" s="42"/>
       <c r="M83" s="42"/>
       <c r="N83" s="43"/>
       <c r="O83" s="44"/>
       <c r="P83" s="41"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="50"/>
-    </row>
-    <row r="84" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="54">
+      <c r="Q83" s="49"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="11"/>
+    </row>
+    <row r="84" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="52">
         <v>80</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="63"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="61"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="52"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="50"/>
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
       <c r="N84" s="43"/>
       <c r="O84" s="44"/>
       <c r="P84" s="41"/>
-      <c r="Q84" s="51"/>
+      <c r="Q84" s="49"/>
       <c r="R84" s="46"/>
-      <c r="S84" s="50"/>
-    </row>
-    <row r="85" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="54">
+      <c r="S84" s="11"/>
+    </row>
+    <row r="85" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="52">
         <v>81</v>
       </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="63"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="61"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="52"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="50"/>
       <c r="L85" s="42"/>
       <c r="M85" s="42"/>
       <c r="N85" s="43"/>
       <c r="O85" s="44"/>
       <c r="P85" s="41"/>
-      <c r="Q85" s="51"/>
+      <c r="Q85" s="49"/>
       <c r="R85" s="46"/>
-      <c r="S85" s="50"/>
-    </row>
-    <row r="86" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="54">
+      <c r="S85" s="11"/>
+    </row>
+    <row r="86" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="52">
         <v>82</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="63"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="61"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="52"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="50"/>
       <c r="L86" s="42"/>
       <c r="M86" s="42"/>
       <c r="N86" s="43"/>
       <c r="O86" s="44"/>
       <c r="P86" s="41"/>
-      <c r="Q86" s="51"/>
+      <c r="Q86" s="49"/>
       <c r="R86" s="46"/>
-      <c r="S86" s="50"/>
-    </row>
-    <row r="87" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="54">
+      <c r="S86" s="11"/>
+    </row>
+    <row r="87" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="52">
         <v>83</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="63"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="61"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="52"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="50"/>
       <c r="L87" s="42"/>
       <c r="M87" s="42"/>
       <c r="N87" s="43"/>
       <c r="O87" s="44"/>
       <c r="P87" s="41"/>
-      <c r="Q87" s="51"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="50"/>
-    </row>
-    <row r="88" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="54">
+      <c r="Q87" s="49"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="11"/>
+    </row>
+    <row r="88" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="52">
         <v>84</v>
       </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="63"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="61"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="52"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="50"/>
       <c r="L88" s="42"/>
       <c r="M88" s="42"/>
       <c r="N88" s="43"/>
       <c r="O88" s="44"/>
       <c r="P88" s="41"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="50"/>
-    </row>
-    <row r="89" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="54">
+      <c r="Q88" s="49"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="52">
         <v>85</v>
       </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="63"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="52"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="50"/>
       <c r="L89" s="42"/>
       <c r="M89" s="42"/>
       <c r="N89" s="43"/>
       <c r="O89" s="44"/>
       <c r="P89" s="41"/>
-      <c r="Q89" s="51"/>
-      <c r="R89" s="53"/>
-      <c r="S89" s="50"/>
-    </row>
-    <row r="90" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54">
+      <c r="Q89" s="49"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="11"/>
+    </row>
+    <row r="90" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="52">
         <v>86</v>
       </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="63"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="61"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="52"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="50"/>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
       <c r="N90" s="43"/>
       <c r="O90" s="44"/>
       <c r="P90" s="41"/>
-      <c r="Q90" s="51"/>
-      <c r="R90" s="53"/>
-      <c r="S90" s="50"/>
-    </row>
-    <row r="91" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="54">
+      <c r="Q90" s="49"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="11"/>
+    </row>
+    <row r="91" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="52">
         <v>87</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="63"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="61"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="52"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="50"/>
       <c r="L91" s="42"/>
       <c r="M91" s="42"/>
       <c r="N91" s="43"/>
       <c r="O91" s="44"/>
       <c r="P91" s="41"/>
-      <c r="Q91" s="51"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="50"/>
-    </row>
-    <row r="92" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="54">
+      <c r="Q91" s="49"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="11"/>
+    </row>
+    <row r="92" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="52">
         <v>88</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="63"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="61"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="52"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="50"/>
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
       <c r="N92" s="43"/>
       <c r="O92" s="44"/>
       <c r="P92" s="41"/>
-      <c r="Q92" s="51"/>
-      <c r="R92" s="53"/>
-      <c r="S92" s="50"/>
-    </row>
-    <row r="93" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="54">
+      <c r="Q92" s="49"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="11"/>
+    </row>
+    <row r="93" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="52">
         <v>89</v>
       </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="63"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="61"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="52"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="50"/>
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
       <c r="N93" s="43"/>
       <c r="O93" s="44"/>
       <c r="P93" s="41"/>
-      <c r="Q93" s="51"/>
-      <c r="R93" s="53"/>
-      <c r="S93" s="50"/>
-    </row>
-    <row r="94" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="54">
+      <c r="Q93" s="49"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="11"/>
+    </row>
+    <row r="94" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="52">
         <v>90</v>
       </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="63"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="61"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="52"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="50"/>
       <c r="L94" s="42"/>
       <c r="M94" s="42"/>
       <c r="N94" s="43"/>
       <c r="O94" s="44"/>
       <c r="P94" s="41"/>
-      <c r="Q94" s="51"/>
-      <c r="R94" s="53"/>
-      <c r="S94" s="50"/>
-    </row>
-    <row r="95" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="54">
+      <c r="Q94" s="49"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="11"/>
+    </row>
+    <row r="95" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52">
         <v>91</v>
       </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="63"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="61"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="52"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="50"/>
       <c r="L95" s="42"/>
       <c r="M95" s="42"/>
       <c r="N95" s="43"/>
       <c r="O95" s="44"/>
       <c r="P95" s="41"/>
-      <c r="Q95" s="51"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="50"/>
-    </row>
-    <row r="96" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54">
+      <c r="Q95" s="49"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="11"/>
+    </row>
+    <row r="96" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="52">
         <v>92</v>
       </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="63"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="61"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="52"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="50"/>
       <c r="L96" s="42"/>
       <c r="M96" s="42"/>
       <c r="N96" s="43"/>
       <c r="O96" s="44"/>
       <c r="P96" s="41"/>
-      <c r="Q96" s="51"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="50"/>
-    </row>
-    <row r="97" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="54">
+      <c r="Q96" s="49"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="11"/>
+    </row>
+    <row r="97" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="52">
         <v>93</v>
       </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="63"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="61"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="52"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="50"/>
       <c r="L97" s="42"/>
       <c r="M97" s="42"/>
       <c r="N97" s="43"/>
       <c r="O97" s="44"/>
       <c r="P97" s="41"/>
-      <c r="Q97" s="51"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="50"/>
-    </row>
-    <row r="98" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54">
+      <c r="Q97" s="49"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="11"/>
+    </row>
+    <row r="98" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="52">
         <v>94</v>
       </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="63"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="61"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="52"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="50"/>
       <c r="L98" s="42"/>
       <c r="M98" s="42"/>
       <c r="N98" s="43"/>
       <c r="O98" s="44"/>
       <c r="P98" s="41"/>
-      <c r="Q98" s="51"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="50"/>
-    </row>
-    <row r="99" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="54">
+      <c r="Q98" s="49"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="11"/>
+    </row>
+    <row r="99" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="52">
         <v>95</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="63"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="61"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="52"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="50"/>
       <c r="L99" s="42"/>
       <c r="M99" s="42"/>
       <c r="N99" s="43"/>
       <c r="O99" s="44"/>
       <c r="P99" s="41"/>
-      <c r="Q99" s="51"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="50"/>
-    </row>
-    <row r="100" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="54">
+      <c r="Q99" s="49"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="52">
         <v>96</v>
       </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="63"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="61"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="70"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="52"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="50"/>
       <c r="L100" s="42"/>
       <c r="M100" s="42"/>
       <c r="N100" s="43"/>
       <c r="O100" s="44"/>
       <c r="P100" s="41"/>
-      <c r="Q100" s="51"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="50"/>
-    </row>
-    <row r="101" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="54">
+      <c r="Q100" s="49"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="11"/>
+    </row>
+    <row r="101" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="52">
         <v>97</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="63"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="61"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="52"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="50"/>
       <c r="L101" s="42"/>
       <c r="M101" s="42"/>
       <c r="N101" s="43"/>
       <c r="O101" s="44"/>
       <c r="P101" s="41"/>
-      <c r="Q101" s="51"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="50"/>
-    </row>
-    <row r="102" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="54">
+      <c r="Q101" s="49"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="11"/>
+    </row>
+    <row r="102" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="52">
         <v>98</v>
       </c>
-      <c r="B102" s="55"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="63"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="61"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="52"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="50"/>
       <c r="L102" s="42"/>
       <c r="M102" s="42"/>
       <c r="N102" s="43"/>
       <c r="O102" s="44"/>
       <c r="P102" s="41"/>
-      <c r="Q102" s="51"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="50"/>
-    </row>
-    <row r="103" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="54">
+      <c r="Q102" s="49"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="11"/>
+    </row>
+    <row r="103" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="52">
         <v>99</v>
       </c>
-      <c r="B103" s="55"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="63"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="61"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="70"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="52"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="50"/>
       <c r="L103" s="42"/>
       <c r="M103" s="42"/>
       <c r="N103" s="43"/>
       <c r="O103" s="44"/>
       <c r="P103" s="41"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="50"/>
+      <c r="Q103" s="49"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C7:C30">
-    <cfRule type="duplicateValues" dxfId="7" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30 C7:C28">
-    <cfRule type="duplicateValues" dxfId="6" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D103">
-    <cfRule type="duplicateValues" dxfId="5" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I11">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="I7:I12">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q103">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="880" yWindow="530" count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="I7:I11 D7:D103" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I12:I103" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="I7:I12 D7:D103" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I13:I103" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q103" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E103" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
@@ -6342,8 +6352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35FED-8461-4782-A1DA-33F218DC60F1}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6355,7 +6365,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -6373,13 +6383,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6387,13 +6397,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6401,69 +6411,69 @@
         <v>4</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>138</v>
-      </c>
       <c r="C5" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>144</v>
-      </c>
       <c r="C7" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>147</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6471,13 +6481,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -6485,13 +6495,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6499,237 +6509,237 @@
         <v>109</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>156</v>
-      </c>
       <c r="C12" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="C13" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>158</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="C14" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>161</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="C15" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>164</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="C16" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>170</v>
-      </c>
       <c r="C17" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>172</v>
-      </c>
       <c r="C18" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>174</v>
-      </c>
       <c r="C19" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>176</v>
-      </c>
       <c r="C20" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>178</v>
-      </c>
       <c r="C21" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="C22" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>180</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>183</v>
-      </c>
       <c r="C23" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>185</v>
-      </c>
       <c r="C24" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>187</v>
-      </c>
       <c r="C25" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>189</v>
-      </c>
       <c r="C26" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>191</v>
-      </c>
       <c r="C27" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6737,1917 +6747,1917 @@
         <v>110</v>
       </c>
       <c r="B28" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>193</v>
-      </c>
       <c r="D28" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>195</v>
-      </c>
       <c r="C29" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="35" t="s">
         <v>120</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="C32" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="38" t="s">
         <v>200</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>203</v>
-      </c>
       <c r="C33" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="C36" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="35" t="s">
         <v>208</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="C38" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>212</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="C39" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>218</v>
-      </c>
       <c r="C40" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="C41" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>220</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="C42" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="38" t="s">
         <v>223</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>226</v>
-      </c>
       <c r="C43" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="C44" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="35" t="s">
         <v>228</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="38" t="s">
         <v>232</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="C50" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>237</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="35" t="s">
         <v>240</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="38" t="s">
         <v>243</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>245</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="C58" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="38" t="s">
+      <c r="D60" s="38" t="s">
         <v>254</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>256</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>258</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="38" t="s">
         <v>260</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="C65" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="35" t="s">
         <v>264</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="38" t="s">
         <v>266</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="38" t="s">
+      <c r="D67" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="38" t="s">
         <v>271</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>273</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="38" t="s">
         <v>275</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="C72" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="35" t="s">
         <v>279</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>281</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="B74" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C74" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>284</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="38" t="s">
         <v>290</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B79" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="C79" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="35" t="s">
         <v>294</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D80" s="38" t="s">
         <v>296</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="B81" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" s="38" t="s">
+      <c r="D81" s="38" t="s">
         <v>299</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="38" t="s">
         <v>301</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" s="38" t="s">
         <v>303</v>
-      </c>
-      <c r="B83" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="38" t="s">
         <v>305</v>
-      </c>
-      <c r="B84" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="C86" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="38" t="s">
         <v>311</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" s="38" t="s">
         <v>313</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" s="38" t="s">
         <v>315</v>
-      </c>
-      <c r="B89" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D89" s="38" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="38" t="s">
         <v>318</v>
-      </c>
-      <c r="B91" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B93" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="B93" s="35" t="s">
-        <v>322</v>
-      </c>
       <c r="C93" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="B94" s="38" t="s">
-        <v>324</v>
-      </c>
       <c r="C94" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="C95" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="38" t="s">
         <v>326</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="B96" s="38" t="s">
-        <v>329</v>
-      </c>
       <c r="C96" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" s="38" t="s">
         <v>330</v>
-      </c>
-      <c r="B97" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="C98" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>333</v>
-      </c>
-      <c r="C98" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="B99" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="B99" s="38" t="s">
-        <v>336</v>
-      </c>
       <c r="C99" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="C100" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C100" s="35" t="s">
-        <v>339</v>
-      </c>
       <c r="D100" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="B101" s="35" t="s">
-        <v>341</v>
-      </c>
       <c r="C101" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="B102" s="38" t="s">
-        <v>343</v>
-      </c>
       <c r="C102" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="B103" s="38" t="s">
-        <v>345</v>
-      </c>
       <c r="C103" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="C104" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="38" t="s">
         <v>347</v>
-      </c>
-      <c r="C104" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="C105" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="38" t="s">
         <v>350</v>
-      </c>
-      <c r="C105" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="38" t="s">
-        <v>353</v>
-      </c>
       <c r="C106" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="38" t="s">
-        <v>355</v>
-      </c>
       <c r="C107" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B108" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="B108" s="38" t="s">
-        <v>357</v>
-      </c>
       <c r="C108" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="C109" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="38" t="s">
         <v>359</v>
-      </c>
-      <c r="C109" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B110" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="B110" s="38" t="s">
-        <v>362</v>
-      </c>
       <c r="C110" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="B111" s="38" t="s">
-        <v>364</v>
-      </c>
       <c r="C111" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B112" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="B112" s="38" t="s">
-        <v>366</v>
-      </c>
       <c r="C112" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="B113" s="38" t="s">
-        <v>368</v>
-      </c>
       <c r="C113" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="C114" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D114" s="38" t="s">
         <v>370</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="C115" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="D115" s="38" t="s">
         <v>373</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="C116" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116" s="38" t="s">
         <v>376</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="B117" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="B117" s="38" t="s">
-        <v>379</v>
-      </c>
       <c r="C117" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="B118" s="38" t="s">
-        <v>381</v>
-      </c>
       <c r="C118" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B119" s="38" t="s">
-        <v>383</v>
-      </c>
       <c r="C119" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D119" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B120" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="B120" s="38" t="s">
-        <v>385</v>
-      </c>
       <c r="C120" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="B121" s="38" t="s">
-        <v>387</v>
-      </c>
       <c r="C121" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B122" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="B122" s="38" t="s">
-        <v>389</v>
-      </c>
       <c r="C122" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D122" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="B123" s="38" t="s">
-        <v>391</v>
-      </c>
       <c r="C123" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D123" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B124" s="38" t="s">
-        <v>393</v>
-      </c>
       <c r="C124" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D124" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="C125" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125" s="38" t="s">
         <v>395</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B126" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="C126" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="D126" s="38" t="s">
         <v>398</v>
-      </c>
-      <c r="C126" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B127" s="38" t="s">
-        <v>401</v>
-      </c>
       <c r="C127" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D127" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="C128" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="38" t="s">
         <v>403</v>
-      </c>
-      <c r="C128" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="D128" s="38" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="B129" s="38" t="s">
-        <v>406</v>
-      </c>
       <c r="C129" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="B130" s="38" t="s">
-        <v>408</v>
-      </c>
       <c r="C130" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D130" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="B131" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="B131" s="38" t="s">
-        <v>410</v>
-      </c>
       <c r="C131" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D131" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="B132" s="35" t="s">
-        <v>412</v>
-      </c>
       <c r="C132" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="B133" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="B133" s="38" t="s">
-        <v>414</v>
-      </c>
       <c r="C133" s="38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D133" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="B134" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="B134" s="38" t="s">
-        <v>416</v>
-      </c>
       <c r="C134" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D134" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B135" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="B135" s="38" t="s">
-        <v>418</v>
-      </c>
       <c r="C135" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D135" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B136" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="C136" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="38" t="s">
         <v>420</v>
-      </c>
-      <c r="C136" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="D136" s="38" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B137" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="C137" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" s="38" t="s">
         <v>423</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="D137" s="38" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B138" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="C138" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D138" s="38" t="s">
         <v>426</v>
-      </c>
-      <c r="C138" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="D138" s="38" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="C139" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" s="38" t="s">
         <v>429</v>
-      </c>
-      <c r="C139" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="D139" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="B140" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="C140" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D140" s="38" t="s">
         <v>432</v>
-      </c>
-      <c r="C140" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="D140" s="38" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B141" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="C141" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="C141" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="C142" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D142" s="38" t="s">
         <v>438</v>
-      </c>
-      <c r="C142" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="D142" s="38" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B143" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="C143" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="D143" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="C143" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="D143" s="38" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B144" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="C144" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D144" s="38" t="s">
         <v>444</v>
-      </c>
-      <c r="C144" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="D144" s="38" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="B145" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="C145" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="D145" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="C145" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="D145" s="38" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B146" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="B146" s="38" t="s">
-        <v>450</v>
-      </c>
       <c r="C146" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="B147" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="B147" s="38" t="s">
-        <v>452</v>
-      </c>
       <c r="C147" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B148" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="C148" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D148" s="38" t="s">
         <v>454</v>
-      </c>
-      <c r="C148" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="D148" s="38" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B149" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="C149" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D149" s="38" t="s">
         <v>457</v>
-      </c>
-      <c r="C149" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="D149" s="38" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="B150" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="C150" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="D150" s="38" t="s">
         <v>460</v>
-      </c>
-      <c r="C150" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B151" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="C151" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" s="38" t="s">
         <v>463</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="D151" s="38" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B152" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="C152" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="D152" s="38" t="s">
         <v>466</v>
-      </c>
-      <c r="C152" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="D152" s="38" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B153" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="C153" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" s="38" t="s">
         <v>469</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="D153" s="38" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B154" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="C154" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D154" s="38" t="s">
         <v>472</v>
-      </c>
-      <c r="C154" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="D154" s="38" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B155" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="C155" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D155" s="38" t="s">
         <v>475</v>
-      </c>
-      <c r="C155" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="B156" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="C156" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" s="38" t="s">
         <v>478</v>
-      </c>
-      <c r="C156" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D156" s="38" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="B157" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="C157" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="D157" s="38" t="s">
         <v>481</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="D157" s="38" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B158" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="C158" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="D158" s="38" t="s">
         <v>484</v>
-      </c>
-      <c r="C158" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D158" s="38" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="C159" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D159" s="38" t="s">
         <v>487</v>
-      </c>
-      <c r="C159" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="D159" s="38" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="B160" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="B160" s="38" t="s">
-        <v>490</v>
-      </c>
       <c r="C160" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="B161" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="B161" s="38" t="s">
-        <v>492</v>
-      </c>
       <c r="C161" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="B162" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="C162" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="D162" s="38" t="s">
         <v>494</v>
-      </c>
-      <c r="C162" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="D162" s="38" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="B163" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="C163" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="D163" s="38" t="s">
         <v>497</v>
-      </c>
-      <c r="C163" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="D163" s="38" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="B164" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="B164" s="38" t="s">
-        <v>500</v>
-      </c>
       <c r="C164" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -8655,13 +8665,13 @@
         <v>7</v>
       </c>
       <c r="B165" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C165" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="C165" s="35" t="s">
+      <c r="D165" s="35" t="s">
         <v>502</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -8669,13 +8679,13 @@
         <v>8</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9227,15 +9237,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -9459,7 +9460,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
@@ -9471,15 +9472,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9499,7 +9501,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9509,4 +9511,12 @@
     <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715BA2C8-CB35-4153-A5EF-9D2F92BE7BAE}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7899C4B-B290-4B92-8AA4-D543D09F5BE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
   <sheets>
     <sheet name="Prontidão Médio Prazo" sheetId="24" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="508">
   <si>
     <t>Duração</t>
   </si>
@@ -2325,19 +2325,6 @@
   <dxfs count="31">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -2412,6 +2399,19 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3376,7 +3376,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S103" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A6:S103" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
+  <autoFilter ref="A6:S103" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="25"/>
@@ -3396,7 +3402,7 @@
     <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="11"/>
     <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="10"/>
     <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{E4B92BE4-F73A-44F7-B54E-C362DDF3828C}" name="Coluna1" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{E4B92BE4-F73A-44F7-B54E-C362DDF3828C}" name="Coluna1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3745,7 +3751,7 @@
   <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="37" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4128,7 +4134,7 @@
       <c r="O10" s="44"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R10" s="33"/>
       <c r="S10" s="11">
@@ -4184,7 +4190,7 @@
       <c r="O11" s="44"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="11">
@@ -4247,25 +4253,52 @@
       <c r="A13" s="32">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            PlataformaEL. 7,420m&amp;7,350m</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="9">
+        <v>45425</v>
+      </c>
+      <c r="I13" s="67" t="str">
+        <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Qua 29/05/24</v>
+      </c>
+      <c r="J13" s="58" t="str">
+        <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,4,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Qua 03/07/24</v>
+      </c>
+      <c r="K13" s="47">
+        <v>22</v>
+      </c>
       <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>129</v>
+      </c>
       <c r="O13" s="44"/>
       <c r="P13" s="41"/>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="R13" s="33"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -4287,7 +4320,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>11</v>
       </c>
@@ -4309,7 +4342,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="33"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -4331,7 +4364,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="33"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -4353,7 +4386,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="33"/>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -4375,7 +4408,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="33"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -4397,7 +4430,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="33"/>
     </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -4419,7 +4452,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="33"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>17</v>
       </c>
@@ -4441,7 +4474,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>18</v>
       </c>
@@ -4463,7 +4496,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>19</v>
       </c>
@@ -4485,7 +4518,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="33"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>20</v>
       </c>
@@ -4507,7 +4540,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="33"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>21</v>
       </c>
@@ -4529,7 +4562,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="46"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <v>22</v>
       </c>
@@ -4551,7 +4584,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="46"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>23</v>
       </c>
@@ -4573,7 +4606,7 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="46"/>
     </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>24</v>
       </c>
@@ -4595,7 +4628,7 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="46"/>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>25</v>
       </c>
@@ -4617,7 +4650,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="55"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>26</v>
       </c>
@@ -4639,7 +4672,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="46"/>
     </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>27</v>
       </c>
@@ -4661,7 +4694,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="46"/>
     </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
         <v>28</v>
       </c>
@@ -4683,7 +4716,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="46"/>
     </row>
-    <row r="33" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45">
         <v>29</v>
       </c>
@@ -4705,7 +4738,7 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="33"/>
     </row>
-    <row r="34" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45">
         <v>30</v>
       </c>
@@ -4727,7 +4760,7 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="46"/>
     </row>
-    <row r="35" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
         <v>31</v>
       </c>
@@ -4749,7 +4782,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="46"/>
     </row>
-    <row r="36" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
         <v>32</v>
       </c>
@@ -4771,7 +4804,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="46"/>
     </row>
-    <row r="37" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <v>33</v>
       </c>
@@ -4793,7 +4826,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="33"/>
     </row>
-    <row r="38" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <v>34</v>
       </c>
@@ -4815,7 +4848,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="46"/>
     </row>
-    <row r="39" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <v>35</v>
       </c>
@@ -4837,7 +4870,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="46"/>
     </row>
-    <row r="40" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <v>36</v>
       </c>
@@ -4859,7 +4892,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="46"/>
     </row>
-    <row r="41" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <v>37</v>
       </c>
@@ -4881,7 +4914,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="46"/>
     </row>
-    <row r="42" spans="1:19" s="11" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="11" customFormat="1" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>38</v>
       </c>
@@ -4903,7 +4936,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="46"/>
     </row>
-    <row r="43" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
         <v>39</v>
       </c>
@@ -4925,7 +4958,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="46"/>
     </row>
-    <row r="44" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>40</v>
       </c>
@@ -4947,7 +4980,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="46"/>
     </row>
-    <row r="45" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>41</v>
       </c>
@@ -4969,7 +5002,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="46"/>
     </row>
-    <row r="46" spans="1:19" s="11" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>42</v>
       </c>
@@ -4991,7 +5024,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="46"/>
     </row>
-    <row r="47" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>43</v>
       </c>
@@ -5014,7 +5047,7 @@
       <c r="R47" s="46"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>44</v>
       </c>
@@ -5037,7 +5070,7 @@
       <c r="R48" s="51"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <v>45</v>
       </c>
@@ -5060,7 +5093,7 @@
       <c r="R49" s="51"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>46</v>
       </c>
@@ -5083,7 +5116,7 @@
       <c r="R50" s="51"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>47</v>
       </c>
@@ -5106,7 +5139,7 @@
       <c r="R51" s="46"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <v>48</v>
       </c>
@@ -5129,7 +5162,7 @@
       <c r="R52" s="46"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>49</v>
       </c>
@@ -5152,7 +5185,7 @@
       <c r="R53" s="46"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>50</v>
       </c>
@@ -5175,7 +5208,7 @@
       <c r="R54" s="46"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>51</v>
       </c>
@@ -5198,7 +5231,7 @@
       <c r="R55" s="46"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>52</v>
       </c>
@@ -5221,7 +5254,7 @@
       <c r="R56" s="51"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <v>53</v>
       </c>
@@ -5244,7 +5277,7 @@
       <c r="R57" s="51"/>
       <c r="S57" s="11"/>
     </row>
-    <row r="58" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>54</v>
       </c>
@@ -5267,7 +5300,7 @@
       <c r="R58" s="51"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45">
         <v>55</v>
       </c>
@@ -5290,7 +5323,7 @@
       <c r="R59" s="51"/>
       <c r="S59" s="11"/>
     </row>
-    <row r="60" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45">
         <v>56</v>
       </c>
@@ -5313,7 +5346,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="11"/>
     </row>
-    <row r="61" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>57</v>
       </c>
@@ -5336,7 +5369,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="11"/>
     </row>
-    <row r="62" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>58</v>
       </c>
@@ -5359,7 +5392,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="11"/>
     </row>
-    <row r="63" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>59</v>
       </c>
@@ -5382,7 +5415,7 @@
       <c r="R63" s="46"/>
       <c r="S63" s="11"/>
     </row>
-    <row r="64" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>60</v>
       </c>
@@ -5405,7 +5438,7 @@
       <c r="R64" s="51"/>
       <c r="S64" s="11"/>
     </row>
-    <row r="65" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>61</v>
       </c>
@@ -5428,7 +5461,7 @@
       <c r="R65" s="51"/>
       <c r="S65" s="11"/>
     </row>
-    <row r="66" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>62</v>
       </c>
@@ -5451,7 +5484,7 @@
       <c r="R66" s="51"/>
       <c r="S66" s="11"/>
     </row>
-    <row r="67" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>63</v>
       </c>
@@ -5474,7 +5507,7 @@
       <c r="R67" s="51"/>
       <c r="S67" s="11"/>
     </row>
-    <row r="68" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45">
         <v>64</v>
       </c>
@@ -5497,7 +5530,7 @@
       <c r="R68" s="51"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <v>65</v>
       </c>
@@ -5520,7 +5553,7 @@
       <c r="R69" s="51"/>
       <c r="S69" s="11"/>
     </row>
-    <row r="70" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <v>66</v>
       </c>
@@ -5543,7 +5576,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="11"/>
     </row>
-    <row r="71" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <v>67</v>
       </c>
@@ -5566,7 +5599,7 @@
       <c r="R71" s="46"/>
       <c r="S71" s="11"/>
     </row>
-    <row r="72" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45">
         <v>68</v>
       </c>
@@ -5589,7 +5622,7 @@
       <c r="R72" s="46"/>
       <c r="S72" s="11"/>
     </row>
-    <row r="73" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45">
         <v>69</v>
       </c>
@@ -5612,7 +5645,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="11"/>
     </row>
-    <row r="74" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45">
         <v>70</v>
       </c>
@@ -5635,7 +5668,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="11"/>
     </row>
-    <row r="75" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45">
         <v>71</v>
       </c>
@@ -5658,7 +5691,7 @@
       <c r="R75" s="51"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="45">
         <v>72</v>
       </c>
@@ -5681,7 +5714,7 @@
       <c r="R76" s="51"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="52">
         <v>73</v>
       </c>
@@ -5704,7 +5737,7 @@
       <c r="R77" s="51"/>
       <c r="S77" s="11"/>
     </row>
-    <row r="78" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="52">
         <v>74</v>
       </c>
@@ -5727,7 +5760,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="11"/>
     </row>
-    <row r="79" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="52">
         <v>75</v>
       </c>
@@ -5750,7 +5783,7 @@
       <c r="R79" s="51"/>
       <c r="S79" s="11"/>
     </row>
-    <row r="80" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="52">
         <v>76</v>
       </c>
@@ -5773,7 +5806,7 @@
       <c r="R80" s="51"/>
       <c r="S80" s="11"/>
     </row>
-    <row r="81" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="52">
         <v>77</v>
       </c>
@@ -5796,7 +5829,7 @@
       <c r="R81" s="51"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="52">
         <v>78</v>
       </c>
@@ -5819,7 +5852,7 @@
       <c r="R82" s="51"/>
       <c r="S82" s="11"/>
     </row>
-    <row r="83" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="52">
         <v>79</v>
       </c>
@@ -5842,7 +5875,7 @@
       <c r="R83" s="51"/>
       <c r="S83" s="11"/>
     </row>
-    <row r="84" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="52">
         <v>80</v>
       </c>
@@ -5865,7 +5898,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="11"/>
     </row>
-    <row r="85" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="52">
         <v>81</v>
       </c>
@@ -5888,7 +5921,7 @@
       <c r="R85" s="46"/>
       <c r="S85" s="11"/>
     </row>
-    <row r="86" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="52">
         <v>82</v>
       </c>
@@ -5911,7 +5944,7 @@
       <c r="R86" s="46"/>
       <c r="S86" s="11"/>
     </row>
-    <row r="87" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="52">
         <v>83</v>
       </c>
@@ -5934,7 +5967,7 @@
       <c r="R87" s="51"/>
       <c r="S87" s="11"/>
     </row>
-    <row r="88" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="52">
         <v>84</v>
       </c>
@@ -5957,7 +5990,7 @@
       <c r="R88" s="51"/>
       <c r="S88" s="11"/>
     </row>
-    <row r="89" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="52">
         <v>85</v>
       </c>
@@ -5980,7 +6013,7 @@
       <c r="R89" s="51"/>
       <c r="S89" s="11"/>
     </row>
-    <row r="90" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="52">
         <v>86</v>
       </c>
@@ -6003,7 +6036,7 @@
       <c r="R90" s="51"/>
       <c r="S90" s="11"/>
     </row>
-    <row r="91" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="52">
         <v>87</v>
       </c>
@@ -6026,7 +6059,7 @@
       <c r="R91" s="51"/>
       <c r="S91" s="11"/>
     </row>
-    <row r="92" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="52">
         <v>88</v>
       </c>
@@ -6049,7 +6082,7 @@
       <c r="R92" s="51"/>
       <c r="S92" s="11"/>
     </row>
-    <row r="93" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="52">
         <v>89</v>
       </c>
@@ -6072,7 +6105,7 @@
       <c r="R93" s="51"/>
       <c r="S93" s="11"/>
     </row>
-    <row r="94" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="52">
         <v>90</v>
       </c>
@@ -6095,7 +6128,7 @@
       <c r="R94" s="51"/>
       <c r="S94" s="11"/>
     </row>
-    <row r="95" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="52">
         <v>91</v>
       </c>
@@ -6118,7 +6151,7 @@
       <c r="R95" s="51"/>
       <c r="S95" s="11"/>
     </row>
-    <row r="96" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="52">
         <v>92</v>
       </c>
@@ -6141,7 +6174,7 @@
       <c r="R96" s="51"/>
       <c r="S96" s="11"/>
     </row>
-    <row r="97" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="52">
         <v>93</v>
       </c>
@@ -6164,7 +6197,7 @@
       <c r="R97" s="51"/>
       <c r="S97" s="11"/>
     </row>
-    <row r="98" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="52">
         <v>94</v>
       </c>
@@ -6187,7 +6220,7 @@
       <c r="R98" s="51"/>
       <c r="S98" s="11"/>
     </row>
-    <row r="99" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="52">
         <v>95</v>
       </c>
@@ -6210,7 +6243,7 @@
       <c r="R99" s="51"/>
       <c r="S99" s="11"/>
     </row>
-    <row r="100" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="52">
         <v>96</v>
       </c>
@@ -6233,7 +6266,7 @@
       <c r="R100" s="51"/>
       <c r="S100" s="11"/>
     </row>
-    <row r="101" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="52">
         <v>97</v>
       </c>
@@ -6256,7 +6289,7 @@
       <c r="R101" s="51"/>
       <c r="S101" s="11"/>
     </row>
-    <row r="102" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="52">
         <v>98</v>
       </c>
@@ -6279,7 +6312,7 @@
       <c r="R102" s="51"/>
       <c r="S102" s="11"/>
     </row>
-    <row r="103" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="52">
         <v>99</v>
       </c>
@@ -6305,34 +6338,34 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C7:C30">
-    <cfRule type="duplicateValues" dxfId="8" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30 C7:C28">
-    <cfRule type="duplicateValues" dxfId="7" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D103">
-    <cfRule type="duplicateValues" dxfId="6" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I12">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="I7:I13">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q103">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="880" yWindow="530" count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="I7:I12 D7:D103" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I13:I103" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="I7:I13 D7:D103" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I14:I103" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q103" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E103" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
@@ -6352,8 +6385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35FED-8461-4782-A1DA-33F218DC60F1}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7899C4B-B290-4B92-8AA4-D543D09F5BE6}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AECF2CA-B8E9-4CBE-BD80-5C1C67D27927}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
   <sheets>
     <sheet name="Prontidão Médio Prazo" sheetId="24" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Planilha1" sheetId="25" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Prontidão Médio Prazo'!$A$1:$R$103</definedName>
     <definedName name="dfgvxcbfxcc" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="ECC" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="fdxcgfdgdxc" hidden="1">{#N/A,#N/A,FALSE,"Costo Vendido";#N/A,#N/A,FALSE,"Precio";#N/A,#N/A,FALSE,"Consumo";#N/A,#N/A,FALSE,"GDV";#N/A,#N/A,FALSE,"expestru";#N/A,#N/A,FALSE,"Graficos";#N/A,#N/A,FALSE,"Resumen "}</definedName>
@@ -3754,29 +3753,29 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="46" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="22" style="59" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="73" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="5" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="53.5546875" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="21.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="73" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="5" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="53.5703125" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3796,7 +3795,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -3816,7 +3815,7 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="24"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3836,7 +3835,7 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="24"/>
     </row>
-    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -3856,7 +3855,7 @@
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
     </row>
-    <row r="5" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3876,7 +3875,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>25</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>8</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -4298,7 +4297,7 @@
       </c>
       <c r="R13" s="33"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -4320,7 +4319,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>11</v>
       </c>
@@ -4342,7 +4341,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="33"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -4364,7 +4363,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="33"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="33"/>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -4408,7 +4407,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="33"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="33"/>
     </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -4452,7 +4451,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="33"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>17</v>
       </c>
@@ -4474,7 +4473,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>18</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>19</v>
       </c>
@@ -4518,7 +4517,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="33"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>20</v>
       </c>
@@ -4540,7 +4539,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="33"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>21</v>
       </c>
@@ -4562,7 +4561,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="46"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>22</v>
       </c>
@@ -4584,7 +4583,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="46"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>23</v>
       </c>
@@ -4606,7 +4605,7 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="46"/>
     </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>24</v>
       </c>
@@ -4628,7 +4627,7 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="46"/>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>25</v>
       </c>
@@ -4650,7 +4649,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="55"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>26</v>
       </c>
@@ -4672,7 +4671,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="46"/>
     </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>27</v>
       </c>
@@ -4694,7 +4693,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="46"/>
     </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>28</v>
       </c>
@@ -4716,7 +4715,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="46"/>
     </row>
-    <row r="33" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>29</v>
       </c>
@@ -4738,7 +4737,7 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="33"/>
     </row>
-    <row r="34" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>30</v>
       </c>
@@ -4760,7 +4759,7 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="46"/>
     </row>
-    <row r="35" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>31</v>
       </c>
@@ -4782,7 +4781,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="46"/>
     </row>
-    <row r="36" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>32</v>
       </c>
@@ -4804,7 +4803,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="46"/>
     </row>
-    <row r="37" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>33</v>
       </c>
@@ -4826,7 +4825,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="33"/>
     </row>
-    <row r="38" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>34</v>
       </c>
@@ -4848,7 +4847,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="46"/>
     </row>
-    <row r="39" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>35</v>
       </c>
@@ -4870,7 +4869,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="46"/>
     </row>
-    <row r="40" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>36</v>
       </c>
@@ -4892,7 +4891,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="46"/>
     </row>
-    <row r="41" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>37</v>
       </c>
@@ -4914,7 +4913,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="46"/>
     </row>
-    <row r="42" spans="1:19" s="11" customFormat="1" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="11" customFormat="1" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>38</v>
       </c>
@@ -4936,7 +4935,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="46"/>
     </row>
-    <row r="43" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>39</v>
       </c>
@@ -4958,7 +4957,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="46"/>
     </row>
-    <row r="44" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>40</v>
       </c>
@@ -4980,7 +4979,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="46"/>
     </row>
-    <row r="45" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>41</v>
       </c>
@@ -5002,7 +5001,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="46"/>
     </row>
-    <row r="46" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>42</v>
       </c>
@@ -5024,7 +5023,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="46"/>
     </row>
-    <row r="47" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>43</v>
       </c>
@@ -5047,7 +5046,7 @@
       <c r="R47" s="46"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>44</v>
       </c>
@@ -5070,7 +5069,7 @@
       <c r="R48" s="51"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>45</v>
       </c>
@@ -5093,7 +5092,7 @@
       <c r="R49" s="51"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>46</v>
       </c>
@@ -5116,7 +5115,7 @@
       <c r="R50" s="51"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>47</v>
       </c>
@@ -5139,7 +5138,7 @@
       <c r="R51" s="46"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>48</v>
       </c>
@@ -5162,7 +5161,7 @@
       <c r="R52" s="46"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>49</v>
       </c>
@@ -5185,7 +5184,7 @@
       <c r="R53" s="46"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>50</v>
       </c>
@@ -5208,7 +5207,7 @@
       <c r="R54" s="46"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="55" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>51</v>
       </c>
@@ -5231,7 +5230,7 @@
       <c r="R55" s="46"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="56" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>52</v>
       </c>
@@ -5254,7 +5253,7 @@
       <c r="R56" s="51"/>
       <c r="S56" s="11"/>
     </row>
-    <row r="57" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>53</v>
       </c>
@@ -5277,7 +5276,7 @@
       <c r="R57" s="51"/>
       <c r="S57" s="11"/>
     </row>
-    <row r="58" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>54</v>
       </c>
@@ -5300,7 +5299,7 @@
       <c r="R58" s="51"/>
       <c r="S58" s="11"/>
     </row>
-    <row r="59" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>55</v>
       </c>
@@ -5323,7 +5322,7 @@
       <c r="R59" s="51"/>
       <c r="S59" s="11"/>
     </row>
-    <row r="60" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>56</v>
       </c>
@@ -5346,7 +5345,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="11"/>
     </row>
-    <row r="61" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>57</v>
       </c>
@@ -5369,7 +5368,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="11"/>
     </row>
-    <row r="62" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>58</v>
       </c>
@@ -5392,7 +5391,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="11"/>
     </row>
-    <row r="63" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>59</v>
       </c>
@@ -5415,7 +5414,7 @@
       <c r="R63" s="46"/>
       <c r="S63" s="11"/>
     </row>
-    <row r="64" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>60</v>
       </c>
@@ -5438,7 +5437,7 @@
       <c r="R64" s="51"/>
       <c r="S64" s="11"/>
     </row>
-    <row r="65" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>61</v>
       </c>
@@ -5461,7 +5460,7 @@
       <c r="R65" s="51"/>
       <c r="S65" s="11"/>
     </row>
-    <row r="66" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>62</v>
       </c>
@@ -5484,7 +5483,7 @@
       <c r="R66" s="51"/>
       <c r="S66" s="11"/>
     </row>
-    <row r="67" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>63</v>
       </c>
@@ -5507,7 +5506,7 @@
       <c r="R67" s="51"/>
       <c r="S67" s="11"/>
     </row>
-    <row r="68" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>64</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="R68" s="51"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>65</v>
       </c>
@@ -5553,7 +5552,7 @@
       <c r="R69" s="51"/>
       <c r="S69" s="11"/>
     </row>
-    <row r="70" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>66</v>
       </c>
@@ -5576,7 +5575,7 @@
       <c r="R70" s="46"/>
       <c r="S70" s="11"/>
     </row>
-    <row r="71" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>67</v>
       </c>
@@ -5599,7 +5598,7 @@
       <c r="R71" s="46"/>
       <c r="S71" s="11"/>
     </row>
-    <row r="72" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>68</v>
       </c>
@@ -5622,7 +5621,7 @@
       <c r="R72" s="46"/>
       <c r="S72" s="11"/>
     </row>
-    <row r="73" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>69</v>
       </c>
@@ -5645,7 +5644,7 @@
       <c r="R73" s="46"/>
       <c r="S73" s="11"/>
     </row>
-    <row r="74" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>70</v>
       </c>
@@ -5668,7 +5667,7 @@
       <c r="R74" s="46"/>
       <c r="S74" s="11"/>
     </row>
-    <row r="75" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>71</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="R75" s="51"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>72</v>
       </c>
@@ -5714,7 +5713,7 @@
       <c r="R76" s="51"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="52">
         <v>73</v>
       </c>
@@ -5737,7 +5736,7 @@
       <c r="R77" s="51"/>
       <c r="S77" s="11"/>
     </row>
-    <row r="78" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="52">
         <v>74</v>
       </c>
@@ -5760,7 +5759,7 @@
       <c r="R78" s="46"/>
       <c r="S78" s="11"/>
     </row>
-    <row r="79" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="52">
         <v>75</v>
       </c>
@@ -5783,7 +5782,7 @@
       <c r="R79" s="51"/>
       <c r="S79" s="11"/>
     </row>
-    <row r="80" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="52">
         <v>76</v>
       </c>
@@ -5806,7 +5805,7 @@
       <c r="R80" s="51"/>
       <c r="S80" s="11"/>
     </row>
-    <row r="81" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="52">
         <v>77</v>
       </c>
@@ -5829,7 +5828,7 @@
       <c r="R81" s="51"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="52">
         <v>78</v>
       </c>
@@ -5852,7 +5851,7 @@
       <c r="R82" s="51"/>
       <c r="S82" s="11"/>
     </row>
-    <row r="83" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="52">
         <v>79</v>
       </c>
@@ -5875,7 +5874,7 @@
       <c r="R83" s="51"/>
       <c r="S83" s="11"/>
     </row>
-    <row r="84" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="52">
         <v>80</v>
       </c>
@@ -5898,7 +5897,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="11"/>
     </row>
-    <row r="85" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="52">
         <v>81</v>
       </c>
@@ -5921,7 +5920,7 @@
       <c r="R85" s="46"/>
       <c r="S85" s="11"/>
     </row>
-    <row r="86" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="52">
         <v>82</v>
       </c>
@@ -5944,7 +5943,7 @@
       <c r="R86" s="46"/>
       <c r="S86" s="11"/>
     </row>
-    <row r="87" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="52">
         <v>83</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="R87" s="51"/>
       <c r="S87" s="11"/>
     </row>
-    <row r="88" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="52">
         <v>84</v>
       </c>
@@ -5990,7 +5989,7 @@
       <c r="R88" s="51"/>
       <c r="S88" s="11"/>
     </row>
-    <row r="89" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="52">
         <v>85</v>
       </c>
@@ -6013,7 +6012,7 @@
       <c r="R89" s="51"/>
       <c r="S89" s="11"/>
     </row>
-    <row r="90" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="52">
         <v>86</v>
       </c>
@@ -6036,7 +6035,7 @@
       <c r="R90" s="51"/>
       <c r="S90" s="11"/>
     </row>
-    <row r="91" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="52">
         <v>87</v>
       </c>
@@ -6059,7 +6058,7 @@
       <c r="R91" s="51"/>
       <c r="S91" s="11"/>
     </row>
-    <row r="92" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="52">
         <v>88</v>
       </c>
@@ -6082,7 +6081,7 @@
       <c r="R92" s="51"/>
       <c r="S92" s="11"/>
     </row>
-    <row r="93" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="52">
         <v>89</v>
       </c>
@@ -6105,7 +6104,7 @@
       <c r="R93" s="51"/>
       <c r="S93" s="11"/>
     </row>
-    <row r="94" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="52">
         <v>90</v>
       </c>
@@ -6128,7 +6127,7 @@
       <c r="R94" s="51"/>
       <c r="S94" s="11"/>
     </row>
-    <row r="95" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="52">
         <v>91</v>
       </c>
@@ -6151,7 +6150,7 @@
       <c r="R95" s="51"/>
       <c r="S95" s="11"/>
     </row>
-    <row r="96" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="52">
         <v>92</v>
       </c>
@@ -6174,7 +6173,7 @@
       <c r="R96" s="51"/>
       <c r="S96" s="11"/>
     </row>
-    <row r="97" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="52">
         <v>93</v>
       </c>
@@ -6197,7 +6196,7 @@
       <c r="R97" s="51"/>
       <c r="S97" s="11"/>
     </row>
-    <row r="98" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="52">
         <v>94</v>
       </c>
@@ -6220,7 +6219,7 @@
       <c r="R98" s="51"/>
       <c r="S98" s="11"/>
     </row>
-    <row r="99" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="52">
         <v>95</v>
       </c>
@@ -6243,7 +6242,7 @@
       <c r="R99" s="51"/>
       <c r="S99" s="11"/>
     </row>
-    <row r="100" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="52">
         <v>96</v>
       </c>
@@ -6266,7 +6265,7 @@
       <c r="R100" s="51"/>
       <c r="S100" s="11"/>
     </row>
-    <row r="101" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="52">
         <v>97</v>
       </c>
@@ -6289,7 +6288,7 @@
       <c r="R101" s="51"/>
       <c r="S101" s="11"/>
     </row>
-    <row r="102" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="52">
         <v>98</v>
       </c>
@@ -6312,7 +6311,7 @@
       <c r="R102" s="51"/>
       <c r="S102" s="11"/>
     </row>
-    <row r="103" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="52">
         <v>99</v>
       </c>
@@ -6389,15 +6388,15 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>43</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>136</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>138</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>142</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>144</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>5</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>6</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>109</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>154</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>156</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>159</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>162</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>165</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>168</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>170</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>172</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>174</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>176</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>178</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>181</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>183</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>185</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>187</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>189</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>110</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>193</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>117</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>196</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>198</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>201</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>203</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>205</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>206</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>118</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>210</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>213</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>216</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>218</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>221</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>224</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>226</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>229</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>230</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>231</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>233</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>234</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
         <v>235</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
         <v>238</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>128</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
         <v>241</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>242</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>244</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>246</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>247</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
         <v>248</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
         <v>251</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>252</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>255</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>257</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>259</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>261</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>262</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>265</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>267</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>270</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>272</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
         <v>274</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>276</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
         <v>277</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>280</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
         <v>282</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>285</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>287</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
         <v>289</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
         <v>291</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>292</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>295</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
         <v>297</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>300</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>302</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
         <v>304</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>306</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>307</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
         <v>310</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>312</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
         <v>314</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>316</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
         <v>317</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
         <v>319</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>320</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
         <v>322</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
         <v>324</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>327</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
         <v>329</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
         <v>331</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
         <v>334</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
         <v>336</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
         <v>339</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
         <v>341</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
         <v>343</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
         <v>345</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>348</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>351</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>353</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
         <v>355</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="40" t="s">
         <v>357</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="40" t="s">
         <v>360</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>362</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="s">
         <v>364</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
         <v>366</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
         <v>368</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="40" t="s">
         <v>371</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
         <v>374</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="40" t="s">
         <v>377</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="40" t="s">
         <v>379</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
         <v>381</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
         <v>383</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
         <v>385</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
         <v>387</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
         <v>389</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
         <v>391</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>393</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="s">
         <v>396</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
         <v>399</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="40" t="s">
         <v>401</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="40" t="s">
         <v>404</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="40" t="s">
         <v>406</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="40" t="s">
         <v>408</v>
       </c>
@@ -8231,7 +8230,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="37" t="s">
         <v>410</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="40" t="s">
         <v>412</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="40" t="s">
         <v>414</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
         <v>416</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
         <v>418</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="40" t="s">
         <v>421</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="40" t="s">
         <v>424</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
         <v>427</v>
       </c>
@@ -8343,7 +8342,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>430</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>433</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
         <v>436</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="40" t="s">
         <v>439</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="s">
         <v>442</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="40" t="s">
         <v>445</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
         <v>448</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
         <v>450</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
         <v>452</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
         <v>455</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
         <v>458</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
         <v>461</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
         <v>464</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
         <v>467</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
         <v>470</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
         <v>473</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
         <v>476</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
         <v>479</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
         <v>482</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
         <v>485</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
         <v>488</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>490</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
         <v>492</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>495</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>498</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
         <v>7</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
         <v>8</v>
       </c>
@@ -8734,17 +8733,17 @@
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
@@ -8822,7 +8821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>12</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>15</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>16</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>17</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>19</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>20</v>
       </c>
@@ -9056,7 +9055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>87</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>90</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>22</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>97</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>100</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>103</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>106</v>
       </c>
@@ -9270,6 +9269,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -9493,28 +9513,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9532,24 +9551,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B4D4D8-CC23-4DA7-8154-296959838AD3}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2A7C78-0F78-4B76-9B03-77D34AE713EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -1670,9 +1670,6 @@
     <t>Cristiana</t>
   </si>
   <si>
-    <t>Fornecimenro de materiais</t>
-  </si>
-  <si>
     <t>Pendência de fornecimento de materiais de fabricação pela Hydro</t>
   </si>
   <si>
@@ -4209,6 +4206,9 @@
   </si>
   <si>
     <t xml:space="preserve">Atraso na liberação do prédio </t>
+  </si>
+  <si>
+    <t>Fornecimento de materiais</t>
   </si>
 </sst>
 </file>
@@ -6260,7 +6260,7 @@
   <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="55" zoomScaleNormal="37" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6486,7 +6486,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="10" t="s">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="R7" s="33"/>
     </row>
@@ -6539,7 +6539,7 @@
         <v>45427</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R8" s="33"/>
     </row>
@@ -6657,10 +6657,10 @@
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>1348</v>
       </c>
       <c r="H11" s="9">
         <v>45397</v>
@@ -6798,20 +6798,20 @@
         <v>125</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14" s="8" t="str">
         <f>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
         <v>Liberação do prédio D&amp;E pela Hydro</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>1345</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>1346</v>
       </c>
       <c r="H14" s="9">
         <v>45453</v>
@@ -6828,7 +6828,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="M14" s="42" t="s">
         <v>124</v>
@@ -11197,10 +11197,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>504</v>
+      </c>
+      <c r="B166" t="s">
         <v>505</v>
-      </c>
-      <c r="B166" t="s">
-        <v>506</v>
       </c>
       <c r="C166" s="74">
         <v>45427</v>
@@ -11211,10 +11211,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>506</v>
+      </c>
+      <c r="B167" t="s">
         <v>507</v>
-      </c>
-      <c r="B167" t="s">
-        <v>508</v>
       </c>
       <c r="C167" s="74">
         <v>45427</v>
@@ -11225,10 +11225,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>508</v>
+      </c>
+      <c r="B168" t="s">
         <v>509</v>
-      </c>
-      <c r="B168" t="s">
-        <v>510</v>
       </c>
       <c r="C168" s="74">
         <v>45427</v>
@@ -11239,10 +11239,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>510</v>
+      </c>
+      <c r="B169" t="s">
         <v>511</v>
-      </c>
-      <c r="B169" t="s">
-        <v>512</v>
       </c>
       <c r="C169" s="74">
         <v>45432</v>
@@ -11253,10 +11253,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>512</v>
+      </c>
+      <c r="B170" t="s">
         <v>513</v>
-      </c>
-      <c r="B170" t="s">
-        <v>514</v>
       </c>
       <c r="C170" s="74">
         <v>45434</v>
@@ -11267,10 +11267,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>514</v>
+      </c>
+      <c r="B171" t="s">
         <v>515</v>
-      </c>
-      <c r="B171" t="s">
-        <v>516</v>
       </c>
       <c r="C171" s="74">
         <v>45434</v>
@@ -11281,10 +11281,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>516</v>
+      </c>
+      <c r="B172" t="s">
         <v>517</v>
-      </c>
-      <c r="B172" t="s">
-        <v>518</v>
       </c>
       <c r="C172" s="74">
         <v>45434</v>
@@ -11295,10 +11295,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>518</v>
+      </c>
+      <c r="B173" t="s">
         <v>519</v>
-      </c>
-      <c r="B173" t="s">
-        <v>520</v>
       </c>
       <c r="C173" s="74">
         <v>45434</v>
@@ -11309,10 +11309,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>520</v>
+      </c>
+      <c r="B174" t="s">
         <v>521</v>
-      </c>
-      <c r="B174" t="s">
-        <v>522</v>
       </c>
       <c r="C174" s="74">
         <v>45434</v>
@@ -11323,10 +11323,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>522</v>
+      </c>
+      <c r="B175" t="s">
         <v>523</v>
-      </c>
-      <c r="B175" t="s">
-        <v>524</v>
       </c>
       <c r="C175" s="74">
         <v>45434</v>
@@ -11337,10 +11337,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>524</v>
+      </c>
+      <c r="B176" t="s">
         <v>525</v>
-      </c>
-      <c r="B176" t="s">
-        <v>526</v>
       </c>
       <c r="C176" s="74">
         <v>45434</v>
@@ -11351,10 +11351,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>526</v>
+      </c>
+      <c r="B177" t="s">
         <v>527</v>
-      </c>
-      <c r="B177" t="s">
-        <v>528</v>
       </c>
       <c r="C177" s="74">
         <v>45434</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>528</v>
+      </c>
+      <c r="B178" t="s">
         <v>529</v>
-      </c>
-      <c r="B178" t="s">
-        <v>530</v>
       </c>
       <c r="C178" s="74">
         <v>45434</v>
@@ -11379,10 +11379,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>530</v>
+      </c>
+      <c r="B179" t="s">
         <v>531</v>
-      </c>
-      <c r="B179" t="s">
-        <v>532</v>
       </c>
       <c r="C179" s="74">
         <v>45435</v>
@@ -11393,10 +11393,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>532</v>
+      </c>
+      <c r="B180" t="s">
         <v>533</v>
-      </c>
-      <c r="B180" t="s">
-        <v>534</v>
       </c>
       <c r="C180" s="74">
         <v>45435</v>
@@ -11407,10 +11407,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>534</v>
+      </c>
+      <c r="B181" t="s">
         <v>535</v>
-      </c>
-      <c r="B181" t="s">
-        <v>536</v>
       </c>
       <c r="C181" s="74">
         <v>45435</v>
@@ -11421,10 +11421,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>536</v>
+      </c>
+      <c r="B182" t="s">
         <v>537</v>
-      </c>
-      <c r="B182" t="s">
-        <v>538</v>
       </c>
       <c r="C182" s="74">
         <v>45436</v>
@@ -11435,10 +11435,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>538</v>
+      </c>
+      <c r="B183" t="s">
         <v>539</v>
-      </c>
-      <c r="B183" t="s">
-        <v>540</v>
       </c>
       <c r="C183" s="74">
         <v>45436</v>
@@ -11449,10 +11449,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>540</v>
+      </c>
+      <c r="B184" t="s">
         <v>541</v>
-      </c>
-      <c r="B184" t="s">
-        <v>542</v>
       </c>
       <c r="C184" s="74">
         <v>45436</v>
@@ -11463,10 +11463,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>542</v>
+      </c>
+      <c r="B185" t="s">
         <v>543</v>
-      </c>
-      <c r="B185" t="s">
-        <v>544</v>
       </c>
       <c r="C185" s="74">
         <v>45436</v>
@@ -11477,10 +11477,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>544</v>
+      </c>
+      <c r="B186" t="s">
         <v>545</v>
-      </c>
-      <c r="B186" t="s">
-        <v>546</v>
       </c>
       <c r="C186" s="74">
         <v>45436</v>
@@ -11491,10 +11491,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>546</v>
+      </c>
+      <c r="B187" t="s">
         <v>547</v>
-      </c>
-      <c r="B187" t="s">
-        <v>548</v>
       </c>
       <c r="C187" s="74">
         <v>45436</v>
@@ -11505,10 +11505,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>548</v>
+      </c>
+      <c r="B188" t="s">
         <v>549</v>
-      </c>
-      <c r="B188" t="s">
-        <v>550</v>
       </c>
       <c r="C188" s="74">
         <v>45436</v>
@@ -11519,10 +11519,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>550</v>
+      </c>
+      <c r="B189" t="s">
         <v>551</v>
-      </c>
-      <c r="B189" t="s">
-        <v>552</v>
       </c>
       <c r="C189" s="74">
         <v>45439</v>
@@ -11533,10 +11533,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>552</v>
+      </c>
+      <c r="B190" t="s">
         <v>553</v>
-      </c>
-      <c r="B190" t="s">
-        <v>554</v>
       </c>
       <c r="C190" s="74">
         <v>45439</v>
@@ -11547,10 +11547,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>554</v>
+      </c>
+      <c r="B191" t="s">
         <v>555</v>
-      </c>
-      <c r="B191" t="s">
-        <v>556</v>
       </c>
       <c r="C191" s="74">
         <v>45439</v>
@@ -11561,10 +11561,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>556</v>
+      </c>
+      <c r="B192" t="s">
         <v>557</v>
-      </c>
-      <c r="B192" t="s">
-        <v>558</v>
       </c>
       <c r="C192" s="74">
         <v>45439</v>
@@ -11575,10 +11575,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>558</v>
+      </c>
+      <c r="B193" t="s">
         <v>559</v>
-      </c>
-      <c r="B193" t="s">
-        <v>560</v>
       </c>
       <c r="C193" s="74">
         <v>45439</v>
@@ -11589,10 +11589,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>560</v>
+      </c>
+      <c r="B194" t="s">
         <v>561</v>
-      </c>
-      <c r="B194" t="s">
-        <v>562</v>
       </c>
       <c r="C194" s="74">
         <v>45439</v>
@@ -11603,10 +11603,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195" t="s">
         <v>563</v>
-      </c>
-      <c r="B195" t="s">
-        <v>564</v>
       </c>
       <c r="C195" s="74">
         <v>45439</v>
@@ -11617,10 +11617,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>564</v>
+      </c>
+      <c r="B196" t="s">
         <v>565</v>
-      </c>
-      <c r="B196" t="s">
-        <v>566</v>
       </c>
       <c r="C196" s="74">
         <v>45440</v>
@@ -11631,10 +11631,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>566</v>
+      </c>
+      <c r="B197" t="s">
         <v>567</v>
-      </c>
-      <c r="B197" t="s">
-        <v>568</v>
       </c>
       <c r="C197" s="74">
         <v>45440</v>
@@ -11645,10 +11645,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>568</v>
+      </c>
+      <c r="B198" t="s">
         <v>569</v>
-      </c>
-      <c r="B198" t="s">
-        <v>570</v>
       </c>
       <c r="C198" s="74">
         <v>45440</v>
@@ -11659,10 +11659,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>570</v>
+      </c>
+      <c r="B199" t="s">
         <v>571</v>
-      </c>
-      <c r="B199" t="s">
-        <v>572</v>
       </c>
       <c r="C199" s="74">
         <v>45441</v>
@@ -11673,10 +11673,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>572</v>
+      </c>
+      <c r="B200" t="s">
         <v>573</v>
-      </c>
-      <c r="B200" t="s">
-        <v>574</v>
       </c>
       <c r="C200" s="74">
         <v>45441</v>
@@ -11687,10 +11687,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>574</v>
+      </c>
+      <c r="B201" t="s">
         <v>575</v>
-      </c>
-      <c r="B201" t="s">
-        <v>576</v>
       </c>
       <c r="C201" s="74">
         <v>45441</v>
@@ -11701,10 +11701,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>576</v>
+      </c>
+      <c r="B202" t="s">
         <v>577</v>
-      </c>
-      <c r="B202" t="s">
-        <v>578</v>
       </c>
       <c r="C202" s="74">
         <v>45441</v>
@@ -11715,10 +11715,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>578</v>
+      </c>
+      <c r="B203" t="s">
         <v>579</v>
-      </c>
-      <c r="B203" t="s">
-        <v>580</v>
       </c>
       <c r="C203" s="74">
         <v>45441</v>
@@ -11729,10 +11729,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>580</v>
+      </c>
+      <c r="B204" t="s">
         <v>581</v>
-      </c>
-      <c r="B204" t="s">
-        <v>582</v>
       </c>
       <c r="C204" s="74">
         <v>45441</v>
@@ -11743,10 +11743,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>582</v>
+      </c>
+      <c r="B205" t="s">
         <v>583</v>
-      </c>
-      <c r="B205" t="s">
-        <v>584</v>
       </c>
       <c r="C205" s="74">
         <v>45441</v>
@@ -11757,10 +11757,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>584</v>
+      </c>
+      <c r="B206" t="s">
         <v>585</v>
-      </c>
-      <c r="B206" t="s">
-        <v>586</v>
       </c>
       <c r="C206" s="74">
         <v>45441</v>
@@ -11771,10 +11771,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>586</v>
+      </c>
+      <c r="B207" t="s">
         <v>587</v>
-      </c>
-      <c r="B207" t="s">
-        <v>588</v>
       </c>
       <c r="C207" s="74">
         <v>45441</v>
@@ -11785,10 +11785,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>588</v>
+      </c>
+      <c r="B208" t="s">
         <v>589</v>
-      </c>
-      <c r="B208" t="s">
-        <v>590</v>
       </c>
       <c r="C208" s="74">
         <v>45443</v>
@@ -11799,10 +11799,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>590</v>
+      </c>
+      <c r="B209" t="s">
         <v>591</v>
-      </c>
-      <c r="B209" t="s">
-        <v>592</v>
       </c>
       <c r="C209" s="74">
         <v>45446</v>
@@ -11813,10 +11813,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>592</v>
+      </c>
+      <c r="B210" t="s">
         <v>593</v>
-      </c>
-      <c r="B210" t="s">
-        <v>594</v>
       </c>
       <c r="C210" s="74">
         <v>45447</v>
@@ -11827,10 +11827,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>594</v>
+      </c>
+      <c r="B211" t="s">
         <v>595</v>
-      </c>
-      <c r="B211" t="s">
-        <v>596</v>
       </c>
       <c r="C211" s="74">
         <v>45448</v>
@@ -11841,10 +11841,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>596</v>
+      </c>
+      <c r="B212" t="s">
         <v>597</v>
-      </c>
-      <c r="B212" t="s">
-        <v>598</v>
       </c>
       <c r="C212" s="74">
         <v>45448</v>
@@ -11855,10 +11855,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>598</v>
+      </c>
+      <c r="B213" t="s">
         <v>599</v>
-      </c>
-      <c r="B213" t="s">
-        <v>600</v>
       </c>
       <c r="C213" s="74">
         <v>45448</v>
@@ -11869,10 +11869,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
+        <v>600</v>
+      </c>
+      <c r="B214" t="s">
         <v>601</v>
-      </c>
-      <c r="B214" t="s">
-        <v>602</v>
       </c>
       <c r="C214" s="74">
         <v>45449</v>
@@ -11883,10 +11883,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>602</v>
+      </c>
+      <c r="B215" t="s">
         <v>603</v>
-      </c>
-      <c r="B215" t="s">
-        <v>604</v>
       </c>
       <c r="C215" s="74">
         <v>45449</v>
@@ -11897,10 +11897,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>604</v>
+      </c>
+      <c r="B216" t="s">
         <v>605</v>
-      </c>
-      <c r="B216" t="s">
-        <v>606</v>
       </c>
       <c r="C216" s="74">
         <v>45449</v>
@@ -11911,10 +11911,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>606</v>
+      </c>
+      <c r="B217" t="s">
         <v>607</v>
-      </c>
-      <c r="B217" t="s">
-        <v>608</v>
       </c>
       <c r="C217" s="74">
         <v>45450</v>
@@ -11925,10 +11925,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>608</v>
+      </c>
+      <c r="B218" t="s">
         <v>609</v>
-      </c>
-      <c r="B218" t="s">
-        <v>610</v>
       </c>
       <c r="C218" s="74">
         <v>45450</v>
@@ -11939,10 +11939,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>610</v>
+      </c>
+      <c r="B219" t="s">
         <v>611</v>
-      </c>
-      <c r="B219" t="s">
-        <v>612</v>
       </c>
       <c r="C219" s="74">
         <v>45450</v>
@@ -11953,10 +11953,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>612</v>
+      </c>
+      <c r="B220" t="s">
         <v>613</v>
-      </c>
-      <c r="B220" t="s">
-        <v>614</v>
       </c>
       <c r="C220" s="74">
         <v>45453</v>
@@ -11967,10 +11967,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>614</v>
+      </c>
+      <c r="B221" t="s">
         <v>615</v>
-      </c>
-      <c r="B221" t="s">
-        <v>616</v>
       </c>
       <c r="C221" s="74">
         <v>45453</v>
@@ -11981,10 +11981,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>616</v>
+      </c>
+      <c r="B222" t="s">
         <v>617</v>
-      </c>
-      <c r="B222" t="s">
-        <v>618</v>
       </c>
       <c r="C222" s="74">
         <v>45453</v>
@@ -11995,10 +11995,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>618</v>
+      </c>
+      <c r="B223" t="s">
         <v>619</v>
-      </c>
-      <c r="B223" t="s">
-        <v>620</v>
       </c>
       <c r="C223" s="74">
         <v>45454</v>
@@ -12009,10 +12009,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>620</v>
+      </c>
+      <c r="B224" t="s">
         <v>621</v>
-      </c>
-      <c r="B224" t="s">
-        <v>622</v>
       </c>
       <c r="C224" s="74">
         <v>45457</v>
@@ -12023,10 +12023,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>622</v>
+      </c>
+      <c r="B225" t="s">
         <v>623</v>
-      </c>
-      <c r="B225" t="s">
-        <v>624</v>
       </c>
       <c r="C225" s="74">
         <v>45457</v>
@@ -12037,10 +12037,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>624</v>
+      </c>
+      <c r="B226" t="s">
         <v>625</v>
-      </c>
-      <c r="B226" t="s">
-        <v>626</v>
       </c>
       <c r="C226" s="74">
         <v>45460</v>
@@ -12051,10 +12051,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>626</v>
+      </c>
+      <c r="B227" t="s">
         <v>627</v>
-      </c>
-      <c r="B227" t="s">
-        <v>628</v>
       </c>
       <c r="C227" s="74">
         <v>45461</v>
@@ -12065,10 +12065,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>628</v>
+      </c>
+      <c r="B228" t="s">
         <v>629</v>
-      </c>
-      <c r="B228" t="s">
-        <v>630</v>
       </c>
       <c r="C228" s="74">
         <v>45460</v>
@@ -12079,10 +12079,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>630</v>
+      </c>
+      <c r="B229" t="s">
         <v>631</v>
-      </c>
-      <c r="B229" t="s">
-        <v>632</v>
       </c>
       <c r="C229" s="74">
         <v>45461</v>
@@ -12093,10 +12093,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>632</v>
+      </c>
+      <c r="B230" t="s">
         <v>633</v>
-      </c>
-      <c r="B230" t="s">
-        <v>634</v>
       </c>
       <c r="C230" s="74">
         <v>45462</v>
@@ -12107,10 +12107,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>634</v>
+      </c>
+      <c r="B231" t="s">
         <v>635</v>
-      </c>
-      <c r="B231" t="s">
-        <v>636</v>
       </c>
       <c r="C231" s="74">
         <v>45462</v>
@@ -12121,10 +12121,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>636</v>
+      </c>
+      <c r="B232" t="s">
         <v>637</v>
-      </c>
-      <c r="B232" t="s">
-        <v>638</v>
       </c>
       <c r="C232" s="74">
         <v>45462</v>
@@ -12135,10 +12135,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>638</v>
+      </c>
+      <c r="B233" t="s">
         <v>639</v>
-      </c>
-      <c r="B233" t="s">
-        <v>640</v>
       </c>
       <c r="C233" s="74">
         <v>45464</v>
@@ -12149,10 +12149,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>640</v>
+      </c>
+      <c r="B234" t="s">
         <v>641</v>
-      </c>
-      <c r="B234" t="s">
-        <v>642</v>
       </c>
       <c r="C234" s="74">
         <v>45468</v>
@@ -12163,10 +12163,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>642</v>
+      </c>
+      <c r="B235" t="s">
         <v>643</v>
-      </c>
-      <c r="B235" t="s">
-        <v>644</v>
       </c>
       <c r="C235" s="74">
         <v>45468</v>
@@ -12177,10 +12177,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>644</v>
+      </c>
+      <c r="B236" t="s">
         <v>645</v>
-      </c>
-      <c r="B236" t="s">
-        <v>646</v>
       </c>
       <c r="C236" s="74">
         <v>45469</v>
@@ -12191,10 +12191,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
+        <v>646</v>
+      </c>
+      <c r="B237" t="s">
         <v>647</v>
-      </c>
-      <c r="B237" t="s">
-        <v>648</v>
       </c>
       <c r="C237" s="74">
         <v>45469</v>
@@ -12205,10 +12205,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>648</v>
+      </c>
+      <c r="B238" t="s">
         <v>649</v>
-      </c>
-      <c r="B238" t="s">
-        <v>650</v>
       </c>
       <c r="C238" s="74">
         <v>45469</v>
@@ -12219,10 +12219,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>650</v>
+      </c>
+      <c r="B239" t="s">
         <v>651</v>
-      </c>
-      <c r="B239" t="s">
-        <v>652</v>
       </c>
       <c r="C239" s="74">
         <v>45469</v>
@@ -12233,10 +12233,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>652</v>
+      </c>
+      <c r="B240" t="s">
         <v>653</v>
-      </c>
-      <c r="B240" t="s">
-        <v>654</v>
       </c>
       <c r="C240" s="74">
         <v>45469</v>
@@ -12247,10 +12247,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>654</v>
+      </c>
+      <c r="B241" t="s">
         <v>655</v>
-      </c>
-      <c r="B241" t="s">
-        <v>656</v>
       </c>
       <c r="C241" s="74">
         <v>45469</v>
@@ -12261,10 +12261,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>656</v>
+      </c>
+      <c r="B242" t="s">
         <v>657</v>
-      </c>
-      <c r="B242" t="s">
-        <v>658</v>
       </c>
       <c r="C242" s="74">
         <v>45469</v>
@@ -12275,10 +12275,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>658</v>
+      </c>
+      <c r="B243" t="s">
         <v>659</v>
-      </c>
-      <c r="B243" t="s">
-        <v>660</v>
       </c>
       <c r="C243" s="74">
         <v>45470</v>
@@ -12289,10 +12289,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>660</v>
+      </c>
+      <c r="B244" t="s">
         <v>661</v>
-      </c>
-      <c r="B244" t="s">
-        <v>662</v>
       </c>
       <c r="C244" s="74">
         <v>45470</v>
@@ -12303,10 +12303,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>662</v>
+      </c>
+      <c r="B245" t="s">
         <v>663</v>
-      </c>
-      <c r="B245" t="s">
-        <v>664</v>
       </c>
       <c r="C245" s="74">
         <v>45471</v>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>664</v>
+      </c>
+      <c r="B246" t="s">
         <v>665</v>
-      </c>
-      <c r="B246" t="s">
-        <v>666</v>
       </c>
       <c r="C246" s="74">
         <v>45474</v>
@@ -12331,10 +12331,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>666</v>
+      </c>
+      <c r="B247" t="s">
         <v>667</v>
-      </c>
-      <c r="B247" t="s">
-        <v>668</v>
       </c>
       <c r="C247" s="74">
         <v>45475</v>
@@ -12345,10 +12345,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>668</v>
+      </c>
+      <c r="B248" t="s">
         <v>669</v>
-      </c>
-      <c r="B248" t="s">
-        <v>670</v>
       </c>
       <c r="C248" s="74">
         <v>45476</v>
@@ -12359,10 +12359,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>670</v>
+      </c>
+      <c r="B249" t="s">
         <v>671</v>
-      </c>
-      <c r="B249" t="s">
-        <v>672</v>
       </c>
       <c r="C249" s="74">
         <v>45474</v>
@@ -12373,10 +12373,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B250" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C250" s="74">
         <v>45474</v>
@@ -12387,10 +12387,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B251" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C251" s="74">
         <v>45475</v>
@@ -12401,10 +12401,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B252" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C252" s="74">
         <v>45475</v>
@@ -12415,10 +12415,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B253" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C253" s="74">
         <v>45476</v>
@@ -12429,10 +12429,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B254" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C254" s="74">
         <v>45476</v>
@@ -12443,10 +12443,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>677</v>
+      </c>
+      <c r="B255" t="s">
         <v>678</v>
-      </c>
-      <c r="B255" t="s">
-        <v>679</v>
       </c>
       <c r="C255" s="74">
         <v>45476</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B256" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C256" s="74">
         <v>45477</v>
@@ -12471,10 +12471,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B257" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C257" s="74">
         <v>45477</v>
@@ -12485,10 +12485,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B258" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C258" s="74">
         <v>45478</v>
@@ -12499,10 +12499,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B259" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C259" s="74">
         <v>45478</v>
@@ -12513,10 +12513,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B260" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C260" s="74">
         <v>45481</v>
@@ -12527,10 +12527,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B261" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C261" s="74">
         <v>45482</v>
@@ -12541,10 +12541,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>685</v>
+      </c>
+      <c r="B262" t="s">
         <v>686</v>
-      </c>
-      <c r="B262" t="s">
-        <v>687</v>
       </c>
       <c r="C262" s="74">
         <v>45483</v>
@@ -12555,10 +12555,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>687</v>
+      </c>
+      <c r="B263" t="s">
         <v>688</v>
-      </c>
-      <c r="B263" t="s">
-        <v>689</v>
       </c>
       <c r="C263" s="74">
         <v>45483</v>
@@ -12569,10 +12569,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>689</v>
+      </c>
+      <c r="B264" t="s">
         <v>690</v>
-      </c>
-      <c r="B264" t="s">
-        <v>691</v>
       </c>
       <c r="C264" s="74">
         <v>45488</v>
@@ -12583,10 +12583,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>691</v>
+      </c>
+      <c r="B265" t="s">
         <v>692</v>
-      </c>
-      <c r="B265" t="s">
-        <v>693</v>
       </c>
       <c r="C265" s="74">
         <v>45488</v>
@@ -12597,10 +12597,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>693</v>
+      </c>
+      <c r="B266" t="s">
         <v>694</v>
-      </c>
-      <c r="B266" t="s">
-        <v>695</v>
       </c>
       <c r="C266" s="74">
         <v>45488</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>695</v>
+      </c>
+      <c r="B267" t="s">
         <v>696</v>
-      </c>
-      <c r="B267" t="s">
-        <v>697</v>
       </c>
       <c r="C267" s="74">
         <v>45488</v>
@@ -12625,10 +12625,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>697</v>
+      </c>
+      <c r="B268" t="s">
         <v>698</v>
-      </c>
-      <c r="B268" t="s">
-        <v>699</v>
       </c>
       <c r="C268" s="74">
         <v>45489</v>
@@ -12639,10 +12639,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>699</v>
+      </c>
+      <c r="B269" t="s">
         <v>700</v>
-      </c>
-      <c r="B269" t="s">
-        <v>701</v>
       </c>
       <c r="C269" s="74">
         <v>45489</v>
@@ -12653,10 +12653,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>701</v>
+      </c>
+      <c r="B270" t="s">
         <v>702</v>
-      </c>
-      <c r="B270" t="s">
-        <v>703</v>
       </c>
       <c r="C270" s="74">
         <v>45489</v>
@@ -12667,10 +12667,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
+        <v>703</v>
+      </c>
+      <c r="B271" t="s">
         <v>704</v>
-      </c>
-      <c r="B271" t="s">
-        <v>705</v>
       </c>
       <c r="C271" s="74">
         <v>45489</v>
@@ -12681,10 +12681,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>705</v>
+      </c>
+      <c r="B272" t="s">
         <v>706</v>
-      </c>
-      <c r="B272" t="s">
-        <v>707</v>
       </c>
       <c r="C272" s="74">
         <v>45489</v>
@@ -12695,10 +12695,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>707</v>
+      </c>
+      <c r="B273" t="s">
         <v>708</v>
-      </c>
-      <c r="B273" t="s">
-        <v>709</v>
       </c>
       <c r="C273" s="74">
         <v>45489</v>
@@ -12709,10 +12709,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>709</v>
+      </c>
+      <c r="B274" t="s">
         <v>710</v>
-      </c>
-      <c r="B274" t="s">
-        <v>711</v>
       </c>
       <c r="C274" s="74">
         <v>45489</v>
@@ -12723,10 +12723,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>711</v>
+      </c>
+      <c r="B275" t="s">
         <v>712</v>
-      </c>
-      <c r="B275" t="s">
-        <v>713</v>
       </c>
       <c r="C275" s="74">
         <v>45490</v>
@@ -12737,10 +12737,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>713</v>
+      </c>
+      <c r="B276" t="s">
         <v>714</v>
-      </c>
-      <c r="B276" t="s">
-        <v>715</v>
       </c>
       <c r="C276" s="74">
         <v>45490</v>
@@ -12751,10 +12751,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>715</v>
+      </c>
+      <c r="B277" t="s">
         <v>716</v>
-      </c>
-      <c r="B277" t="s">
-        <v>717</v>
       </c>
       <c r="C277" s="74">
         <v>45490</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>717</v>
+      </c>
+      <c r="B278" t="s">
         <v>718</v>
-      </c>
-      <c r="B278" t="s">
-        <v>719</v>
       </c>
       <c r="C278" s="74">
         <v>45488</v>
@@ -12779,10 +12779,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>719</v>
+      </c>
+      <c r="B279" t="s">
         <v>720</v>
-      </c>
-      <c r="B279" t="s">
-        <v>721</v>
       </c>
       <c r="C279" s="74">
         <v>45488</v>
@@ -12793,10 +12793,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>721</v>
+      </c>
+      <c r="B280" t="s">
         <v>722</v>
-      </c>
-      <c r="B280" t="s">
-        <v>723</v>
       </c>
       <c r="C280" s="74">
         <v>45488</v>
@@ -12807,10 +12807,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
+        <v>723</v>
+      </c>
+      <c r="B281" t="s">
         <v>724</v>
-      </c>
-      <c r="B281" t="s">
-        <v>725</v>
       </c>
       <c r="C281" s="74">
         <v>45492</v>
@@ -12821,10 +12821,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>725</v>
+      </c>
+      <c r="B282" t="s">
         <v>726</v>
-      </c>
-      <c r="B282" t="s">
-        <v>727</v>
       </c>
       <c r="C282" s="74">
         <v>45491</v>
@@ -12835,10 +12835,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
+        <v>727</v>
+      </c>
+      <c r="B283" t="s">
         <v>728</v>
-      </c>
-      <c r="B283" t="s">
-        <v>729</v>
       </c>
       <c r="C283" s="74">
         <v>45491</v>
@@ -12849,10 +12849,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>729</v>
+      </c>
+      <c r="B284" t="s">
         <v>730</v>
-      </c>
-      <c r="B284" t="s">
-        <v>731</v>
       </c>
       <c r="C284" s="74">
         <v>45491</v>
@@ -12863,10 +12863,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>731</v>
+      </c>
+      <c r="B285" t="s">
         <v>732</v>
-      </c>
-      <c r="B285" t="s">
-        <v>733</v>
       </c>
       <c r="C285" s="74">
         <v>45491</v>
@@ -12877,10 +12877,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>733</v>
+      </c>
+      <c r="B286" t="s">
         <v>734</v>
-      </c>
-      <c r="B286" t="s">
-        <v>735</v>
       </c>
       <c r="C286" s="74">
         <v>45491</v>
@@ -12891,10 +12891,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>735</v>
+      </c>
+      <c r="B287" t="s">
         <v>736</v>
-      </c>
-      <c r="B287" t="s">
-        <v>737</v>
       </c>
       <c r="C287" s="74">
         <v>45491</v>
@@ -12905,10 +12905,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>737</v>
+      </c>
+      <c r="B288" t="s">
         <v>738</v>
-      </c>
-      <c r="B288" t="s">
-        <v>739</v>
       </c>
       <c r="C288" s="74">
         <v>45491</v>
@@ -12919,10 +12919,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>739</v>
+      </c>
+      <c r="B289" t="s">
         <v>740</v>
-      </c>
-      <c r="B289" t="s">
-        <v>741</v>
       </c>
       <c r="C289" s="74">
         <v>45491</v>
@@ -12933,10 +12933,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>741</v>
+      </c>
+      <c r="B290" t="s">
         <v>742</v>
-      </c>
-      <c r="B290" t="s">
-        <v>743</v>
       </c>
       <c r="C290" s="74">
         <v>45491</v>
@@ -12947,10 +12947,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>743</v>
+      </c>
+      <c r="B291" t="s">
         <v>744</v>
-      </c>
-      <c r="B291" t="s">
-        <v>745</v>
       </c>
       <c r="C291" s="74">
         <v>45491</v>
@@ -12961,10 +12961,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>745</v>
+      </c>
+      <c r="B292" t="s">
         <v>746</v>
-      </c>
-      <c r="B292" t="s">
-        <v>747</v>
       </c>
       <c r="C292" s="74">
         <v>45492</v>
@@ -12975,10 +12975,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>747</v>
+      </c>
+      <c r="B293" t="s">
         <v>748</v>
-      </c>
-      <c r="B293" t="s">
-        <v>749</v>
       </c>
       <c r="C293" s="74">
         <v>45492</v>
@@ -12989,10 +12989,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>749</v>
+      </c>
+      <c r="B294" t="s">
         <v>750</v>
-      </c>
-      <c r="B294" t="s">
-        <v>751</v>
       </c>
       <c r="C294" s="74">
         <v>45492</v>
@@ -13003,10 +13003,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>751</v>
+      </c>
+      <c r="B295" t="s">
         <v>752</v>
-      </c>
-      <c r="B295" t="s">
-        <v>753</v>
       </c>
       <c r="C295" s="74">
         <v>45492</v>
@@ -13017,10 +13017,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>753</v>
+      </c>
+      <c r="B296" t="s">
         <v>754</v>
-      </c>
-      <c r="B296" t="s">
-        <v>755</v>
       </c>
       <c r="C296" s="74">
         <v>45492</v>
@@ -13031,10 +13031,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>755</v>
+      </c>
+      <c r="B297" t="s">
         <v>756</v>
-      </c>
-      <c r="B297" t="s">
-        <v>757</v>
       </c>
       <c r="C297" s="74">
         <v>45492</v>
@@ -13045,10 +13045,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>757</v>
+      </c>
+      <c r="B298" t="s">
         <v>758</v>
-      </c>
-      <c r="B298" t="s">
-        <v>759</v>
       </c>
       <c r="C298" s="74">
         <v>45492</v>
@@ -13059,10 +13059,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>759</v>
+      </c>
+      <c r="B299" t="s">
         <v>760</v>
-      </c>
-      <c r="B299" t="s">
-        <v>761</v>
       </c>
       <c r="C299" s="74">
         <v>45497</v>
@@ -13073,10 +13073,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>761</v>
+      </c>
+      <c r="B300" t="s">
         <v>762</v>
-      </c>
-      <c r="B300" t="s">
-        <v>763</v>
       </c>
       <c r="C300" s="74">
         <v>45499</v>
@@ -13087,10 +13087,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>763</v>
+      </c>
+      <c r="B301" t="s">
         <v>764</v>
-      </c>
-      <c r="B301" t="s">
-        <v>765</v>
       </c>
       <c r="C301" s="74">
         <v>45503</v>
@@ -13101,10 +13101,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
+        <v>765</v>
+      </c>
+      <c r="B302" t="s">
         <v>766</v>
-      </c>
-      <c r="B302" t="s">
-        <v>767</v>
       </c>
       <c r="C302" s="74">
         <v>45503</v>
@@ -13115,10 +13115,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B303" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C303" s="74">
         <v>45503</v>
@@ -13129,10 +13129,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
+        <v>768</v>
+      </c>
+      <c r="B304" t="s">
         <v>769</v>
-      </c>
-      <c r="B304" t="s">
-        <v>770</v>
       </c>
       <c r="C304" s="74">
         <v>45504</v>
@@ -13143,10 +13143,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>770</v>
+      </c>
+      <c r="B305" t="s">
         <v>771</v>
-      </c>
-      <c r="B305" t="s">
-        <v>772</v>
       </c>
       <c r="C305" s="74">
         <v>45504</v>
@@ -13157,10 +13157,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>772</v>
+      </c>
+      <c r="B306" t="s">
         <v>773</v>
-      </c>
-      <c r="B306" t="s">
-        <v>774</v>
       </c>
       <c r="C306" s="74">
         <v>45505</v>
@@ -13171,10 +13171,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
+        <v>774</v>
+      </c>
+      <c r="B307" t="s">
         <v>775</v>
-      </c>
-      <c r="B307" t="s">
-        <v>776</v>
       </c>
       <c r="C307" s="74">
         <v>45505</v>
@@ -13185,10 +13185,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>776</v>
+      </c>
+      <c r="B308" t="s">
         <v>777</v>
-      </c>
-      <c r="B308" t="s">
-        <v>778</v>
       </c>
       <c r="C308" s="74">
         <v>45505</v>
@@ -13199,10 +13199,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>778</v>
+      </c>
+      <c r="B309" t="s">
         <v>779</v>
-      </c>
-      <c r="B309" t="s">
-        <v>780</v>
       </c>
       <c r="C309" s="74">
         <v>45505</v>
@@ -13213,10 +13213,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
+        <v>780</v>
+      </c>
+      <c r="B310" t="s">
         <v>781</v>
-      </c>
-      <c r="B310" t="s">
-        <v>782</v>
       </c>
       <c r="C310" s="74">
         <v>45505</v>
@@ -13227,10 +13227,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>782</v>
+      </c>
+      <c r="B311" t="s">
         <v>783</v>
-      </c>
-      <c r="B311" t="s">
-        <v>784</v>
       </c>
       <c r="C311" s="74">
         <v>45505</v>
@@ -13241,10 +13241,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
+        <v>784</v>
+      </c>
+      <c r="B312" t="s">
         <v>785</v>
-      </c>
-      <c r="B312" t="s">
-        <v>786</v>
       </c>
       <c r="C312" s="74">
         <v>45505</v>
@@ -13255,10 +13255,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
+        <v>786</v>
+      </c>
+      <c r="B313" t="s">
         <v>787</v>
-      </c>
-      <c r="B313" t="s">
-        <v>788</v>
       </c>
       <c r="C313" s="74">
         <v>45505</v>
@@ -13269,10 +13269,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
+        <v>788</v>
+      </c>
+      <c r="B314" t="s">
         <v>789</v>
-      </c>
-      <c r="B314" t="s">
-        <v>790</v>
       </c>
       <c r="C314" s="74">
         <v>45506</v>
@@ -13283,10 +13283,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
+        <v>790</v>
+      </c>
+      <c r="B315" t="s">
         <v>791</v>
-      </c>
-      <c r="B315" t="s">
-        <v>792</v>
       </c>
       <c r="C315" s="74">
         <v>45506</v>
@@ -13297,10 +13297,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>792</v>
+      </c>
+      <c r="B316" t="s">
         <v>793</v>
-      </c>
-      <c r="B316" t="s">
-        <v>794</v>
       </c>
       <c r="C316" s="74">
         <v>45506</v>
@@ -13311,10 +13311,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>794</v>
+      </c>
+      <c r="B317" t="s">
         <v>795</v>
-      </c>
-      <c r="B317" t="s">
-        <v>796</v>
       </c>
       <c r="C317" s="74">
         <v>45506</v>
@@ -13325,10 +13325,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
+        <v>796</v>
+      </c>
+      <c r="B318" t="s">
         <v>797</v>
-      </c>
-      <c r="B318" t="s">
-        <v>798</v>
       </c>
       <c r="C318" s="74">
         <v>45506</v>
@@ -13339,10 +13339,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>798</v>
+      </c>
+      <c r="B319" t="s">
         <v>799</v>
-      </c>
-      <c r="B319" t="s">
-        <v>800</v>
       </c>
       <c r="C319" s="74">
         <v>45506</v>
@@ -13353,10 +13353,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>800</v>
+      </c>
+      <c r="B320" t="s">
         <v>801</v>
-      </c>
-      <c r="B320" t="s">
-        <v>802</v>
       </c>
       <c r="C320" s="74">
         <v>45506</v>
@@ -13367,10 +13367,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>802</v>
+      </c>
+      <c r="B321" t="s">
         <v>803</v>
-      </c>
-      <c r="B321" t="s">
-        <v>804</v>
       </c>
       <c r="C321" s="74">
         <v>45509</v>
@@ -13381,10 +13381,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>804</v>
+      </c>
+      <c r="B322" t="s">
         <v>805</v>
-      </c>
-      <c r="B322" t="s">
-        <v>806</v>
       </c>
       <c r="C322" s="74">
         <v>45509</v>
@@ -13395,10 +13395,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>806</v>
+      </c>
+      <c r="B323" t="s">
         <v>807</v>
-      </c>
-      <c r="B323" t="s">
-        <v>808</v>
       </c>
       <c r="C323" s="74">
         <v>45509</v>
@@ -13409,10 +13409,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>808</v>
+      </c>
+      <c r="B324" t="s">
         <v>809</v>
-      </c>
-      <c r="B324" t="s">
-        <v>810</v>
       </c>
       <c r="C324" s="74">
         <v>45509</v>
@@ -13423,10 +13423,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>810</v>
+      </c>
+      <c r="B325" t="s">
         <v>811</v>
-      </c>
-      <c r="B325" t="s">
-        <v>812</v>
       </c>
       <c r="C325" s="74">
         <v>45509</v>
@@ -13437,10 +13437,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>812</v>
+      </c>
+      <c r="B326" t="s">
         <v>813</v>
-      </c>
-      <c r="B326" t="s">
-        <v>814</v>
       </c>
       <c r="C326" s="74">
         <v>45509</v>
@@ -13451,10 +13451,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>814</v>
+      </c>
+      <c r="B327" t="s">
         <v>815</v>
-      </c>
-      <c r="B327" t="s">
-        <v>816</v>
       </c>
       <c r="C327" s="74">
         <v>45509</v>
@@ -13465,10 +13465,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>816</v>
+      </c>
+      <c r="B328" t="s">
         <v>817</v>
-      </c>
-      <c r="B328" t="s">
-        <v>818</v>
       </c>
       <c r="C328" s="74">
         <v>45509</v>
@@ -13479,10 +13479,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>818</v>
+      </c>
+      <c r="B329" t="s">
         <v>819</v>
-      </c>
-      <c r="B329" t="s">
-        <v>820</v>
       </c>
       <c r="C329" s="74">
         <v>45510</v>
@@ -13493,10 +13493,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>820</v>
+      </c>
+      <c r="B330" t="s">
         <v>821</v>
-      </c>
-      <c r="B330" t="s">
-        <v>822</v>
       </c>
       <c r="C330" s="74">
         <v>45510</v>
@@ -13507,10 +13507,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>822</v>
+      </c>
+      <c r="B331" t="s">
         <v>823</v>
-      </c>
-      <c r="B331" t="s">
-        <v>824</v>
       </c>
       <c r="C331" s="74">
         <v>45510</v>
@@ -13521,10 +13521,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>824</v>
+      </c>
+      <c r="B332" t="s">
         <v>825</v>
-      </c>
-      <c r="B332" t="s">
-        <v>826</v>
       </c>
       <c r="C332" s="74">
         <v>45510</v>
@@ -13535,10 +13535,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>826</v>
+      </c>
+      <c r="B333" t="s">
         <v>827</v>
-      </c>
-      <c r="B333" t="s">
-        <v>828</v>
       </c>
       <c r="C333" s="74">
         <v>45510</v>
@@ -13549,10 +13549,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>828</v>
+      </c>
+      <c r="B334" t="s">
         <v>829</v>
-      </c>
-      <c r="B334" t="s">
-        <v>830</v>
       </c>
       <c r="C334" s="74">
         <v>45510</v>
@@ -13563,10 +13563,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>830</v>
+      </c>
+      <c r="B335" t="s">
         <v>831</v>
-      </c>
-      <c r="B335" t="s">
-        <v>832</v>
       </c>
       <c r="C335" s="74">
         <v>45510</v>
@@ -13577,10 +13577,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>832</v>
+      </c>
+      <c r="B336" t="s">
         <v>833</v>
-      </c>
-      <c r="B336" t="s">
-        <v>834</v>
       </c>
       <c r="C336" s="74">
         <v>45510</v>
@@ -13591,10 +13591,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>834</v>
+      </c>
+      <c r="B337" t="s">
         <v>835</v>
-      </c>
-      <c r="B337" t="s">
-        <v>836</v>
       </c>
       <c r="C337" s="74">
         <v>45511</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
+        <v>836</v>
+      </c>
+      <c r="B338" t="s">
         <v>837</v>
-      </c>
-      <c r="B338" t="s">
-        <v>838</v>
       </c>
       <c r="C338" s="74">
         <v>45511</v>
@@ -13619,10 +13619,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>838</v>
+      </c>
+      <c r="B339" t="s">
         <v>839</v>
-      </c>
-      <c r="B339" t="s">
-        <v>840</v>
       </c>
       <c r="C339" s="74">
         <v>45511</v>
@@ -13633,10 +13633,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>840</v>
+      </c>
+      <c r="B340" t="s">
         <v>841</v>
-      </c>
-      <c r="B340" t="s">
-        <v>842</v>
       </c>
       <c r="C340" s="74">
         <v>45511</v>
@@ -13647,10 +13647,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>842</v>
+      </c>
+      <c r="B341" t="s">
         <v>843</v>
-      </c>
-      <c r="B341" t="s">
-        <v>844</v>
       </c>
       <c r="C341" s="74">
         <v>45511</v>
@@ -13661,10 +13661,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>844</v>
+      </c>
+      <c r="B342" t="s">
         <v>845</v>
-      </c>
-      <c r="B342" t="s">
-        <v>846</v>
       </c>
       <c r="C342" s="74">
         <v>45511</v>
@@ -13675,10 +13675,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>846</v>
+      </c>
+      <c r="B343" t="s">
         <v>847</v>
-      </c>
-      <c r="B343" t="s">
-        <v>848</v>
       </c>
       <c r="C343" s="74">
         <v>45511</v>
@@ -13689,10 +13689,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>848</v>
+      </c>
+      <c r="B344" t="s">
         <v>849</v>
-      </c>
-      <c r="B344" t="s">
-        <v>850</v>
       </c>
       <c r="C344" s="74">
         <v>45511</v>
@@ -13703,10 +13703,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>850</v>
+      </c>
+      <c r="B345" t="s">
         <v>851</v>
-      </c>
-      <c r="B345" t="s">
-        <v>852</v>
       </c>
       <c r="C345" s="74">
         <v>45512</v>
@@ -13717,10 +13717,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>852</v>
+      </c>
+      <c r="B346" t="s">
         <v>853</v>
-      </c>
-      <c r="B346" t="s">
-        <v>854</v>
       </c>
       <c r="C346" s="74">
         <v>45512</v>
@@ -13731,10 +13731,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
+        <v>854</v>
+      </c>
+      <c r="B347" t="s">
         <v>855</v>
-      </c>
-      <c r="B347" t="s">
-        <v>856</v>
       </c>
       <c r="C347" s="74">
         <v>45512</v>
@@ -13745,10 +13745,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B348" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C348" s="74">
         <v>45505</v>
@@ -13759,10 +13759,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B349" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C349" s="74">
         <v>45513</v>
@@ -13773,10 +13773,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B350" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C350" s="74">
         <v>45518</v>
@@ -13787,10 +13787,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B351" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C351" s="74">
         <v>45524</v>
@@ -13801,10 +13801,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>860</v>
+      </c>
+      <c r="B352" t="s">
         <v>861</v>
-      </c>
-      <c r="B352" t="s">
-        <v>862</v>
       </c>
       <c r="C352" s="74">
         <v>45524</v>
@@ -13815,10 +13815,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B353" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C353" s="74">
         <v>45524</v>
@@ -13829,10 +13829,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B354" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C354" s="74">
         <v>45527</v>
@@ -13843,10 +13843,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B355" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C355" s="74">
         <v>45530</v>
@@ -13857,10 +13857,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B356" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C356" s="74">
         <v>45530</v>
@@ -13871,10 +13871,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B357" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C357" s="74">
         <v>45530</v>
@@ -13885,10 +13885,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B358" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C358" s="74">
         <v>45530</v>
@@ -13899,10 +13899,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B359" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C359" s="74">
         <v>45530</v>
@@ -13913,10 +13913,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B360" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C360" s="74">
         <v>45530</v>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B361" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C361" s="74">
         <v>45530</v>
@@ -13941,10 +13941,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B362" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C362" s="74">
         <v>45530</v>
@@ -13955,10 +13955,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B363" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C363" s="74">
         <v>45530</v>
@@ -13969,10 +13969,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B364" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C364" s="74">
         <v>45531</v>
@@ -13983,10 +13983,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B365" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C365" s="74">
         <v>45531</v>
@@ -13997,10 +13997,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B366" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C366" s="74">
         <v>45531</v>
@@ -14011,10 +14011,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B367" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C367" s="74">
         <v>45531</v>
@@ -14025,10 +14025,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B368" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C368" s="74">
         <v>45531</v>
@@ -14039,10 +14039,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B369" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C369" s="74">
         <v>45531</v>
@@ -14053,10 +14053,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B370" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C370" s="74">
         <v>45531</v>
@@ -14067,10 +14067,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B371" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C371" s="74">
         <v>45531</v>
@@ -14081,10 +14081,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B372" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C372" s="74">
         <v>45531</v>
@@ -14095,10 +14095,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B373" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C373" s="74">
         <v>45531</v>
@@ -14109,10 +14109,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B374" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C374" s="74">
         <v>45532</v>
@@ -14123,10 +14123,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B375" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C375" s="74">
         <v>45532</v>
@@ -14137,10 +14137,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B376" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C376" s="74">
         <v>45532</v>
@@ -14151,10 +14151,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B377" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C377" s="74">
         <v>45532</v>
@@ -14165,10 +14165,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B378" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C378" s="74">
         <v>45532</v>
@@ -14179,10 +14179,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B379" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C379" s="74">
         <v>45532</v>
@@ -14193,10 +14193,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B380" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C380" s="74">
         <v>45532</v>
@@ -14207,10 +14207,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B381" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C381" s="74">
         <v>45532</v>
@@ -14221,10 +14221,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B382" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C382" s="74">
         <v>45530</v>
@@ -14235,10 +14235,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B383" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C383" s="74">
         <v>45534</v>
@@ -14249,10 +14249,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B384" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C384" s="74">
         <v>45538</v>
@@ -14263,10 +14263,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B385" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C385" s="74">
         <v>45541</v>
@@ -14277,10 +14277,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>895</v>
+      </c>
+      <c r="B386" t="s">
         <v>896</v>
-      </c>
-      <c r="B386" t="s">
-        <v>897</v>
       </c>
       <c r="C386" s="74">
         <v>45541</v>
@@ -14291,10 +14291,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B387" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C387" s="74">
         <v>45541</v>
@@ -14305,10 +14305,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B388" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C388" s="74">
         <v>45544</v>
@@ -14319,10 +14319,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B389" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C389" s="74">
         <v>45544</v>
@@ -14333,10 +14333,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B390" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C390" s="74">
         <v>45544</v>
@@ -14347,10 +14347,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B391" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C391" s="74">
         <v>45544</v>
@@ -14361,10 +14361,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B392" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C392" s="74">
         <v>45544</v>
@@ -14375,10 +14375,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B393" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C393" s="74">
         <v>45544</v>
@@ -14389,10 +14389,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B394" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C394" s="74">
         <v>45544</v>
@@ -14403,10 +14403,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B395" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C395" s="74">
         <v>45545</v>
@@ -14417,10 +14417,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B396" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C396" s="74">
         <v>45545</v>
@@ -14431,10 +14431,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B397" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C397" s="74">
         <v>45545</v>
@@ -14445,10 +14445,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B398" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C398" s="74">
         <v>45545</v>
@@ -14459,10 +14459,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B399" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C399" s="74">
         <v>45545</v>
@@ -14473,10 +14473,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B400" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C400" s="74">
         <v>45545</v>
@@ -14487,10 +14487,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B401" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C401" s="74">
         <v>45545</v>
@@ -14501,10 +14501,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B402" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C402" s="74">
         <v>45545</v>
@@ -14515,10 +14515,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B403" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C403" s="74">
         <v>45545</v>
@@ -14529,10 +14529,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B404" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C404" s="74">
         <v>45545</v>
@@ -14543,10 +14543,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B405" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C405" s="74">
         <v>45545</v>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B406" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C406" s="74">
         <v>45545</v>
@@ -14571,10 +14571,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B407" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C407" s="74">
         <v>45545</v>
@@ -14585,10 +14585,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B408" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C408" s="74">
         <v>45545</v>
@@ -14599,10 +14599,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B409" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C409" s="74">
         <v>45546</v>
@@ -14613,10 +14613,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B410" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C410" s="74">
         <v>45546</v>
@@ -14627,10 +14627,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B411" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C411" s="74">
         <v>45546</v>
@@ -14641,10 +14641,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B412" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C412" s="74">
         <v>45546</v>
@@ -14655,10 +14655,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B413" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C413" s="74">
         <v>45546</v>
@@ -14669,10 +14669,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B414" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C414" s="74">
         <v>45546</v>
@@ -14683,10 +14683,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B415" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C415" s="74">
         <v>45546</v>
@@ -14697,10 +14697,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B416" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C416" s="74">
         <v>45545</v>
@@ -14711,10 +14711,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B417" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C417" s="74">
         <v>45551</v>
@@ -14725,10 +14725,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B418" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C418" s="74">
         <v>45553</v>
@@ -14739,10 +14739,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B419" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C419" s="74">
         <v>45558</v>
@@ -14753,10 +14753,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
+        <v>930</v>
+      </c>
+      <c r="B420" t="s">
         <v>931</v>
-      </c>
-      <c r="B420" t="s">
-        <v>932</v>
       </c>
       <c r="C420" s="74">
         <v>45491</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B421" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C421" s="74">
         <v>45491</v>
@@ -14781,10 +14781,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>933</v>
+      </c>
+      <c r="B422" t="s">
         <v>934</v>
-      </c>
-      <c r="B422" t="s">
-        <v>935</v>
       </c>
       <c r="C422" s="74">
         <v>45495</v>
@@ -14795,10 +14795,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B423" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C423" s="74">
         <v>45497</v>
@@ -14809,10 +14809,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>936</v>
+      </c>
+      <c r="B424" t="s">
         <v>937</v>
-      </c>
-      <c r="B424" t="s">
-        <v>938</v>
       </c>
       <c r="C424" s="74">
         <v>45497</v>
@@ -14823,10 +14823,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>938</v>
+      </c>
+      <c r="B425" t="s">
         <v>939</v>
-      </c>
-      <c r="B425" t="s">
-        <v>940</v>
       </c>
       <c r="C425" s="74">
         <v>45499</v>
@@ -14837,10 +14837,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B426" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C426" s="74">
         <v>45504</v>
@@ -14851,10 +14851,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>941</v>
+      </c>
+      <c r="B427" t="s">
         <v>942</v>
-      </c>
-      <c r="B427" t="s">
-        <v>943</v>
       </c>
       <c r="C427" s="74">
         <v>45505</v>
@@ -14865,10 +14865,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B428" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C428" s="74">
         <v>45505</v>
@@ -14879,10 +14879,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>944</v>
+      </c>
+      <c r="B429" t="s">
         <v>945</v>
-      </c>
-      <c r="B429" t="s">
-        <v>946</v>
       </c>
       <c r="C429" s="74">
         <v>45506</v>
@@ -14893,10 +14893,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
+        <v>946</v>
+      </c>
+      <c r="B430" t="s">
         <v>947</v>
-      </c>
-      <c r="B430" t="s">
-        <v>948</v>
       </c>
       <c r="C430" s="74">
         <v>45506</v>
@@ -14907,10 +14907,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>948</v>
+      </c>
+      <c r="B431" t="s">
         <v>949</v>
-      </c>
-      <c r="B431" t="s">
-        <v>950</v>
       </c>
       <c r="C431" s="74">
         <v>45509</v>
@@ -14921,10 +14921,10 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
+        <v>950</v>
+      </c>
+      <c r="B432" t="s">
         <v>951</v>
-      </c>
-      <c r="B432" t="s">
-        <v>952</v>
       </c>
       <c r="C432" s="74">
         <v>45509</v>
@@ -14935,10 +14935,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
+        <v>952</v>
+      </c>
+      <c r="B433" t="s">
         <v>953</v>
-      </c>
-      <c r="B433" t="s">
-        <v>954</v>
       </c>
       <c r="C433" s="74">
         <v>45509</v>
@@ -14949,10 +14949,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
+        <v>954</v>
+      </c>
+      <c r="B434" t="s">
         <v>955</v>
-      </c>
-      <c r="B434" t="s">
-        <v>956</v>
       </c>
       <c r="C434" s="74">
         <v>45509</v>
@@ -14963,10 +14963,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
+        <v>956</v>
+      </c>
+      <c r="B435" t="s">
         <v>957</v>
-      </c>
-      <c r="B435" t="s">
-        <v>958</v>
       </c>
       <c r="C435" s="74">
         <v>45509</v>
@@ -14977,10 +14977,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
+        <v>958</v>
+      </c>
+      <c r="B436" t="s">
         <v>959</v>
-      </c>
-      <c r="B436" t="s">
-        <v>960</v>
       </c>
       <c r="C436" s="74">
         <v>45509</v>
@@ -14991,10 +14991,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
+        <v>960</v>
+      </c>
+      <c r="B437" t="s">
         <v>961</v>
-      </c>
-      <c r="B437" t="s">
-        <v>962</v>
       </c>
       <c r="C437" s="74">
         <v>45509</v>
@@ -15005,10 +15005,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
+        <v>962</v>
+      </c>
+      <c r="B438" t="s">
         <v>963</v>
-      </c>
-      <c r="B438" t="s">
-        <v>964</v>
       </c>
       <c r="C438" s="74">
         <v>45509</v>
@@ -15019,10 +15019,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
+        <v>964</v>
+      </c>
+      <c r="B439" t="s">
         <v>965</v>
-      </c>
-      <c r="B439" t="s">
-        <v>966</v>
       </c>
       <c r="C439" s="74">
         <v>45510</v>
@@ -15033,10 +15033,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
+        <v>966</v>
+      </c>
+      <c r="B440" t="s">
         <v>967</v>
-      </c>
-      <c r="B440" t="s">
-        <v>968</v>
       </c>
       <c r="C440" s="74">
         <v>45510</v>
@@ -15047,10 +15047,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
+        <v>968</v>
+      </c>
+      <c r="B441" t="s">
         <v>969</v>
-      </c>
-      <c r="B441" t="s">
-        <v>970</v>
       </c>
       <c r="C441" s="74">
         <v>45510</v>
@@ -15061,10 +15061,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
+        <v>970</v>
+      </c>
+      <c r="B442" t="s">
         <v>971</v>
-      </c>
-      <c r="B442" t="s">
-        <v>972</v>
       </c>
       <c r="C442" s="74">
         <v>45510</v>
@@ -15075,10 +15075,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
+        <v>972</v>
+      </c>
+      <c r="B443" t="s">
         <v>973</v>
-      </c>
-      <c r="B443" t="s">
-        <v>974</v>
       </c>
       <c r="C443" s="74">
         <v>45510</v>
@@ -15089,10 +15089,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
+        <v>974</v>
+      </c>
+      <c r="B444" t="s">
         <v>975</v>
-      </c>
-      <c r="B444" t="s">
-        <v>976</v>
       </c>
       <c r="C444" s="74">
         <v>45510</v>
@@ -15103,10 +15103,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
+        <v>976</v>
+      </c>
+      <c r="B445" t="s">
         <v>977</v>
-      </c>
-      <c r="B445" t="s">
-        <v>978</v>
       </c>
       <c r="C445" s="74">
         <v>45510</v>
@@ -15117,10 +15117,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
+        <v>978</v>
+      </c>
+      <c r="B446" t="s">
         <v>979</v>
-      </c>
-      <c r="B446" t="s">
-        <v>980</v>
       </c>
       <c r="C446" s="74">
         <v>45511</v>
@@ -15131,10 +15131,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B447" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C447" s="74">
         <v>45512</v>
@@ -15145,10 +15145,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
+        <v>981</v>
+      </c>
+      <c r="B448" t="s">
         <v>982</v>
-      </c>
-      <c r="B448" t="s">
-        <v>983</v>
       </c>
       <c r="C448" s="74">
         <v>45490</v>
@@ -15159,10 +15159,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
+        <v>983</v>
+      </c>
+      <c r="B449" t="s">
         <v>984</v>
-      </c>
-      <c r="B449" t="s">
-        <v>985</v>
       </c>
       <c r="C449" s="74">
         <v>45504</v>
@@ -15173,10 +15173,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
+        <v>985</v>
+      </c>
+      <c r="B450" t="s">
         <v>986</v>
-      </c>
-      <c r="B450" t="s">
-        <v>987</v>
       </c>
       <c r="C450" s="74">
         <v>45504</v>
@@ -15187,10 +15187,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
+        <v>987</v>
+      </c>
+      <c r="B451" t="s">
         <v>988</v>
-      </c>
-      <c r="B451" t="s">
-        <v>989</v>
       </c>
       <c r="C451" s="74">
         <v>45511</v>
@@ -15201,10 +15201,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
+        <v>989</v>
+      </c>
+      <c r="B452" t="s">
         <v>990</v>
-      </c>
-      <c r="B452" t="s">
-        <v>991</v>
       </c>
       <c r="C452" s="74">
         <v>45511</v>
@@ -15215,10 +15215,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
+        <v>991</v>
+      </c>
+      <c r="B453" t="s">
         <v>992</v>
-      </c>
-      <c r="B453" t="s">
-        <v>993</v>
       </c>
       <c r="C453" s="74">
         <v>45511</v>
@@ -15229,10 +15229,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
+        <v>993</v>
+      </c>
+      <c r="B454" t="s">
         <v>994</v>
-      </c>
-      <c r="B454" t="s">
-        <v>995</v>
       </c>
       <c r="C454" s="74">
         <v>45512</v>
@@ -15243,10 +15243,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
+        <v>995</v>
+      </c>
+      <c r="B455" t="s">
         <v>996</v>
-      </c>
-      <c r="B455" t="s">
-        <v>997</v>
       </c>
       <c r="C455" s="74">
         <v>45512</v>
@@ -15257,10 +15257,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
+        <v>997</v>
+      </c>
+      <c r="B456" t="s">
         <v>998</v>
-      </c>
-      <c r="B456" t="s">
-        <v>999</v>
       </c>
       <c r="C456" s="74">
         <v>45512</v>
@@ -15271,10 +15271,10 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
+        <v>999</v>
+      </c>
+      <c r="B457" t="s">
         <v>1000</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1001</v>
       </c>
       <c r="C457" s="74">
         <v>45512</v>
@@ -15285,10 +15285,10 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B458" t="s">
         <v>1002</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1003</v>
       </c>
       <c r="C458" s="74">
         <v>45513</v>
@@ -15299,10 +15299,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B459" t="s">
         <v>1004</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1005</v>
       </c>
       <c r="C459" s="74">
         <v>45513</v>
@@ -15313,10 +15313,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B460" t="s">
         <v>1006</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1007</v>
       </c>
       <c r="C460" s="74">
         <v>45513</v>
@@ -15327,10 +15327,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B461" t="s">
         <v>1008</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1009</v>
       </c>
       <c r="C461" s="74">
         <v>45513</v>
@@ -15341,10 +15341,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B462" t="s">
         <v>1010</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1011</v>
       </c>
       <c r="C462" s="74">
         <v>45516</v>
@@ -15355,10 +15355,10 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B463" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C463" s="74">
         <v>45516</v>
@@ -15369,10 +15369,10 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B464" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C464" s="74">
         <v>45516</v>
@@ -15383,10 +15383,10 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B465" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C465" s="74">
         <v>45517</v>
@@ -15397,10 +15397,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B466" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C466" s="74">
         <v>45517</v>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B467" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C467" s="74">
         <v>45517</v>
@@ -15425,10 +15425,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B468" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C468" s="74">
         <v>45517</v>
@@ -15439,10 +15439,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B469" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C469" s="74">
         <v>45518</v>
@@ -15453,10 +15453,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B470" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C470" s="74">
         <v>45518</v>
@@ -15467,10 +15467,10 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B471" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C471" s="74">
         <v>45518</v>
@@ -15481,10 +15481,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B472" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C472" s="74">
         <v>45518</v>
@@ -15495,10 +15495,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B473" t="s">
         <v>1022</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1023</v>
       </c>
       <c r="C473" s="74">
         <v>45519</v>
@@ -15509,10 +15509,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B474" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C474" s="74">
         <v>45519</v>
@@ -15523,10 +15523,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B475" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C475" s="74">
         <v>45519</v>
@@ -15537,10 +15537,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B476" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C476" s="74">
         <v>45520</v>
@@ -15551,10 +15551,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B477" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C477" s="74">
         <v>45520</v>
@@ -15565,10 +15565,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B478" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C478" s="74">
         <v>45520</v>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B479" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C479" s="74">
         <v>45520</v>
@@ -15593,10 +15593,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B480" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C480" s="74">
         <v>45523</v>
@@ -15607,10 +15607,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B481" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C481" s="74">
         <v>45523</v>
@@ -15621,10 +15621,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B482" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C482" s="74">
         <v>45523</v>
@@ -15635,10 +15635,10 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B483" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C483" s="74">
         <v>45523</v>
@@ -15649,10 +15649,10 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B484" t="s">
         <v>1034</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1035</v>
       </c>
       <c r="C484" s="74">
         <v>45504</v>
@@ -15663,10 +15663,10 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B485" t="s">
         <v>1036</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1037</v>
       </c>
       <c r="C485" s="74">
         <v>45504</v>
@@ -15677,10 +15677,10 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B486" t="s">
         <v>1038</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1039</v>
       </c>
       <c r="C486" s="74">
         <v>45505</v>
@@ -15691,10 +15691,10 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B487" t="s">
         <v>1040</v>
-      </c>
-      <c r="B487" t="s">
-        <v>1041</v>
       </c>
       <c r="C487" s="74">
         <v>45512</v>
@@ -15705,10 +15705,10 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B488" t="s">
         <v>1042</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1043</v>
       </c>
       <c r="C488" s="74">
         <v>45519</v>
@@ -15719,10 +15719,10 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B489" t="s">
         <v>1044</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1045</v>
       </c>
       <c r="C489" s="74">
         <v>45531</v>
@@ -15733,10 +15733,10 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B490" t="s">
         <v>1046</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1047</v>
       </c>
       <c r="C490" s="74">
         <v>45527</v>
@@ -15747,10 +15747,10 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B491" t="s">
         <v>1048</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1049</v>
       </c>
       <c r="C491" s="74">
         <v>45524</v>
@@ -15761,10 +15761,10 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B492" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C492" s="74">
         <v>45524</v>
@@ -15775,10 +15775,10 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B493" t="s">
         <v>1051</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1052</v>
       </c>
       <c r="C493" s="74">
         <v>45526</v>
@@ -15789,10 +15789,10 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B494" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C494" s="74">
         <v>45533</v>
@@ -15803,10 +15803,10 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B495" t="s">
         <v>1054</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1055</v>
       </c>
       <c r="C495" s="74">
         <v>45538</v>
@@ -15817,10 +15817,10 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B496" t="s">
         <v>1056</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1057</v>
       </c>
       <c r="C496" s="74">
         <v>45538</v>
@@ -15831,10 +15831,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B497" t="s">
         <v>1058</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1059</v>
       </c>
       <c r="C497" s="74">
         <v>45541</v>
@@ -15845,10 +15845,10 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B498" t="s">
         <v>1060</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1061</v>
       </c>
       <c r="C498" s="74">
         <v>45534</v>
@@ -15859,10 +15859,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B499" t="s">
         <v>1062</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1063</v>
       </c>
       <c r="C499" s="74">
         <v>45524</v>
@@ -15873,10 +15873,10 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B500" t="s">
         <v>1064</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1065</v>
       </c>
       <c r="C500" s="74">
         <v>45524</v>
@@ -15887,10 +15887,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B501" t="s">
         <v>1066</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1067</v>
       </c>
       <c r="C501" s="74">
         <v>45524</v>
@@ -15901,10 +15901,10 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B502" t="s">
         <v>1068</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1069</v>
       </c>
       <c r="C502" s="74">
         <v>45525</v>
@@ -15915,10 +15915,10 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B503" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C503" s="74">
         <v>45525</v>
@@ -15929,10 +15929,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B504" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C504" s="74">
         <v>45525</v>
@@ -15943,10 +15943,10 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B505" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C505" s="74">
         <v>45525</v>
@@ -15957,10 +15957,10 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B506" t="s">
         <v>1073</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1074</v>
       </c>
       <c r="C506" s="74">
         <v>45525</v>
@@ -15971,10 +15971,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B507" t="s">
         <v>1075</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1076</v>
       </c>
       <c r="C507" s="74">
         <v>45526</v>
@@ -15985,10 +15985,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B508" t="s">
         <v>1077</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1078</v>
       </c>
       <c r="C508" s="74">
         <v>45530</v>
@@ -15999,10 +15999,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B509" t="s">
         <v>1079</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1080</v>
       </c>
       <c r="C509" s="74">
         <v>45532</v>
@@ -16013,10 +16013,10 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B510" t="s">
         <v>1081</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1082</v>
       </c>
       <c r="C510" s="74">
         <v>45534</v>
@@ -16027,10 +16027,10 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B511" t="s">
         <v>1083</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1084</v>
       </c>
       <c r="C511" s="74">
         <v>45537</v>
@@ -16041,10 +16041,10 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B512" t="s">
         <v>1085</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1086</v>
       </c>
       <c r="C512" s="74">
         <v>45539</v>
@@ -16055,10 +16055,10 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B513" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C513" s="74">
         <v>45541</v>
@@ -16069,10 +16069,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B514" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C514" s="74">
         <v>45547</v>
@@ -16083,10 +16083,10 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B515" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C515" s="74">
         <v>45554</v>
@@ -16097,10 +16097,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B516" t="s">
         <v>1090</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1091</v>
       </c>
       <c r="C516" s="74">
         <v>45559</v>
@@ -16111,10 +16111,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B517" t="s">
         <v>1092</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1093</v>
       </c>
       <c r="C517" s="74">
         <v>45544</v>
@@ -16125,10 +16125,10 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B518" t="s">
         <v>1094</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1095</v>
       </c>
       <c r="C518" s="74">
         <v>45558</v>
@@ -16139,10 +16139,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B519" t="s">
         <v>1096</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1097</v>
       </c>
       <c r="C519" s="74">
         <v>45558</v>
@@ -16153,10 +16153,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B520" t="s">
         <v>1098</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1099</v>
       </c>
       <c r="C520" s="74">
         <v>45561</v>
@@ -16167,10 +16167,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B521" t="s">
         <v>1100</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1101</v>
       </c>
       <c r="C521" s="74">
         <v>45573</v>
@@ -16181,10 +16181,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B522" t="s">
         <v>1102</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1103</v>
       </c>
       <c r="C522" s="74">
         <v>45575</v>
@@ -16195,10 +16195,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B523" t="s">
         <v>1104</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1105</v>
       </c>
       <c r="C523" s="74">
         <v>45579</v>
@@ -16209,10 +16209,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B524" t="s">
         <v>1106</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1107</v>
       </c>
       <c r="C524" s="74">
         <v>45582</v>
@@ -16223,10 +16223,10 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B525" t="s">
         <v>1108</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1109</v>
       </c>
       <c r="C525" s="74">
         <v>45580</v>
@@ -16237,10 +16237,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B526" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C526" s="74">
         <v>45589</v>
@@ -16251,10 +16251,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B527" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C527" s="74">
         <v>45594</v>
@@ -16265,10 +16265,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B528" t="s">
         <v>1112</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1113</v>
       </c>
       <c r="C528" s="74">
         <v>45541</v>
@@ -16279,10 +16279,10 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B529" t="s">
         <v>1114</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1115</v>
       </c>
       <c r="C529" s="74">
         <v>45541</v>
@@ -16293,10 +16293,10 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B530" t="s">
         <v>1116</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1117</v>
       </c>
       <c r="C530" s="74">
         <v>45541</v>
@@ -16307,10 +16307,10 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B531" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C531" s="74">
         <v>45545</v>
@@ -16321,10 +16321,10 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B532" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C532" s="74">
         <v>45551</v>
@@ -16335,10 +16335,10 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B533" t="s">
         <v>1120</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1121</v>
       </c>
       <c r="C533" s="74">
         <v>45547</v>
@@ -16349,10 +16349,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B534" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C534" s="74">
         <v>45554</v>
@@ -16363,10 +16363,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B535" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C535" s="74">
         <v>45559</v>
@@ -16377,10 +16377,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B536" t="s">
         <v>1124</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1125</v>
       </c>
       <c r="C536" s="74">
         <v>45547</v>
@@ -16391,10 +16391,10 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B537" t="s">
         <v>1126</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1127</v>
       </c>
       <c r="C537" s="74">
         <v>45547</v>
@@ -16405,10 +16405,10 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B538" t="s">
         <v>1128</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1129</v>
       </c>
       <c r="C538" s="74">
         <v>45551</v>
@@ -16419,10 +16419,10 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B539" t="s">
         <v>1130</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1131</v>
       </c>
       <c r="C539" s="74">
         <v>45551</v>
@@ -16433,10 +16433,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B540" t="s">
         <v>1132</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1133</v>
       </c>
       <c r="C540" s="74">
         <v>45551</v>
@@ -16447,10 +16447,10 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B541" t="s">
         <v>1134</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1135</v>
       </c>
       <c r="C541" s="74">
         <v>45551</v>
@@ -16461,10 +16461,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B542" t="s">
         <v>1136</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1137</v>
       </c>
       <c r="C542" s="74">
         <v>45552</v>
@@ -16475,10 +16475,10 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B543" t="s">
         <v>1138</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1139</v>
       </c>
       <c r="C543" s="74">
         <v>45552</v>
@@ -16489,10 +16489,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B544" t="s">
         <v>1140</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1141</v>
       </c>
       <c r="C544" s="74">
         <v>45552</v>
@@ -16503,10 +16503,10 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B545" t="s">
         <v>1142</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1143</v>
       </c>
       <c r="C545" s="74">
         <v>45552</v>
@@ -16517,10 +16517,10 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B546" t="s">
         <v>1144</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1145</v>
       </c>
       <c r="C546" s="74">
         <v>45552</v>
@@ -16531,10 +16531,10 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B547" t="s">
         <v>1146</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1147</v>
       </c>
       <c r="C547" s="74">
         <v>45552</v>
@@ -16545,10 +16545,10 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B548" t="s">
         <v>1148</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1149</v>
       </c>
       <c r="C548" s="74">
         <v>45553</v>
@@ -16559,10 +16559,10 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B549" t="s">
         <v>1150</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1151</v>
       </c>
       <c r="C549" s="74">
         <v>45553</v>
@@ -16573,10 +16573,10 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B550" t="s">
         <v>1152</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1153</v>
       </c>
       <c r="C550" s="74">
         <v>45553</v>
@@ -16587,10 +16587,10 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B551" t="s">
         <v>1154</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1155</v>
       </c>
       <c r="C551" s="74">
         <v>45575</v>
@@ -16601,10 +16601,10 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B552" t="s">
         <v>1156</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1157</v>
       </c>
       <c r="C552" s="74">
         <v>45579</v>
@@ -16615,10 +16615,10 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B553" t="s">
         <v>1158</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1159</v>
       </c>
       <c r="C553" s="74">
         <v>45559</v>
@@ -16629,10 +16629,10 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B554" t="s">
         <v>1160</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1161</v>
       </c>
       <c r="C554" s="74">
         <v>45560</v>
@@ -16643,10 +16643,10 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B555" t="s">
         <v>1162</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1163</v>
       </c>
       <c r="C555" s="74">
         <v>45560</v>
@@ -16657,10 +16657,10 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B556" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C556" s="74">
         <v>45561</v>
@@ -16671,10 +16671,10 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B557" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C557" s="74">
         <v>45562</v>
@@ -16685,10 +16685,10 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B558" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C558" s="74">
         <v>45567</v>
@@ -16699,10 +16699,10 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B559" t="s">
         <v>1167</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1168</v>
       </c>
       <c r="C559" s="74">
         <v>45538</v>
@@ -16713,10 +16713,10 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B560" t="s">
         <v>1169</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1170</v>
       </c>
       <c r="C560" s="74">
         <v>45538</v>
@@ -16727,10 +16727,10 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B561" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C561" s="74">
         <v>45539</v>
@@ -16741,10 +16741,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B562" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C562" s="74">
         <v>45540</v>
@@ -16755,10 +16755,10 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B563" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C563" s="74">
         <v>45541</v>
@@ -16769,10 +16769,10 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B564" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C564" s="74">
         <v>45546</v>
@@ -16783,10 +16783,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B565" t="s">
         <v>1175</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1176</v>
       </c>
       <c r="C565" s="74">
         <v>45561</v>
@@ -16797,10 +16797,10 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B566" t="s">
         <v>1177</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1178</v>
       </c>
       <c r="C566" s="74">
         <v>45561</v>
@@ -16811,10 +16811,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B567" t="s">
         <v>1179</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1180</v>
       </c>
       <c r="C567" s="74">
         <v>45567</v>
@@ -16825,10 +16825,10 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B568" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C568" s="74">
         <v>45568</v>
@@ -16839,10 +16839,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B569" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C569" s="74">
         <v>45573</v>
@@ -16853,10 +16853,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B570" t="s">
         <v>1183</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1184</v>
       </c>
       <c r="C570" s="74">
         <v>45490</v>
@@ -16867,10 +16867,10 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B571" t="s">
         <v>1185</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1186</v>
       </c>
       <c r="C571" s="74">
         <v>45490</v>
@@ -16881,10 +16881,10 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B572" t="s">
         <v>1187</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1188</v>
       </c>
       <c r="C572" s="74">
         <v>45519</v>
@@ -16895,10 +16895,10 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B573" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C573" s="74">
         <v>45519</v>
@@ -16909,10 +16909,10 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B574" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C574" s="74">
         <v>45520</v>
@@ -16923,10 +16923,10 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B575" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C575" s="74">
         <v>45520</v>
@@ -16937,10 +16937,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B576" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C576" s="74">
         <v>45523</v>
@@ -16951,10 +16951,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B577" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C577" s="74">
         <v>45523</v>
@@ -16965,10 +16965,10 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B578" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C578" s="74">
         <v>45523</v>
@@ -16979,10 +16979,10 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B579" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C579" s="74">
         <v>45523</v>
@@ -16993,10 +16993,10 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B580" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C580" s="74">
         <v>45523</v>
@@ -17007,10 +17007,10 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B581" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C581" s="74">
         <v>45523</v>
@@ -17021,10 +17021,10 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B582" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C582" s="74">
         <v>45524</v>
@@ -17035,10 +17035,10 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B583" t="s">
         <v>1199</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1200</v>
       </c>
       <c r="C583" s="74">
         <v>45524</v>
@@ -17049,10 +17049,10 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B584" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C584" s="74">
         <v>45524</v>
@@ -17063,10 +17063,10 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B585" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C585" s="74">
         <v>45525</v>
@@ -17077,10 +17077,10 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B586" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C586" s="74">
         <v>45525</v>
@@ -17091,10 +17091,10 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B587" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C587" s="74">
         <v>45526</v>
@@ -17105,10 +17105,10 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B588" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C588" s="74">
         <v>45526</v>
@@ -17119,10 +17119,10 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B589" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C589" s="74">
         <v>45526</v>
@@ -17133,10 +17133,10 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B590" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C590" s="74">
         <v>45526</v>
@@ -17147,10 +17147,10 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B591" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C591" s="74">
         <v>45526</v>
@@ -17161,10 +17161,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B592" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C592" s="74">
         <v>45526</v>
@@ -17175,10 +17175,10 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B593" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C593" s="74">
         <v>45527</v>
@@ -17189,10 +17189,10 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B594" t="s">
         <v>1211</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1212</v>
       </c>
       <c r="C594" s="74">
         <v>45527</v>
@@ -17203,10 +17203,10 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B595" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C595" s="74">
         <v>45527</v>
@@ -17217,10 +17217,10 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B596" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C596" s="74">
         <v>45530</v>
@@ -17231,10 +17231,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B597" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C597" s="74">
         <v>45530</v>
@@ -17245,10 +17245,10 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B598" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C598" s="74">
         <v>45531</v>
@@ -17259,10 +17259,10 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B599" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C599" s="74">
         <v>45531</v>
@@ -17273,10 +17273,10 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B600" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C600" s="74">
         <v>45531</v>
@@ -17287,10 +17287,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B601" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C601" s="74">
         <v>45531</v>
@@ -17301,10 +17301,10 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B602" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C602" s="74">
         <v>45531</v>
@@ -17315,10 +17315,10 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B603" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C603" s="74">
         <v>45531</v>
@@ -17329,10 +17329,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B604" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C604" s="74">
         <v>45532</v>
@@ -17343,10 +17343,10 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B605" t="s">
         <v>1223</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1224</v>
       </c>
       <c r="C605" s="74">
         <v>45490</v>
@@ -17357,10 +17357,10 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B606" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C606" s="74">
         <v>45490</v>
@@ -17371,10 +17371,10 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B607" t="s">
         <v>1226</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1227</v>
       </c>
       <c r="C607" s="74">
         <v>45548</v>
@@ -17385,10 +17385,10 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B608" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C608" s="74">
         <v>45555</v>
@@ -17399,10 +17399,10 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B609" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C609" s="74">
         <v>45562</v>
@@ -17413,10 +17413,10 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B610" t="s">
         <v>1230</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1231</v>
       </c>
       <c r="C610" s="74">
         <v>45572</v>
@@ -17427,10 +17427,10 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B611" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C611" s="74">
         <v>45574</v>
@@ -17441,10 +17441,10 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B612" t="s">
         <v>1233</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1234</v>
       </c>
       <c r="C612" s="74">
         <v>45524</v>
@@ -17455,10 +17455,10 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B613" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C613" s="74">
         <v>45524</v>
@@ -17469,10 +17469,10 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B614" t="s">
         <v>1236</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1237</v>
       </c>
       <c r="C614" s="74">
         <v>45526</v>
@@ -17483,10 +17483,10 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B615" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C615" s="74">
         <v>45533</v>
@@ -17497,10 +17497,10 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B616" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C616" s="74">
         <v>45538</v>
@@ -17511,10 +17511,10 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B617" t="s">
         <v>1240</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1241</v>
       </c>
       <c r="C617" s="74">
         <v>45534</v>
@@ -17525,10 +17525,10 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B618" t="s">
         <v>1242</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1243</v>
       </c>
       <c r="C618" s="74">
         <v>45581</v>
@@ -17539,10 +17539,10 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B619" t="s">
         <v>1244</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1245</v>
       </c>
       <c r="C619" s="74">
         <v>45586</v>
@@ -17553,10 +17553,10 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B620" t="s">
         <v>1246</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1247</v>
       </c>
       <c r="C620" s="74">
         <v>45524</v>
@@ -17567,10 +17567,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B621" t="s">
         <v>1248</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1249</v>
       </c>
       <c r="C621" s="74">
         <v>45524</v>
@@ -17581,10 +17581,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B622" t="s">
         <v>1250</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1251</v>
       </c>
       <c r="C622" s="74">
         <v>45525</v>
@@ -17595,10 +17595,10 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B623" t="s">
         <v>1252</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1253</v>
       </c>
       <c r="C623" s="74">
         <v>45525</v>
@@ -17609,10 +17609,10 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B624" t="s">
         <v>1254</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1255</v>
       </c>
       <c r="C624" s="74">
         <v>45525</v>
@@ -17623,10 +17623,10 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B625" t="s">
         <v>1256</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1257</v>
       </c>
       <c r="C625" s="74">
         <v>45525</v>
@@ -17637,10 +17637,10 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B626" t="s">
         <v>1258</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1259</v>
       </c>
       <c r="C626" s="74">
         <v>45525</v>
@@ -17651,10 +17651,10 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B627" t="s">
         <v>1260</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1261</v>
       </c>
       <c r="C627" s="74">
         <v>45526</v>
@@ -17665,10 +17665,10 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B628" t="s">
         <v>1262</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1263</v>
       </c>
       <c r="C628" s="74">
         <v>45530</v>
@@ -17679,10 +17679,10 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B629" t="s">
         <v>1264</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1265</v>
       </c>
       <c r="C629" s="74">
         <v>45532</v>
@@ -17693,10 +17693,10 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B630" t="s">
         <v>1266</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1267</v>
       </c>
       <c r="C630" s="74">
         <v>45534</v>
@@ -17707,10 +17707,10 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B631" t="s">
         <v>1268</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1269</v>
       </c>
       <c r="C631" s="74">
         <v>45537</v>
@@ -17721,10 +17721,10 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B632" t="s">
         <v>1270</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1271</v>
       </c>
       <c r="C632" s="74">
         <v>45539</v>
@@ -17735,10 +17735,10 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B633" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C633" s="74">
         <v>45541</v>
@@ -17749,10 +17749,10 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B634" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C634" s="74">
         <v>45547</v>
@@ -17763,10 +17763,10 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B635" t="s">
         <v>1274</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1275</v>
       </c>
       <c r="C635" s="74">
         <v>45544</v>
@@ -17777,10 +17777,10 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B636" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C636" s="74">
         <v>45554</v>
@@ -17791,10 +17791,10 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B637" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C637" s="74">
         <v>45559</v>
@@ -17805,10 +17805,10 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B638" t="s">
         <v>1278</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1279</v>
       </c>
       <c r="C638" s="74">
         <v>45496</v>
@@ -17819,10 +17819,10 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B639" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C639" s="74">
         <v>45558</v>
@@ -17833,10 +17833,10 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B640" t="s">
         <v>1281</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1282</v>
       </c>
       <c r="C640" s="74">
         <v>45561</v>
@@ -17847,10 +17847,10 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B641" t="s">
         <v>1283</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1284</v>
       </c>
       <c r="C641" s="74">
         <v>45496</v>
@@ -17861,10 +17861,10 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B642" t="s">
         <v>1285</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1286</v>
       </c>
       <c r="C642" s="74">
         <v>45499</v>
@@ -17875,10 +17875,10 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B643" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C643" s="74">
         <v>45503</v>
@@ -17889,10 +17889,10 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B644" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C644" s="74">
         <v>45579</v>
@@ -17903,10 +17903,10 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B645" t="s">
         <v>1289</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1290</v>
       </c>
       <c r="C645" s="74">
         <v>45575</v>
@@ -17917,10 +17917,10 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B646" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C646" s="74">
         <v>45586</v>
@@ -17931,10 +17931,10 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B647" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C647" s="74">
         <v>45589</v>
@@ -17945,10 +17945,10 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B648" t="s">
         <v>1293</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1294</v>
       </c>
       <c r="C648" s="74">
         <v>45541</v>
@@ -17959,10 +17959,10 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B649" t="s">
         <v>1295</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1296</v>
       </c>
       <c r="C649" s="74">
         <v>45541</v>
@@ -17973,10 +17973,10 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B650" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C650" s="74">
         <v>45541</v>
@@ -17987,10 +17987,10 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B651" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C651" s="74">
         <v>45545</v>
@@ -18001,10 +18001,10 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B652" t="s">
         <v>1299</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1300</v>
       </c>
       <c r="C652" s="74">
         <v>45546</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B653" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C653" s="74">
         <v>45548</v>
@@ -18029,10 +18029,10 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B654" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C654" s="74">
         <v>45553</v>
@@ -18043,10 +18043,10 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B655" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C655" s="74">
         <v>45558</v>
@@ -18057,10 +18057,10 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B656" t="s">
         <v>1304</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1305</v>
       </c>
       <c r="C656" s="74">
         <v>45547</v>
@@ -18071,10 +18071,10 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B657" t="s">
         <v>1306</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1307</v>
       </c>
       <c r="C657" s="74">
         <v>45547</v>
@@ -18085,10 +18085,10 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B658" t="s">
         <v>1308</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1309</v>
       </c>
       <c r="C658" s="74">
         <v>45551</v>
@@ -18099,10 +18099,10 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B659" t="s">
         <v>1310</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1311</v>
       </c>
       <c r="C659" s="74">
         <v>45551</v>
@@ -18113,10 +18113,10 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B660" t="s">
         <v>1312</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1313</v>
       </c>
       <c r="C660" s="74">
         <v>45552</v>
@@ -18127,10 +18127,10 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B661" t="s">
         <v>1314</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1315</v>
       </c>
       <c r="C661" s="74">
         <v>45552</v>
@@ -18141,10 +18141,10 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B662" t="s">
         <v>1316</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1317</v>
       </c>
       <c r="C662" s="74">
         <v>45553</v>
@@ -18155,10 +18155,10 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B663" t="s">
         <v>1318</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1319</v>
       </c>
       <c r="C663" s="74">
         <v>45559</v>
@@ -18169,10 +18169,10 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B664" t="s">
         <v>1320</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1321</v>
       </c>
       <c r="C664" s="74">
         <v>45559</v>
@@ -18183,10 +18183,10 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B665" t="s">
         <v>1322</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1323</v>
       </c>
       <c r="C665" s="74">
         <v>45561</v>
@@ -18197,10 +18197,10 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B666" t="s">
         <v>1324</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1325</v>
       </c>
       <c r="C666" s="74">
         <v>45562</v>
@@ -18211,10 +18211,10 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B667" t="s">
         <v>1326</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1327</v>
       </c>
       <c r="C667" s="74">
         <v>45565</v>
@@ -18225,10 +18225,10 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B668" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C668" s="74">
         <v>45566</v>
@@ -18239,10 +18239,10 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B669" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C669" s="74">
         <v>45567</v>
@@ -18253,10 +18253,10 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B670" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C670" s="74">
         <v>45572</v>
@@ -18267,10 +18267,10 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B671" t="s">
         <v>1331</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1332</v>
       </c>
       <c r="C671" s="74">
         <v>45538</v>
@@ -18281,10 +18281,10 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B672" t="s">
         <v>1333</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1334</v>
       </c>
       <c r="C672" s="74">
         <v>45538</v>
@@ -18295,10 +18295,10 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B673" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C673" s="74">
         <v>45539</v>
@@ -18309,10 +18309,10 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B674" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C674" s="74">
         <v>45540</v>
@@ -18323,10 +18323,10 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B675" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C675" s="74">
         <v>45540</v>
@@ -18337,10 +18337,10 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B676" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C676" s="74">
         <v>45545</v>
@@ -18351,10 +18351,10 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B677" t="s">
         <v>1339</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1340</v>
       </c>
       <c r="C677" s="74">
         <v>45566</v>
@@ -18365,10 +18365,10 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B678" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C678" s="74">
         <v>45566</v>
@@ -18379,10 +18379,10 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B679" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C679" s="74">
         <v>45572</v>
@@ -18393,10 +18393,10 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B680" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C680" s="74">
         <v>45573</v>
@@ -18407,10 +18407,10 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B681" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C681" s="74">
         <v>45576</v>
@@ -18968,6 +18968,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -19191,28 +19212,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19230,24 +19250,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2A7C78-0F78-4B76-9B03-77D34AE713EF}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A79025-9D17-4A45-9289-C184AD19EA62}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -6260,7 +6260,7 @@
   <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="55" zoomScaleNormal="37" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6635,7 +6635,7 @@
       <c r="O10" s="44"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="10" t="s">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="R10" s="33"/>
     </row>
@@ -6688,7 +6688,7 @@
       <c r="O11" s="44"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="10" t="s">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="R11" s="33"/>
     </row>
@@ -18968,27 +18968,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -19212,10 +19191,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19233,21 +19245,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C80B0D-0F39-4B62-B5F1-9D5FDDFAA709}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D71525-BA24-4EB2-8B1D-A63B117F7770}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="1312">
   <si>
     <t>Duração</t>
   </si>
@@ -4194,6 +4194,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Método</t>
+  </si>
+  <si>
+    <t>Interferência com aço das colunas</t>
+  </si>
+  <si>
+    <t>Resposta da CT</t>
+  </si>
+  <si>
+    <t>Dalliana</t>
+  </si>
+  <si>
+    <t>Civ</t>
   </si>
 </sst>
 </file>
@@ -4203,7 +4218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4343,12 +4358,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4647,7 +4656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4884,34 +4893,34 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4942,13 +4951,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4956,6 +4965,39 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4969,7 +5011,178 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5637,13 +5850,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -5653,128 +5859,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7001,7 +7090,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="A6:R97" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
     <filterColumn colId="1">
       <customFilters>
@@ -7010,57 +7099,57 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="41"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R7" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="A6:R7" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R8" totalsRowShown="0" headerRowBorderDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="A6:R8" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="32">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="19">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9665,31 +9754,31 @@
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="C7:C24">
+    <cfRule type="duplicateValues" dxfId="17" priority="152"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C24 C7:C22">
-    <cfRule type="duplicateValues" dxfId="32" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D97">
+    <cfRule type="duplicateValues" dxfId="15" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="14" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q97">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C24">
-    <cfRule type="duplicateValues" dxfId="27" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D97">
-    <cfRule type="duplicateValues" dxfId="26" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="25" priority="158"/>
   </conditionalFormatting>
   <dataValidations xWindow="880" yWindow="530" count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="I7 D7:D97" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
@@ -9711,10 +9800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DFAD1-8F8B-481C-8B2B-3AF922C41965}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9959,31 +10048,86 @@
         <v>45342</v>
       </c>
     </row>
+    <row r="8" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="109">
+        <v>2</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="111" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Instalação do chumbador 01 na coluna do prédio</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H8" s="112">
+        <v>45488</v>
+      </c>
+      <c r="I8" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Sex 05/07/24</v>
+      </c>
+      <c r="J8" s="113">
+        <v>45485</v>
+      </c>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M8" s="115" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N8" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="117">
+        <v>45485</v>
+      </c>
+      <c r="P8" s="117">
+        <v>45492</v>
+      </c>
+      <c r="Q8" s="118" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>Concluída</v>
+      </c>
+      <c r="R8" s="119"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q7:Q8">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E8" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q8" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I8" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D8" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -9998,8 +10142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35FED-8461-4782-A1DA-33F218DC60F1}">
   <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19812,6 +19956,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -20035,28 +20200,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20074,24 +20238,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.brandao\Montisol Construcao e Manutencao\Suleima Caldas - 1.CONTRATOS HYDRO\CT_ 4600011605_Caldeiras\02.PLANEJAMENTO\01 - Base de dados BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="114_{17D5F317-8E34-48CB-8210-49F7E1218467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D71525-BA24-4EB2-8B1D-A63B117F7770}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1323">
   <si>
     <t>Duração</t>
   </si>
@@ -4209,6 +4209,39 @@
   </si>
   <si>
     <t>Civ</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Fornecimento</t>
+  </si>
+  <si>
+    <t>Cristiana</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5508</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5509</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5510</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5511</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5512</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5513</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem da linha 5514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de materiais de montagem </t>
   </si>
 </sst>
 </file>
@@ -4656,7 +4689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4999,6 +5032,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5011,7 +5047,54 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -7090,7 +7173,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
   <autoFilter ref="A6:R97" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
     <filterColumn colId="1">
       <customFilters>
@@ -7099,57 +7182,57 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="46"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R8" totalsRowShown="0" headerRowBorderDxfId="37" tableBorderDxfId="36">
-  <autoFilter ref="A6:R8" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R17" totalsRowShown="0" headerRowBorderDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A6:R17" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="37">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="32">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="19">
+    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="24">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9755,28 +9838,28 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C7:C24">
-    <cfRule type="duplicateValues" dxfId="17" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 C7:C22">
-    <cfRule type="duplicateValues" dxfId="16" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D97">
-    <cfRule type="duplicateValues" dxfId="15" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="14" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q97">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9789,7 +9872,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
@@ -9800,10 +9883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DFAD1-8F8B-481C-8B2B-3AF922C41965}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10103,31 +10186,491 @@
       </c>
       <c r="R8" s="119"/>
     </row>
+    <row r="9" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="109">
+        <v>3</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D9" s="111" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H9" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I9" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J9" s="113"/>
+      <c r="K9" s="114">
+        <v>35</v>
+      </c>
+      <c r="L9" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M9" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R9" s="119"/>
+    </row>
+    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="105">
+        <v>4</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D10" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H10" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I10" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J10" s="98"/>
+      <c r="K10" s="114">
+        <v>35</v>
+      </c>
+      <c r="L10" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M10" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R10" s="107"/>
+    </row>
+    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="109">
+        <v>5</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D11" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H11" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I11" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J11" s="98"/>
+      <c r="K11" s="114">
+        <v>35</v>
+      </c>
+      <c r="L11" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M11" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R11" s="107"/>
+    </row>
+    <row r="12" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="109">
+        <v>6</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D12" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H12" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I12" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J12" s="98"/>
+      <c r="K12" s="114">
+        <v>35</v>
+      </c>
+      <c r="L12" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M12" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R12" s="107"/>
+    </row>
+    <row r="13" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="105">
+        <v>7</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D13" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H13" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I13" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J13" s="98"/>
+      <c r="K13" s="114">
+        <v>35</v>
+      </c>
+      <c r="L13" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M13" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R13" s="107"/>
+    </row>
+    <row r="14" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="109">
+        <v>8</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D14" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H14" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I14" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J14" s="98"/>
+      <c r="K14" s="114">
+        <v>35</v>
+      </c>
+      <c r="L14" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M14" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R14" s="107"/>
+    </row>
+    <row r="15" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="109">
+        <v>9</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>715</v>
+      </c>
+      <c r="D15" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem e soldagem das linhas de sucção, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H15" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I15" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 05/08/24</v>
+      </c>
+      <c r="J15" s="98"/>
+      <c r="K15" s="114">
+        <v>35</v>
+      </c>
+      <c r="L15" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M15" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R15" s="107"/>
+    </row>
+    <row r="16" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="105">
+        <v>10</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>748</v>
+      </c>
+      <c r="D16" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem de suportes e da linha 14"-S3-14E-5501-H e válvulas saíndo da caldeira até o novo header de vapor</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H16" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I16" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Qua 07/08/24</v>
+      </c>
+      <c r="J16" s="98"/>
+      <c r="K16" s="120">
+        <v>36</v>
+      </c>
+      <c r="L16" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M16" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R16" s="107"/>
+    </row>
+    <row r="17" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="109">
+        <v>11</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>866</v>
+      </c>
+      <c r="D17" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Montagem de suportes e da linha 14"-S3-14E-5601-H e válvulas saíndo da caldeira até o novo header de vapor</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H17" s="112">
+        <v>45523</v>
+      </c>
+      <c r="I17" s="112" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Ter 08/10/24</v>
+      </c>
+      <c r="J17" s="98"/>
+      <c r="K17" s="120">
+        <v>36</v>
+      </c>
+      <c r="L17" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M17" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R17" s="107"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D8">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="D7:D17">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q7:Q17">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E8" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E17" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q8" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I8" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D8" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q17" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I17" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D17" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10142,8 +10685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35FED-8461-4782-A1DA-33F218DC60F1}">
   <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="A606" sqref="A606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19956,6 +20499,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
@@ -19965,15 +20517,6 @@
     <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20201,6 +20744,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -20208,14 +20759,6 @@
     <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
     <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
     <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.brandao\Montisol Construcao e Manutencao\Suleima Caldas - 1.CONTRATOS HYDRO\CT_ 4600011605_Caldeiras\02.PLANEJAMENTO\01 - Base de dados BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15D7517-24B2-4578-A85E-B6EE880B18BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1325">
   <si>
     <t>Duração</t>
   </si>
@@ -4242,6 +4242,12 @@
   </si>
   <si>
     <t xml:space="preserve">Falta de materiais de montagem </t>
+  </si>
+  <si>
+    <t>00/09/2024</t>
+  </si>
+  <si>
+    <t>Falta de materiais de montagem</t>
   </si>
 </sst>
 </file>
@@ -7206,8 +7212,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R17" totalsRowShown="0" headerRowBorderDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A6:R17" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R21" totalsRowShown="0" headerRowBorderDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A6:R21" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="39"/>
@@ -9872,7 +9878,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
@@ -9883,10 +9889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DFAD1-8F8B-481C-8B2B-3AF922C41965}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10645,12 +10651,216 @@
       </c>
       <c r="R17" s="107"/>
     </row>
+    <row r="18" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="109">
+        <v>12</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>717</v>
+      </c>
+      <c r="D18" s="111" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Linha de descaga, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H18" s="112">
+        <v>45537</v>
+      </c>
+      <c r="I18" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Seg 19/08/24</v>
+      </c>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114">
+        <v>36</v>
+      </c>
+      <c r="L18" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M18" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R18" s="119"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="109">
+        <v>13</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>835</v>
+      </c>
+      <c r="D19" s="111" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">            Linha de descaga, incluíndo válvulas e suportes</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H19" s="112" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I19" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Ter 17/09/24</v>
+      </c>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114">
+        <v>36</v>
+      </c>
+      <c r="L19" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M19" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R19" s="119"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="109">
+        <v>14</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>728</v>
+      </c>
+      <c r="D20" s="95" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">         Instalação do Sistema Blowdown da Caldeira D</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H20" s="96">
+        <v>45544</v>
+      </c>
+      <c r="I20" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Qui 12/09/24</v>
+      </c>
+      <c r="J20" s="98"/>
+      <c r="K20" s="120">
+        <v>38</v>
+      </c>
+      <c r="L20" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M20" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="102" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R20" s="107"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="109">
+        <v>15</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="D21" s="111" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">         Instalação do Sistema Blowdown da Caldeira E</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H21" s="112">
+        <v>45544</v>
+      </c>
+      <c r="I21" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Qui 12/09/24</v>
+      </c>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114">
+        <v>38</v>
+      </c>
+      <c r="L21" s="115" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M21" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R21" s="119"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D17">
+  <conditionalFormatting sqref="D7:D21">
     <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q17">
+  <conditionalFormatting sqref="Q7:Q21">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
@@ -10664,13 +10874,13 @@
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E17" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E21" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q17" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I17" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D17" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q21" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I21" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D21" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10685,8 +10895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35FED-8461-4782-A1DA-33F218DC60F1}">
   <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="A606" sqref="A606"/>
+    <sheetView topLeftCell="A567" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20499,27 +20709,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -20743,27 +20932,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20781,4 +20971,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15D7517-24B2-4578-A85E-B6EE880B18BF}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C12AA6-64BE-473B-BB90-81C8A922A0BC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1327">
   <si>
     <t>Duração</t>
   </si>
@@ -4248,6 +4248,12 @@
   </si>
   <si>
     <t>Falta de materiais de montagem</t>
+  </si>
+  <si>
+    <t>Falta de projetos</t>
+  </si>
+  <si>
+    <t>Envio dos projetos</t>
   </si>
 </sst>
 </file>
@@ -5053,101 +5059,7 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color theme="0"/>
@@ -7179,7 +7091,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="A6:R97" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
     <filterColumn colId="1">
       <customFilters>
@@ -7188,57 +7100,57 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R21" totalsRowShown="0" headerRowBorderDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A6:R21" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R22" totalsRowShown="0" headerRowBorderDxfId="32" tableBorderDxfId="31">
+  <autoFilter ref="A6:R22" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="24">
+    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9844,28 +9756,28 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C7:C24">
-    <cfRule type="duplicateValues" dxfId="22" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 C7:C22">
-    <cfRule type="duplicateValues" dxfId="21" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D97">
-    <cfRule type="duplicateValues" dxfId="20" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="19" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q97">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9889,10 +9801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DFAD1-8F8B-481C-8B2B-3AF922C41965}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10235,11 +10147,13 @@
       <c r="N9" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="117"/>
+      <c r="O9" s="117">
+        <v>45534</v>
+      </c>
       <c r="P9" s="117"/>
       <c r="Q9" s="118" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R9" s="119"/>
     </row>
@@ -10286,11 +10200,13 @@
       <c r="N10" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="117"/>
+      <c r="O10" s="117">
+        <v>45534</v>
+      </c>
       <c r="P10" s="117"/>
       <c r="Q10" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R10" s="107"/>
     </row>
@@ -10337,11 +10253,13 @@
       <c r="N11" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="117"/>
+      <c r="O11" s="117">
+        <v>45534</v>
+      </c>
       <c r="P11" s="117"/>
       <c r="Q11" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R11" s="107"/>
     </row>
@@ -10388,11 +10306,13 @@
       <c r="N12" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="117"/>
+      <c r="O12" s="117">
+        <v>45534</v>
+      </c>
       <c r="P12" s="117"/>
       <c r="Q12" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R12" s="107"/>
     </row>
@@ -10439,11 +10359,13 @@
       <c r="N13" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O13" s="117"/>
+      <c r="O13" s="117">
+        <v>45534</v>
+      </c>
       <c r="P13" s="117"/>
       <c r="Q13" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R13" s="107"/>
     </row>
@@ -10490,11 +10412,13 @@
       <c r="N14" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="117"/>
+      <c r="O14" s="117">
+        <v>45534</v>
+      </c>
       <c r="P14" s="117"/>
       <c r="Q14" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R14" s="107"/>
     </row>
@@ -10541,11 +10465,13 @@
       <c r="N15" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="117"/>
+      <c r="O15" s="117">
+        <v>45534</v>
+      </c>
       <c r="P15" s="117"/>
       <c r="Q15" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R15" s="107"/>
     </row>
@@ -10592,11 +10518,13 @@
       <c r="N16" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="117"/>
+      <c r="O16" s="117">
+        <v>45534</v>
+      </c>
       <c r="P16" s="117"/>
       <c r="Q16" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R16" s="107"/>
     </row>
@@ -10643,11 +10571,13 @@
       <c r="N17" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="101"/>
+      <c r="O17" s="117">
+        <v>45534</v>
+      </c>
       <c r="P17" s="101"/>
       <c r="Q17" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R17" s="107"/>
     </row>
@@ -10694,11 +10624,13 @@
       <c r="N18" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="117"/>
+      <c r="O18" s="117">
+        <v>45534</v>
+      </c>
       <c r="P18" s="117"/>
       <c r="Q18" s="118" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R18" s="119"/>
     </row>
@@ -10745,11 +10677,13 @@
       <c r="N19" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="117"/>
+      <c r="O19" s="117">
+        <v>45534</v>
+      </c>
       <c r="P19" s="117"/>
       <c r="Q19" s="118" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R19" s="119"/>
     </row>
@@ -10796,11 +10730,13 @@
       <c r="N20" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O20" s="101"/>
+      <c r="O20" s="101">
+        <v>45544</v>
+      </c>
       <c r="P20" s="101"/>
       <c r="Q20" s="102" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R20" s="107"/>
     </row>
@@ -10847,40 +10783,93 @@
       <c r="N21" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="117"/>
+      <c r="O21" s="101">
+        <v>45544</v>
+      </c>
       <c r="P21" s="117"/>
       <c r="Q21" s="118" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R21" s="119"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="109">
+        <v>16</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>679</v>
+      </c>
+      <c r="D22" s="111" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO")</f>
+        <v xml:space="preserve">      Instalação dos Sistemas das Caldeiras</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H22" s="112">
+        <v>45534</v>
+      </c>
+      <c r="I22" s="97" t="str">
+        <f>IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")</f>
+        <v>Qui 24/08/23</v>
+      </c>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114">
+        <v>38</v>
+      </c>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" s="117">
+        <v>45553</v>
+      </c>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118" t="str">
+        <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R22" s="119"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D21">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  <conditionalFormatting sqref="D7:D22">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q21">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q7:Q22">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E21" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E22" xr:uid="{927E6D3C-78DC-40B5-9568-25C70E56D0D5}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q21" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I21" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D21" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q22" xr:uid="{AAD8577A-5D82-4B71-AF4B-898B89CB59B4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I22" xr:uid="{C737DC3C-FCF0-4D6F-AF90-62551C2A11EE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D22" xr:uid="{B7F8EA2E-B3BF-4644-81BA-31E24ED17BBB}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10895,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E35FED-8461-4782-A1DA-33F218DC60F1}">
   <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="A586" sqref="A586"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo Caldeiras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_ 4600011605_Caldeiras/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C308CB16-B8EB-4079-8B11-51223B406F65}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{434D2B5F-D2D5-403E-8BAD-77579A4EBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0338572-F739-40E6-AD3B-A2AB1371BB31}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
   <sheets>
     <sheet name="Prontidão Médio Prazo" sheetId="24" state="hidden" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1413">
   <si>
     <t>Duração</t>
   </si>
@@ -4241,18 +4241,6 @@
     <t>LI-703</t>
   </si>
   <si>
-    <t>Instalação do LI-14E-703 / LI-14E-705</t>
-  </si>
-  <si>
-    <t>Instalação do LI-14E-803 / LI-14E-805</t>
-  </si>
-  <si>
-    <t>Programar</t>
-  </si>
-  <si>
-    <t>Montisol</t>
-  </si>
-  <si>
     <t>1.3.9.28.1.1</t>
   </si>
   <si>
@@ -4515,6 +4503,15 @@
   </si>
   <si>
     <t xml:space="preserve">               3/4-A2-14E-5629</t>
+  </si>
+  <si>
+    <t>Instalação do LI-14E-703 / LI-14E-705 com interferencia</t>
+  </si>
+  <si>
+    <t>Responder CT</t>
+  </si>
+  <si>
+    <t>Instalação do LI-14E-803 / LI-14E-805 com interferencia</t>
   </si>
 </sst>
 </file>
@@ -4523,7 +4520,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -4969,7 +4966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5308,13 +5305,10 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5329,54 +5323,7 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color theme="0"/>
@@ -7409,7 +7356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:R97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="A6:R97" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
     <filterColumn colId="1">
       <customFilters>
@@ -7418,59 +7365,59 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="46"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R25" totalsRowShown="0" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}" name="Tabela1" displayName="Tabela1" ref="A6:R25" totalsRowShown="0" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A6:R25" xr:uid="{A3B9B386-DE34-44D4-A803-FB4B38EC3FB3}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{A8B60983-F2B0-4109-A270-CA261DB298DF}" name="ITEM" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{294AFDDB-50E2-43B5-8476-A4F5EFA79F21}" name="LOCAL" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{B6E05043-1540-4ECB-AB9A-941ED42714C5}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{5A3F5B50-B59B-4948-9A38-1EA1CE90829B}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="27">
       <calculatedColumnFormula>TRIM(IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{6ABD3D18-B3F1-4272-8FEC-0CE0B0AAE769}" name="GRUPO" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E9265E35-0AB6-4370-BDE0-D72F9E40BD6C}" name="RESTRIÇÃO DETECTADA" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{6BB0EA14-E714-49F7-BAE6-332947EB52FC}" name="AÇÃO A SER TOMADA" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{B51A2DCB-54BF-4886-9C0F-DAB57710631D}" name="DATA DE MAPEAMENTO" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{52BA11EF-EB2D-4242-99FA-2EE6DE06799C}" name="DATA DE IMPACTO" dataDxfId="22">
       <calculatedColumnFormula>RIGHT(IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO"), LEN(IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,3,FALSE),"NÃO LOCALIZADO")) - 4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{28D90FCC-A01C-4485-A823-6AFE8E7251A6}" name="DATA PREV. PARA ELIMINAR A RESTRIÇÃO" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{1334F4D2-3638-435C-B6C3-2224F6FFF325}" name="SEMANA" dataDxfId="20">
       <calculatedColumnFormula>WEEKNUM(Tabela1[[#This Row],[DATA DE IMPACTO]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="19">
+    <tableColumn id="12" xr3:uid="{27A8EF64-36BC-4FA9-8AB5-19FF40600579}" name="RESPONSÁVEL" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{F22944A6-BAC1-406E-A748-52E7F9B7FB09}" name="DISCIPLINA" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{53FF5CD1-F18D-4687-8C26-7226392EB105}" name="EMPRESA" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{3B1F4FCA-3C26-4AAA-A56C-EB50C09CB0C5}" name="TÉRMINO PREVISTO" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{B8DEF03E-B083-49AE-BB8B-0AA59C280E4C}" name="TÉRMINO REAL" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{56A81213-01F9-42BB-9AF2-DB00AE237452}" name="STATUS" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{52E56530-889B-432B-896B-5D786E023A10}" name="OBSERVAÇÕES" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7862,29 +7809,29 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="46" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="22" style="59" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="72" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="5" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="53.5703125" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="21.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="72" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="53.5546875" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -7904,7 +7851,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -7924,7 +7871,7 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="24"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -7944,7 +7891,7 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="24"/>
     </row>
-    <row r="4" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -7964,7 +7911,7 @@
       <c r="Q4" s="23"/>
       <c r="R4" s="24"/>
     </row>
-    <row r="5" spans="1:18" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -7984,7 +7931,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="29"/>
     </row>
-    <row r="6" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -8040,7 +7987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -8093,7 +8040,7 @@
       </c>
       <c r="R7" s="33"/>
     </row>
-    <row r="8" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>10</v>
       </c>
@@ -8115,7 +8062,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>11</v>
       </c>
@@ -8137,7 +8084,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="33"/>
     </row>
-    <row r="10" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>12</v>
       </c>
@@ -8159,7 +8106,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="33"/>
     </row>
-    <row r="11" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>13</v>
       </c>
@@ -8181,7 +8128,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="33"/>
     </row>
-    <row r="12" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>14</v>
       </c>
@@ -8203,7 +8150,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="33"/>
     </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>15</v>
       </c>
@@ -8225,7 +8172,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="33"/>
     </row>
-    <row r="14" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>16</v>
       </c>
@@ -8247,7 +8194,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="33"/>
     </row>
-    <row r="15" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>17</v>
       </c>
@@ -8269,7 +8216,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="33"/>
     </row>
-    <row r="16" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>18</v>
       </c>
@@ -8291,7 +8238,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="33"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>19</v>
       </c>
@@ -8313,7 +8260,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="33"/>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>20</v>
       </c>
@@ -8335,7 +8282,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="33"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>21</v>
       </c>
@@ -8357,7 +8304,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="46"/>
     </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45">
         <v>22</v>
       </c>
@@ -8379,7 +8326,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="46"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45">
         <v>23</v>
       </c>
@@ -8401,7 +8348,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="46"/>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45">
         <v>24</v>
       </c>
@@ -8423,7 +8370,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="46"/>
     </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45">
         <v>25</v>
       </c>
@@ -8445,7 +8392,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="55"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45">
         <v>26</v>
       </c>
@@ -8467,7 +8414,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="46"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45">
         <v>27</v>
       </c>
@@ -8489,7 +8436,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="46"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <v>28</v>
       </c>
@@ -8511,7 +8458,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="46"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>29</v>
       </c>
@@ -8533,7 +8480,7 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="33"/>
     </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>30</v>
       </c>
@@ -8555,7 +8502,7 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="46"/>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>31</v>
       </c>
@@ -8577,7 +8524,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="46"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>32</v>
       </c>
@@ -8599,7 +8546,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="46"/>
     </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>33</v>
       </c>
@@ -8621,7 +8568,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="33"/>
     </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
         <v>34</v>
       </c>
@@ -8643,7 +8590,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="46"/>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45">
         <v>35</v>
       </c>
@@ -8665,7 +8612,7 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="46"/>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45">
         <v>36</v>
       </c>
@@ -8687,7 +8634,7 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="46"/>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
         <v>37</v>
       </c>
@@ -8709,7 +8656,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="46"/>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="11" customFormat="1" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
         <v>38</v>
       </c>
@@ -8731,7 +8678,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="46"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <v>39</v>
       </c>
@@ -8753,7 +8700,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="46"/>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <v>40</v>
       </c>
@@ -8775,7 +8722,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="46"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <v>41</v>
       </c>
@@ -8797,7 +8744,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="46"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="11" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <v>42</v>
       </c>
@@ -8819,7 +8766,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="46"/>
     </row>
-    <row r="41" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <v>43</v>
       </c>
@@ -8841,7 +8788,7 @@
       <c r="Q41" s="49"/>
       <c r="R41" s="46"/>
     </row>
-    <row r="42" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>44</v>
       </c>
@@ -8863,7 +8810,7 @@
       <c r="Q42" s="49"/>
       <c r="R42" s="51"/>
     </row>
-    <row r="43" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
         <v>45</v>
       </c>
@@ -8885,7 +8832,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="51"/>
     </row>
-    <row r="44" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>46</v>
       </c>
@@ -8907,7 +8854,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="51"/>
     </row>
-    <row r="45" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>47</v>
       </c>
@@ -8929,7 +8876,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="46"/>
     </row>
-    <row r="46" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>48</v>
       </c>
@@ -8951,7 +8898,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="46"/>
     </row>
-    <row r="47" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>49</v>
       </c>
@@ -8973,7 +8920,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="46"/>
     </row>
-    <row r="48" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>50</v>
       </c>
@@ -8995,7 +8942,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="46"/>
     </row>
-    <row r="49" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <v>51</v>
       </c>
@@ -9017,7 +8964,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="46"/>
     </row>
-    <row r="50" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>52</v>
       </c>
@@ -9039,7 +8986,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="51"/>
     </row>
-    <row r="51" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>53</v>
       </c>
@@ -9061,7 +9008,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="51"/>
     </row>
-    <row r="52" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <v>54</v>
       </c>
@@ -9083,7 +9030,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="51"/>
     </row>
-    <row r="53" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>55</v>
       </c>
@@ -9105,7 +9052,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="51"/>
     </row>
-    <row r="54" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>56</v>
       </c>
@@ -9127,7 +9074,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="46"/>
     </row>
-    <row r="55" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>57</v>
       </c>
@@ -9149,7 +9096,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="46"/>
     </row>
-    <row r="56" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>58</v>
       </c>
@@ -9171,7 +9118,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="46"/>
     </row>
-    <row r="57" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <v>59</v>
       </c>
@@ -9193,7 +9140,7 @@
       <c r="Q57" s="49"/>
       <c r="R57" s="46"/>
     </row>
-    <row r="58" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>60</v>
       </c>
@@ -9215,7 +9162,7 @@
       <c r="Q58" s="49"/>
       <c r="R58" s="51"/>
     </row>
-    <row r="59" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45">
         <v>61</v>
       </c>
@@ -9237,7 +9184,7 @@
       <c r="Q59" s="49"/>
       <c r="R59" s="51"/>
     </row>
-    <row r="60" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45">
         <v>62</v>
       </c>
@@ -9259,7 +9206,7 @@
       <c r="Q60" s="49"/>
       <c r="R60" s="51"/>
     </row>
-    <row r="61" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>63</v>
       </c>
@@ -9281,7 +9228,7 @@
       <c r="Q61" s="49"/>
       <c r="R61" s="51"/>
     </row>
-    <row r="62" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>64</v>
       </c>
@@ -9303,7 +9250,7 @@
       <c r="Q62" s="49"/>
       <c r="R62" s="51"/>
     </row>
-    <row r="63" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>65</v>
       </c>
@@ -9325,7 +9272,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="51"/>
     </row>
-    <row r="64" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>66</v>
       </c>
@@ -9347,7 +9294,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="46"/>
     </row>
-    <row r="65" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>67</v>
       </c>
@@ -9369,7 +9316,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="46"/>
     </row>
-    <row r="66" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>68</v>
       </c>
@@ -9391,7 +9338,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="46"/>
     </row>
-    <row r="67" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>69</v>
       </c>
@@ -9413,7 +9360,7 @@
       <c r="Q67" s="49"/>
       <c r="R67" s="46"/>
     </row>
-    <row r="68" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45">
         <v>70</v>
       </c>
@@ -9435,7 +9382,7 @@
       <c r="Q68" s="49"/>
       <c r="R68" s="46"/>
     </row>
-    <row r="69" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <v>71</v>
       </c>
@@ -9457,7 +9404,7 @@
       <c r="Q69" s="49"/>
       <c r="R69" s="51"/>
     </row>
-    <row r="70" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <v>72</v>
       </c>
@@ -9479,7 +9426,7 @@
       <c r="Q70" s="49"/>
       <c r="R70" s="51"/>
     </row>
-    <row r="71" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="52">
         <v>73</v>
       </c>
@@ -9501,7 +9448,7 @@
       <c r="Q71" s="49"/>
       <c r="R71" s="51"/>
     </row>
-    <row r="72" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="52">
         <v>74</v>
       </c>
@@ -9523,7 +9470,7 @@
       <c r="Q72" s="49"/>
       <c r="R72" s="46"/>
     </row>
-    <row r="73" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="52">
         <v>75</v>
       </c>
@@ -9545,7 +9492,7 @@
       <c r="Q73" s="49"/>
       <c r="R73" s="51"/>
     </row>
-    <row r="74" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="52">
         <v>76</v>
       </c>
@@ -9567,7 +9514,7 @@
       <c r="Q74" s="49"/>
       <c r="R74" s="51"/>
     </row>
-    <row r="75" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="52">
         <v>77</v>
       </c>
@@ -9589,7 +9536,7 @@
       <c r="Q75" s="49"/>
       <c r="R75" s="51"/>
     </row>
-    <row r="76" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="52">
         <v>78</v>
       </c>
@@ -9611,7 +9558,7 @@
       <c r="Q76" s="49"/>
       <c r="R76" s="51"/>
     </row>
-    <row r="77" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="52">
         <v>79</v>
       </c>
@@ -9633,7 +9580,7 @@
       <c r="Q77" s="49"/>
       <c r="R77" s="51"/>
     </row>
-    <row r="78" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="52">
         <v>80</v>
       </c>
@@ -9655,7 +9602,7 @@
       <c r="Q78" s="49"/>
       <c r="R78" s="46"/>
     </row>
-    <row r="79" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="52">
         <v>81</v>
       </c>
@@ -9677,7 +9624,7 @@
       <c r="Q79" s="49"/>
       <c r="R79" s="46"/>
     </row>
-    <row r="80" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="52">
         <v>82</v>
       </c>
@@ -9699,7 +9646,7 @@
       <c r="Q80" s="49"/>
       <c r="R80" s="46"/>
     </row>
-    <row r="81" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="52">
         <v>83</v>
       </c>
@@ -9721,7 +9668,7 @@
       <c r="Q81" s="49"/>
       <c r="R81" s="51"/>
     </row>
-    <row r="82" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="52">
         <v>84</v>
       </c>
@@ -9743,7 +9690,7 @@
       <c r="Q82" s="49"/>
       <c r="R82" s="51"/>
     </row>
-    <row r="83" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="52">
         <v>85</v>
       </c>
@@ -9765,7 +9712,7 @@
       <c r="Q83" s="49"/>
       <c r="R83" s="51"/>
     </row>
-    <row r="84" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="52">
         <v>86</v>
       </c>
@@ -9787,7 +9734,7 @@
       <c r="Q84" s="49"/>
       <c r="R84" s="51"/>
     </row>
-    <row r="85" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="52">
         <v>87</v>
       </c>
@@ -9809,7 +9756,7 @@
       <c r="Q85" s="49"/>
       <c r="R85" s="51"/>
     </row>
-    <row r="86" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="52">
         <v>88</v>
       </c>
@@ -9831,7 +9778,7 @@
       <c r="Q86" s="49"/>
       <c r="R86" s="51"/>
     </row>
-    <row r="87" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="52">
         <v>89</v>
       </c>
@@ -9853,7 +9800,7 @@
       <c r="Q87" s="49"/>
       <c r="R87" s="51"/>
     </row>
-    <row r="88" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="52">
         <v>90</v>
       </c>
@@ -9875,7 +9822,7 @@
       <c r="Q88" s="49"/>
       <c r="R88" s="51"/>
     </row>
-    <row r="89" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="52">
         <v>91</v>
       </c>
@@ -9897,7 +9844,7 @@
       <c r="Q89" s="49"/>
       <c r="R89" s="51"/>
     </row>
-    <row r="90" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="52">
         <v>92</v>
       </c>
@@ -9919,7 +9866,7 @@
       <c r="Q90" s="49"/>
       <c r="R90" s="51"/>
     </row>
-    <row r="91" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="52">
         <v>93</v>
       </c>
@@ -9941,7 +9888,7 @@
       <c r="Q91" s="49"/>
       <c r="R91" s="51"/>
     </row>
-    <row r="92" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="52">
         <v>94</v>
       </c>
@@ -9963,7 +9910,7 @@
       <c r="Q92" s="49"/>
       <c r="R92" s="51"/>
     </row>
-    <row r="93" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="52">
         <v>95</v>
       </c>
@@ -9985,7 +9932,7 @@
       <c r="Q93" s="49"/>
       <c r="R93" s="51"/>
     </row>
-    <row r="94" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="52">
         <v>96</v>
       </c>
@@ -10007,7 +9954,7 @@
       <c r="Q94" s="49"/>
       <c r="R94" s="51"/>
     </row>
-    <row r="95" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="52">
         <v>97</v>
       </c>
@@ -10029,7 +9976,7 @@
       <c r="Q95" s="49"/>
       <c r="R95" s="51"/>
     </row>
-    <row r="96" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="52">
         <v>98</v>
       </c>
@@ -10051,7 +9998,7 @@
       <c r="Q96" s="49"/>
       <c r="R96" s="51"/>
     </row>
-    <row r="97" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="52">
         <v>99</v>
       </c>
@@ -10076,28 +10023,28 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C7:C24">
-    <cfRule type="duplicateValues" dxfId="17" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 C7:C22">
-    <cfRule type="duplicateValues" dxfId="16" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D97">
-    <cfRule type="duplicateValues" dxfId="15" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="14" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q97">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10110,7 +10057,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
@@ -10123,33 +10070,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DFAD1-8F8B-481C-8B2B-3AF922C41965}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="101"/>
-    <col min="3" max="3" width="22.28515625" style="101" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="101"/>
+    <col min="3" max="3" width="22.33203125" style="101" customWidth="1"/>
     <col min="4" max="4" width="25" style="101" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="101" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="101" customWidth="1"/>
     <col min="7" max="7" width="16" style="101" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="101" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="101" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="101" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="101"/>
-    <col min="12" max="12" width="11.5703125" style="101" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="101" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="101"/>
-    <col min="15" max="15" width="14.7109375" style="101" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="101" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="101"/>
-    <col min="18" max="18" width="11.7109375" style="101" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="101" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="101" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="101" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="101"/>
+    <col min="12" max="12" width="11.5546875" style="101" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="101" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="101"/>
+    <col min="15" max="15" width="14.6640625" style="101" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="101" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="101"/>
+    <col min="18" max="18" width="11.6640625" style="101" customWidth="1"/>
     <col min="19" max="19" width="0" style="101" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -10170,7 +10117,7 @@
       <c r="R1" s="76"/>
       <c r="S1" s="77"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -10191,7 +10138,7 @@
       <c r="R2" s="81"/>
       <c r="S2" s="77"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -10212,7 +10159,7 @@
       <c r="R3" s="81"/>
       <c r="S3" s="77"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -10233,7 +10180,7 @@
       <c r="R4" s="81"/>
       <c r="S4" s="77"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -10254,7 +10201,7 @@
       <c r="R5" s="86"/>
       <c r="S5" s="77"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>24</v>
       </c>
@@ -10313,7 +10260,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="103">
         <v>1</v>
       </c>
@@ -10372,7 +10319,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="106">
         <v>2</v>
       </c>
@@ -10430,7 +10377,7 @@
       </c>
       <c r="R8" s="116"/>
     </row>
-    <row r="9" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="106">
         <v>3</v>
       </c>
@@ -10486,7 +10433,7 @@
       </c>
       <c r="R9" s="116"/>
     </row>
-    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="103">
         <v>4</v>
       </c>
@@ -10542,7 +10489,7 @@
       </c>
       <c r="R10" s="105"/>
     </row>
-    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="106">
         <v>5</v>
       </c>
@@ -10598,7 +10545,7 @@
       </c>
       <c r="R11" s="105"/>
     </row>
-    <row r="12" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="106">
         <v>6</v>
       </c>
@@ -10654,7 +10601,7 @@
       </c>
       <c r="R12" s="105"/>
     </row>
-    <row r="13" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="103">
         <v>7</v>
       </c>
@@ -10710,7 +10657,7 @@
       </c>
       <c r="R13" s="105"/>
     </row>
-    <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="106">
         <v>8</v>
       </c>
@@ -10766,7 +10713,7 @@
       </c>
       <c r="R14" s="105"/>
     </row>
-    <row r="15" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="106">
         <v>9</v>
       </c>
@@ -10822,7 +10769,7 @@
       </c>
       <c r="R15" s="105"/>
     </row>
-    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="103">
         <v>10</v>
       </c>
@@ -10878,7 +10825,7 @@
       </c>
       <c r="R16" s="105"/>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="106">
         <v>11</v>
       </c>
@@ -10934,7 +10881,7 @@
       </c>
       <c r="R17" s="105"/>
     </row>
-    <row r="18" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="106">
         <v>12</v>
       </c>
@@ -10990,7 +10937,7 @@
       </c>
       <c r="R18" s="116"/>
     </row>
-    <row r="19" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="106">
         <v>13</v>
       </c>
@@ -11046,7 +10993,7 @@
       </c>
       <c r="R19" s="116"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="106">
         <v>14</v>
       </c>
@@ -11064,10 +11011,10 @@
         <v>1307</v>
       </c>
       <c r="F20" s="93" t="s">
-        <v>1322</v>
+        <v>1410</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>1324</v>
+        <v>1411</v>
       </c>
       <c r="H20" s="94">
         <v>45544</v>
@@ -11086,17 +11033,19 @@
         <v>118</v>
       </c>
       <c r="N20" s="113" t="s">
-        <v>1325</v>
+        <v>121</v>
       </c>
       <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
+      <c r="P20" s="99">
+        <v>45596</v>
+      </c>
       <c r="Q20" s="100" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Concluída</v>
       </c>
       <c r="R20" s="105"/>
     </row>
-    <row r="21" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A21" s="106">
         <v>15</v>
       </c>
@@ -11114,10 +11063,10 @@
         <v>1307</v>
       </c>
       <c r="F21" s="93" t="s">
-        <v>1323</v>
+        <v>1412</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>1324</v>
+        <v>1411</v>
       </c>
       <c r="H21" s="109">
         <v>45544</v>
@@ -11136,17 +11085,19 @@
         <v>118</v>
       </c>
       <c r="N21" s="113" t="s">
-        <v>1325</v>
+        <v>121</v>
       </c>
       <c r="O21" s="99"/>
-      <c r="P21" s="114"/>
+      <c r="P21" s="99">
+        <v>45596</v>
+      </c>
       <c r="Q21" s="115" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Concluída</v>
       </c>
       <c r="R21" s="116"/>
     </row>
-    <row r="22" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="106">
         <v>16</v>
       </c>
@@ -11200,7 +11151,7 @@
       </c>
       <c r="R22" s="116"/>
     </row>
-    <row r="23" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="106">
         <v>17</v>
       </c>
@@ -11242,15 +11193,19 @@
       <c r="N23" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
+      <c r="O23" s="114">
+        <v>45553</v>
+      </c>
+      <c r="P23" s="114" t="s">
+        <v>1301</v>
+      </c>
       <c r="Q23" s="115" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Concluída</v>
       </c>
       <c r="R23" s="116"/>
     </row>
-    <row r="24" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="106">
         <v>18</v>
       </c>
@@ -11292,15 +11247,19 @@
       <c r="N24" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
+      <c r="O24" s="114">
+        <v>45553</v>
+      </c>
+      <c r="P24" s="114" t="s">
+        <v>1301</v>
+      </c>
       <c r="Q24" s="115" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Concluída</v>
       </c>
       <c r="R24" s="116"/>
     </row>
-    <row r="25" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="106">
         <v>19</v>
       </c>
@@ -11308,9 +11267,9 @@
         <v>1297</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D25" s="118" t="str">
+        <v>1322</v>
+      </c>
+      <c r="D25" s="108" t="str">
         <f>TRIM(IFERROR(VLOOKUP(Tabela1[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma!A:D,2,FALSE),"NÃO LOCALIZADO"))</f>
         <v>3/4-A2-14E-5528/5413</v>
       </c>
@@ -11326,7 +11285,7 @@
       <c r="H25" s="109">
         <v>45565</v>
       </c>
-      <c r="I25" s="120">
+      <c r="I25" s="119">
         <v>45583</v>
       </c>
       <c r="J25" s="110"/>
@@ -11341,20 +11300,22 @@
       <c r="N25" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="O25" s="114"/>
+      <c r="O25" s="114">
+        <v>45569</v>
+      </c>
       <c r="P25" s="114"/>
       <c r="Q25" s="115" t="str">
         <f ca="1">IF(Tabela1[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Tabela1[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Tabela1[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>Atrasada</v>
       </c>
       <c r="R25" s="116"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J38" s="101" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J39" s="101" t="s">
         <v>1321</v>
       </c>
@@ -11362,19 +11323,19 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D7:D25">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q25">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11403,14 +11364,14 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>41</v>
       </c>
@@ -11424,7 +11385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -11438,7 +11399,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
@@ -11452,7 +11413,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>4</v>
       </c>
@@ -11466,7 +11427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>126</v>
       </c>
@@ -11480,7 +11441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>128</v>
       </c>
@@ -11494,7 +11455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>132</v>
       </c>
@@ -11508,7 +11469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>134</v>
       </c>
@@ -11522,7 +11483,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
@@ -11536,7 +11497,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>6</v>
       </c>
@@ -11550,7 +11511,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>107</v>
       </c>
@@ -11564,7 +11525,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>142</v>
       </c>
@@ -11578,7 +11539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>144</v>
       </c>
@@ -11592,7 +11553,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>146</v>
       </c>
@@ -11606,7 +11567,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>148</v>
       </c>
@@ -11620,7 +11581,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>150</v>
       </c>
@@ -11634,7 +11595,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>152</v>
       </c>
@@ -11648,7 +11609,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>154</v>
       </c>
@@ -11662,7 +11623,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>156</v>
       </c>
@@ -11676,7 +11637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>158</v>
       </c>
@@ -11690,7 +11651,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>160</v>
       </c>
@@ -11704,7 +11665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>162</v>
       </c>
@@ -11718,7 +11679,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>164</v>
       </c>
@@ -11732,7 +11693,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>166</v>
       </c>
@@ -11746,7 +11707,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>168</v>
       </c>
@@ -11760,7 +11721,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>170</v>
       </c>
@@ -11774,7 +11735,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>172</v>
       </c>
@@ -11788,7 +11749,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>108</v>
       </c>
@@ -11802,7 +11763,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>175</v>
       </c>
@@ -11816,7 +11777,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>115</v>
       </c>
@@ -11830,7 +11791,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>178</v>
       </c>
@@ -11844,7 +11805,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>180</v>
       </c>
@@ -11858,7 +11819,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
         <v>182</v>
       </c>
@@ -11872,7 +11833,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
         <v>184</v>
       </c>
@@ -11886,7 +11847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
         <v>185</v>
       </c>
@@ -11900,7 +11861,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>331</v>
       </c>
@@ -11914,7 +11875,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>186</v>
       </c>
@@ -11928,7 +11889,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>116</v>
       </c>
@@ -11942,7 +11903,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>192</v>
       </c>
@@ -11956,7 +11917,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>120</v>
       </c>
@@ -11970,7 +11931,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
         <v>195</v>
       </c>
@@ -11984,7 +11945,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>197</v>
       </c>
@@ -11998,7 +11959,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>332</v>
       </c>
@@ -12012,7 +11973,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
         <v>333</v>
       </c>
@@ -12026,7 +11987,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>334</v>
       </c>
@@ -12040,7 +12001,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>335</v>
       </c>
@@ -12054,7 +12015,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>336</v>
       </c>
@@ -12068,7 +12029,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>337</v>
       </c>
@@ -12082,7 +12043,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>211</v>
       </c>
@@ -12096,7 +12057,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>213</v>
       </c>
@@ -12110,7 +12071,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>217</v>
       </c>
@@ -12124,7 +12085,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>338</v>
       </c>
@@ -12138,7 +12099,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>339</v>
       </c>
@@ -12152,7 +12113,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>340</v>
       </c>
@@ -12166,7 +12127,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
         <v>341</v>
       </c>
@@ -12180,7 +12141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
         <v>342</v>
       </c>
@@ -12194,7 +12155,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
         <v>343</v>
       </c>
@@ -12208,7 +12169,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
         <v>344</v>
       </c>
@@ -12222,7 +12183,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>345</v>
       </c>
@@ -12236,7 +12197,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>346</v>
       </c>
@@ -12250,7 +12211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>347</v>
       </c>
@@ -12264,7 +12225,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>348</v>
       </c>
@@ -12278,7 +12239,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>349</v>
       </c>
@@ -12292,7 +12253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
         <v>350</v>
       </c>
@@ -12306,7 +12267,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
         <v>351</v>
       </c>
@@ -12320,7 +12281,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>352</v>
       </c>
@@ -12334,7 +12295,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
         <v>353</v>
       </c>
@@ -12348,7 +12309,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>354</v>
       </c>
@@ -12362,7 +12323,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>355</v>
       </c>
@@ -12376,7 +12337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>356</v>
       </c>
@@ -12390,7 +12351,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
         <v>357</v>
       </c>
@@ -12404,7 +12365,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
         <v>358</v>
       </c>
@@ -12418,7 +12379,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
         <v>359</v>
       </c>
@@ -12432,7 +12393,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>360</v>
       </c>
@@ -12446,7 +12407,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>361</v>
       </c>
@@ -12460,7 +12421,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>362</v>
       </c>
@@ -12474,7 +12435,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>363</v>
       </c>
@@ -12488,7 +12449,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
         <v>364</v>
       </c>
@@ -12502,7 +12463,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>365</v>
       </c>
@@ -12516,7 +12477,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>366</v>
       </c>
@@ -12530,7 +12491,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>367</v>
       </c>
@@ -12544,7 +12505,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>368</v>
       </c>
@@ -12558,7 +12519,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>369</v>
       </c>
@@ -12572,7 +12533,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>370</v>
       </c>
@@ -12586,7 +12547,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
         <v>371</v>
       </c>
@@ -12600,7 +12561,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>372</v>
       </c>
@@ -12614,7 +12575,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>373</v>
       </c>
@@ -12628,7 +12589,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>374</v>
       </c>
@@ -12642,7 +12603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>375</v>
       </c>
@@ -12656,7 +12617,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>376</v>
       </c>
@@ -12670,7 +12631,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="38" t="s">
         <v>377</v>
       </c>
@@ -12684,7 +12645,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
         <v>378</v>
       </c>
@@ -12698,7 +12659,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
         <v>379</v>
       </c>
@@ -12712,7 +12673,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="38" t="s">
         <v>380</v>
       </c>
@@ -12726,7 +12687,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="38" t="s">
         <v>381</v>
       </c>
@@ -12740,7 +12701,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>382</v>
       </c>
@@ -12754,7 +12715,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="38" t="s">
         <v>383</v>
       </c>
@@ -12768,7 +12729,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="38" t="s">
         <v>384</v>
       </c>
@@ -12782,7 +12743,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
         <v>385</v>
       </c>
@@ -12796,7 +12757,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>386</v>
       </c>
@@ -12810,7 +12771,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
         <v>387</v>
       </c>
@@ -12824,7 +12785,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>388</v>
       </c>
@@ -12838,7 +12799,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="38" t="s">
         <v>389</v>
       </c>
@@ -12852,7 +12813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="38" t="s">
         <v>390</v>
       </c>
@@ -12866,7 +12827,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
         <v>391</v>
       </c>
@@ -12880,7 +12841,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
         <v>392</v>
       </c>
@@ -12894,7 +12855,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
         <v>393</v>
       </c>
@@ -12908,7 +12869,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
         <v>394</v>
       </c>
@@ -12922,7 +12883,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="38" t="s">
         <v>395</v>
       </c>
@@ -12936,7 +12897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="38" t="s">
         <v>396</v>
       </c>
@@ -12950,7 +12911,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
         <v>397</v>
       </c>
@@ -12964,7 +12925,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
         <v>398</v>
       </c>
@@ -12978,7 +12939,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="38" t="s">
         <v>399</v>
       </c>
@@ -12992,7 +12953,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="38" t="s">
         <v>400</v>
       </c>
@@ -13006,7 +12967,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="38" t="s">
         <v>401</v>
       </c>
@@ -13020,7 +12981,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="38" t="s">
         <v>402</v>
       </c>
@@ -13034,7 +12995,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="38" t="s">
         <v>403</v>
       </c>
@@ -13048,7 +13009,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
         <v>404</v>
       </c>
@@ -13062,7 +13023,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
         <v>405</v>
       </c>
@@ -13076,7 +13037,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
         <v>406</v>
       </c>
@@ -13090,7 +13051,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>407</v>
       </c>
@@ -13104,7 +13065,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
         <v>408</v>
       </c>
@@ -13118,7 +13079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="38" t="s">
         <v>409</v>
       </c>
@@ -13132,7 +13093,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="38" t="s">
         <v>410</v>
       </c>
@@ -13146,7 +13107,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="38" t="s">
         <v>411</v>
       </c>
@@ -13160,7 +13121,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="38" t="s">
         <v>412</v>
       </c>
@@ -13174,7 +13135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="38" t="s">
         <v>413</v>
       </c>
@@ -13188,7 +13149,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="38" t="s">
         <v>414</v>
       </c>
@@ -13202,7 +13163,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="38" t="s">
         <v>415</v>
       </c>
@@ -13216,7 +13177,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="38" t="s">
         <v>416</v>
       </c>
@@ -13230,7 +13191,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="35" t="s">
         <v>417</v>
       </c>
@@ -13244,7 +13205,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="38" t="s">
         <v>418</v>
       </c>
@@ -13258,7 +13219,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
         <v>419</v>
       </c>
@@ -13272,7 +13233,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="38" t="s">
         <v>420</v>
       </c>
@@ -13286,7 +13247,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="38" t="s">
         <v>421</v>
       </c>
@@ -13300,7 +13261,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="38" t="s">
         <v>422</v>
       </c>
@@ -13314,7 +13275,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>423</v>
       </c>
@@ -13328,7 +13289,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
         <v>7</v>
       </c>
@@ -13342,7 +13303,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>244</v>
       </c>
@@ -13356,7 +13317,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="35" t="s">
         <v>245</v>
       </c>
@@ -13370,7 +13331,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>246</v>
       </c>
@@ -13384,7 +13345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="38" t="s">
         <v>247</v>
       </c>
@@ -13398,7 +13359,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="35" t="s">
         <v>248</v>
       </c>
@@ -13412,7 +13373,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="35" t="s">
         <v>249</v>
       </c>
@@ -13426,7 +13387,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>250</v>
       </c>
@@ -13440,7 +13401,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="38" t="s">
         <v>251</v>
       </c>
@@ -13454,7 +13415,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="38" t="s">
         <v>252</v>
       </c>
@@ -13468,7 +13429,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="38" t="s">
         <v>253</v>
       </c>
@@ -13482,7 +13443,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="38" t="s">
         <v>424</v>
       </c>
@@ -13496,7 +13457,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="38" t="s">
         <v>425</v>
       </c>
@@ -13510,7 +13471,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>426</v>
       </c>
@@ -13524,7 +13485,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="38" t="s">
         <v>427</v>
       </c>
@@ -13538,7 +13499,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
         <v>428</v>
       </c>
@@ -13552,7 +13513,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="38" t="s">
         <v>429</v>
       </c>
@@ -13566,7 +13527,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="38" t="s">
         <v>430</v>
       </c>
@@ -13580,7 +13541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>431</v>
       </c>
@@ -13594,7 +13555,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="38" t="s">
         <v>432</v>
       </c>
@@ -13608,7 +13569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="38" t="s">
         <v>433</v>
       </c>
@@ -13622,7 +13583,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="38" t="s">
         <v>434</v>
       </c>
@@ -13636,7 +13597,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="38" t="s">
         <v>435</v>
       </c>
@@ -13650,7 +13611,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="35" t="s">
         <v>254</v>
       </c>
@@ -13664,7 +13625,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="38" t="s">
         <v>255</v>
       </c>
@@ -13678,7 +13639,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="38" t="s">
         <v>259</v>
       </c>
@@ -13692,7 +13653,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="38" t="s">
         <v>436</v>
       </c>
@@ -13706,7 +13667,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="38" t="s">
         <v>437</v>
       </c>
@@ -13720,7 +13681,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="38" t="s">
         <v>438</v>
       </c>
@@ -13734,7 +13695,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="38" t="s">
         <v>439</v>
       </c>
@@ -13748,7 +13709,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="38" t="s">
         <v>440</v>
       </c>
@@ -13762,7 +13723,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="38" t="s">
         <v>441</v>
       </c>
@@ -13776,7 +13737,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="38" t="s">
         <v>442</v>
       </c>
@@ -13790,7 +13751,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="38" t="s">
         <v>443</v>
       </c>
@@ -13804,7 +13765,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="38" t="s">
         <v>444</v>
       </c>
@@ -13818,7 +13779,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="38" t="s">
         <v>445</v>
       </c>
@@ -13832,7 +13793,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="38" t="s">
         <v>446</v>
       </c>
@@ -13846,7 +13807,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="38" t="s">
         <v>447</v>
       </c>
@@ -13860,7 +13821,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="38" t="s">
         <v>448</v>
       </c>
@@ -13874,7 +13835,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="38" t="s">
         <v>449</v>
       </c>
@@ -13888,7 +13849,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="35" t="s">
         <v>267</v>
       </c>
@@ -13902,7 +13863,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="38" t="s">
         <v>268</v>
       </c>
@@ -13916,7 +13877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="38" t="s">
         <v>269</v>
       </c>
@@ -13930,7 +13891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="38" t="s">
         <v>270</v>
       </c>
@@ -13944,7 +13905,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="38" t="s">
         <v>271</v>
       </c>
@@ -13958,7 +13919,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="38" t="s">
         <v>450</v>
       </c>
@@ -13972,7 +13933,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="38" t="s">
         <v>451</v>
       </c>
@@ -13986,7 +13947,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
         <v>452</v>
       </c>
@@ -14000,7 +13961,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="38" t="s">
         <v>453</v>
       </c>
@@ -14014,7 +13975,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="38" t="s">
         <v>454</v>
       </c>
@@ -14028,7 +13989,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="38" t="s">
         <v>455</v>
       </c>
@@ -14042,7 +14003,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="38" t="s">
         <v>456</v>
       </c>
@@ -14056,7 +14017,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="38" t="s">
         <v>457</v>
       </c>
@@ -14070,7 +14031,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="38" t="s">
         <v>458</v>
       </c>
@@ -14084,7 +14045,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="35" t="s">
         <v>272</v>
       </c>
@@ -14098,7 +14059,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="38" t="s">
         <v>273</v>
       </c>
@@ -14112,7 +14073,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="38" t="s">
         <v>274</v>
       </c>
@@ -14126,7 +14087,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="38" t="s">
         <v>275</v>
       </c>
@@ -14140,7 +14101,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="38" t="s">
         <v>276</v>
       </c>
@@ -14154,7 +14115,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="38" t="s">
         <v>277</v>
       </c>
@@ -14168,7 +14129,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="38" t="s">
         <v>459</v>
       </c>
@@ -14182,7 +14143,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="35" t="s">
         <v>278</v>
       </c>
@@ -14196,7 +14157,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="38" t="s">
         <v>279</v>
       </c>
@@ -14210,7 +14171,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="38" t="s">
         <v>280</v>
       </c>
@@ -14224,7 +14185,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="35" t="s">
         <v>281</v>
       </c>
@@ -14238,7 +14199,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="38" t="s">
         <v>282</v>
       </c>
@@ -14252,7 +14213,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="38" t="s">
         <v>318</v>
       </c>
@@ -14266,7 +14227,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="38" t="s">
         <v>460</v>
       </c>
@@ -14280,7 +14241,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
         <v>461</v>
       </c>
@@ -14294,7 +14255,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
         <v>462</v>
       </c>
@@ -14308,7 +14269,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="38" t="s">
         <v>463</v>
       </c>
@@ -14322,7 +14283,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="38" t="s">
         <v>464</v>
       </c>
@@ -14336,7 +14297,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="35" t="s">
         <v>465</v>
       </c>
@@ -14350,7 +14311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="38" t="s">
         <v>466</v>
       </c>
@@ -14364,7 +14325,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
         <v>467</v>
       </c>
@@ -14378,7 +14339,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="38" t="s">
         <v>468</v>
       </c>
@@ -14392,7 +14353,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="38" t="s">
         <v>469</v>
       </c>
@@ -14406,7 +14367,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="38" t="s">
         <v>470</v>
       </c>
@@ -14420,7 +14381,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="38" t="s">
         <v>471</v>
       </c>
@@ -14434,7 +14395,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="38" t="s">
         <v>472</v>
       </c>
@@ -14448,7 +14409,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="38" t="s">
         <v>473</v>
       </c>
@@ -14462,7 +14423,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="38" t="s">
         <v>474</v>
       </c>
@@ -14476,7 +14437,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="35" t="s">
         <v>475</v>
       </c>
@@ -14490,7 +14451,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="38" t="s">
         <v>476</v>
       </c>
@@ -14504,7 +14465,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="38" t="s">
         <v>477</v>
       </c>
@@ -14518,7 +14479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
         <v>478</v>
       </c>
@@ -14532,7 +14493,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="38" t="s">
         <v>479</v>
       </c>
@@ -14546,7 +14507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="38" t="s">
         <v>480</v>
       </c>
@@ -14560,7 +14521,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="38" t="s">
         <v>481</v>
       </c>
@@ -14574,7 +14535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="38" t="s">
         <v>482</v>
       </c>
@@ -14588,7 +14549,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="38" t="s">
         <v>483</v>
       </c>
@@ -14602,7 +14563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="38" t="s">
         <v>484</v>
       </c>
@@ -14616,7 +14577,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="38" t="s">
         <v>485</v>
       </c>
@@ -14630,7 +14591,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="38" t="s">
         <v>486</v>
       </c>
@@ -14644,7 +14605,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="38" t="s">
         <v>487</v>
       </c>
@@ -14658,7 +14619,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="35" t="s">
         <v>488</v>
       </c>
@@ -14672,7 +14633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="38" t="s">
         <v>489</v>
       </c>
@@ -14686,7 +14647,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="38" t="s">
         <v>490</v>
       </c>
@@ -14700,7 +14661,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="38" t="s">
         <v>491</v>
       </c>
@@ -14714,7 +14675,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="38" t="s">
         <v>492</v>
       </c>
@@ -14728,7 +14689,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="38" t="s">
         <v>493</v>
       </c>
@@ -14742,7 +14703,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="38" t="s">
         <v>494</v>
       </c>
@@ -14756,7 +14717,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="38" t="s">
         <v>495</v>
       </c>
@@ -14770,7 +14731,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="38" t="s">
         <v>496</v>
       </c>
@@ -14784,7 +14745,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="38" t="s">
         <v>497</v>
       </c>
@@ -14798,7 +14759,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="38" t="s">
         <v>498</v>
       </c>
@@ -14812,7 +14773,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="38" t="s">
         <v>499</v>
       </c>
@@ -14826,7 +14787,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="38" t="s">
         <v>500</v>
       </c>
@@ -14840,7 +14801,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="38" t="s">
         <v>501</v>
       </c>
@@ -14854,7 +14815,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="38" t="s">
         <v>502</v>
       </c>
@@ -14868,7 +14829,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="38" t="s">
         <v>503</v>
       </c>
@@ -14882,7 +14843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="35" t="s">
         <v>504</v>
       </c>
@@ -14896,7 +14857,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="35" t="s">
         <v>505</v>
       </c>
@@ -14910,7 +14871,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="38" t="s">
         <v>506</v>
       </c>
@@ -14924,7 +14885,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="38" t="s">
         <v>507</v>
       </c>
@@ -14938,7 +14899,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="38" t="s">
         <v>508</v>
       </c>
@@ -14952,7 +14913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="38" t="s">
         <v>509</v>
       </c>
@@ -14966,7 +14927,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="38" t="s">
         <v>510</v>
       </c>
@@ -14980,7 +14941,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="38" t="s">
         <v>511</v>
       </c>
@@ -14994,7 +14955,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="38" t="s">
         <v>512</v>
       </c>
@@ -15008,7 +14969,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="38" t="s">
         <v>513</v>
       </c>
@@ -15022,7 +14983,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="38" t="s">
         <v>514</v>
       </c>
@@ -15036,7 +14997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="38" t="s">
         <v>515</v>
       </c>
@@ -15050,7 +15011,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="38" t="s">
         <v>516</v>
       </c>
@@ -15064,7 +15025,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="38" t="s">
         <v>517</v>
       </c>
@@ -15078,7 +15039,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="38" t="s">
         <v>518</v>
       </c>
@@ -15092,7 +15053,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="38" t="s">
         <v>519</v>
       </c>
@@ -15106,7 +15067,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="38" t="s">
         <v>520</v>
       </c>
@@ -15120,7 +15081,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="38" t="s">
         <v>521</v>
       </c>
@@ -15134,7 +15095,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
         <v>522</v>
       </c>
@@ -15148,7 +15109,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="38" t="s">
         <v>523</v>
       </c>
@@ -15162,7 +15123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="38" t="s">
         <v>524</v>
       </c>
@@ -15176,7 +15137,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="38" t="s">
         <v>525</v>
       </c>
@@ -15190,7 +15151,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="38" t="s">
         <v>526</v>
       </c>
@@ -15204,7 +15165,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="38" t="s">
         <v>527</v>
       </c>
@@ -15218,7 +15179,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="35" t="s">
         <v>528</v>
       </c>
@@ -15232,7 +15193,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="38" t="s">
         <v>529</v>
       </c>
@@ -15246,7 +15207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="38" t="s">
         <v>530</v>
       </c>
@@ -15260,7 +15221,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="38" t="s">
         <v>531</v>
       </c>
@@ -15274,7 +15235,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="38" t="s">
         <v>532</v>
       </c>
@@ -15288,7 +15249,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="38" t="s">
         <v>533</v>
       </c>
@@ -15302,7 +15263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="38" t="s">
         <v>534</v>
       </c>
@@ -15316,7 +15277,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="38" t="s">
         <v>535</v>
       </c>
@@ -15330,7 +15291,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="38" t="s">
         <v>536</v>
       </c>
@@ -15344,7 +15305,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="38" t="s">
         <v>537</v>
       </c>
@@ -15358,7 +15319,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="38" t="s">
         <v>538</v>
       </c>
@@ -15372,7 +15333,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="38" t="s">
         <v>539</v>
       </c>
@@ -15386,7 +15347,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="38" t="s">
         <v>540</v>
       </c>
@@ -15400,7 +15361,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="38" t="s">
         <v>541</v>
       </c>
@@ -15414,7 +15375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="38" t="s">
         <v>542</v>
       </c>
@@ -15428,7 +15389,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="38" t="s">
         <v>543</v>
       </c>
@@ -15442,7 +15403,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="38" t="s">
         <v>544</v>
       </c>
@@ -15456,7 +15417,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="38" t="s">
         <v>545</v>
       </c>
@@ -15470,7 +15431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="38" t="s">
         <v>546</v>
       </c>
@@ -15484,7 +15445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="38" t="s">
         <v>547</v>
       </c>
@@ -15498,7 +15459,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="38" t="s">
         <v>548</v>
       </c>
@@ -15512,7 +15473,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="38" t="s">
         <v>549</v>
       </c>
@@ -15526,7 +15487,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="38" t="s">
         <v>550</v>
       </c>
@@ -15540,7 +15501,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="38" t="s">
         <v>551</v>
       </c>
@@ -15554,7 +15515,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="38" t="s">
         <v>552</v>
       </c>
@@ -15568,7 +15529,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="38" t="s">
         <v>553</v>
       </c>
@@ -15582,7 +15543,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="38" t="s">
         <v>554</v>
       </c>
@@ -15596,7 +15557,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="38" t="s">
         <v>555</v>
       </c>
@@ -15610,7 +15571,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="38" t="s">
         <v>556</v>
       </c>
@@ -15624,7 +15585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="38" t="s">
         <v>557</v>
       </c>
@@ -15638,7 +15599,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="38" t="s">
         <v>558</v>
       </c>
@@ -15652,7 +15613,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="38" t="s">
         <v>559</v>
       </c>
@@ -15666,7 +15627,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="38" t="s">
         <v>560</v>
       </c>
@@ -15680,7 +15641,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="38" t="s">
         <v>561</v>
       </c>
@@ -15694,7 +15655,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="38" t="s">
         <v>562</v>
       </c>
@@ -15708,7 +15669,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="38" t="s">
         <v>563</v>
       </c>
@@ -15722,7 +15683,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="38" t="s">
         <v>564</v>
       </c>
@@ -15736,7 +15697,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="38" t="s">
         <v>565</v>
       </c>
@@ -15750,7 +15711,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="38" t="s">
         <v>566</v>
       </c>
@@ -15764,7 +15725,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="38" t="s">
         <v>567</v>
       </c>
@@ -15778,7 +15739,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="38" t="s">
         <v>568</v>
       </c>
@@ -15792,7 +15753,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="38" t="s">
         <v>569</v>
       </c>
@@ -15806,7 +15767,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="38" t="s">
         <v>570</v>
       </c>
@@ -15820,7 +15781,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="38" t="s">
         <v>571</v>
       </c>
@@ -15834,7 +15795,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="38" t="s">
         <v>572</v>
       </c>
@@ -15848,7 +15809,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="38" t="s">
         <v>573</v>
       </c>
@@ -15862,7 +15823,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="38" t="s">
         <v>574</v>
       </c>
@@ -15876,7 +15837,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="38" t="s">
         <v>575</v>
       </c>
@@ -15890,7 +15851,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="38" t="s">
         <v>576</v>
       </c>
@@ -15904,7 +15865,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
         <v>577</v>
       </c>
@@ -15918,7 +15879,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="35" t="s">
         <v>578</v>
       </c>
@@ -15932,7 +15893,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>579</v>
       </c>
@@ -15946,7 +15907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="38" t="s">
         <v>580</v>
       </c>
@@ -15960,7 +15921,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="38" t="s">
         <v>581</v>
       </c>
@@ -15974,7 +15935,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="38" t="s">
         <v>582</v>
       </c>
@@ -15988,7 +15949,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="38" t="s">
         <v>583</v>
       </c>
@@ -16002,7 +15963,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="38" t="s">
         <v>584</v>
       </c>
@@ -16016,7 +15977,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="38" t="s">
         <v>585</v>
       </c>
@@ -16030,7 +15991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="38" t="s">
         <v>586</v>
       </c>
@@ -16044,7 +16005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>587</v>
       </c>
@@ -16058,7 +16019,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="38" t="s">
         <v>588</v>
       </c>
@@ -16072,7 +16033,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="38" t="s">
         <v>589</v>
       </c>
@@ -16086,7 +16047,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="38" t="s">
         <v>590</v>
       </c>
@@ -16100,7 +16061,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="38" t="s">
         <v>591</v>
       </c>
@@ -16114,7 +16075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="38" t="s">
         <v>592</v>
       </c>
@@ -16128,7 +16089,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="38" t="s">
         <v>593</v>
       </c>
@@ -16142,7 +16103,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="38" t="s">
         <v>594</v>
       </c>
@@ -16156,7 +16117,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="38" t="s">
         <v>595</v>
       </c>
@@ -16170,7 +16131,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="38" t="s">
         <v>596</v>
       </c>
@@ -16184,7 +16145,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>597</v>
       </c>
@@ -16198,7 +16159,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="38" t="s">
         <v>598</v>
       </c>
@@ -16212,7 +16173,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
         <v>599</v>
       </c>
@@ -16226,7 +16187,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="38" t="s">
         <v>600</v>
       </c>
@@ -16240,7 +16201,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="38" t="s">
         <v>601</v>
       </c>
@@ -16254,7 +16215,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="38" t="s">
         <v>602</v>
       </c>
@@ -16268,7 +16229,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="38" t="s">
         <v>603</v>
       </c>
@@ -16282,7 +16243,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="38" t="s">
         <v>604</v>
       </c>
@@ -16296,7 +16257,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="38" t="s">
         <v>605</v>
       </c>
@@ -16310,7 +16271,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="38" t="s">
         <v>606</v>
       </c>
@@ -16324,7 +16285,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>607</v>
       </c>
@@ -16338,7 +16299,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="38" t="s">
         <v>608</v>
       </c>
@@ -16352,7 +16313,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>609</v>
       </c>
@@ -16366,7 +16327,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="38" t="s">
         <v>610</v>
       </c>
@@ -16380,7 +16341,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>611</v>
       </c>
@@ -16394,7 +16355,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="35" t="s">
         <v>612</v>
       </c>
@@ -16408,7 +16369,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="38" t="s">
         <v>613</v>
       </c>
@@ -16422,7 +16383,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="38" t="s">
         <v>614</v>
       </c>
@@ -16436,7 +16397,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>615</v>
       </c>
@@ -16450,7 +16411,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>616</v>
       </c>
@@ -16464,7 +16425,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>617</v>
       </c>
@@ -16478,7 +16439,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>618</v>
       </c>
@@ -16492,7 +16453,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="38" t="s">
         <v>619</v>
       </c>
@@ -16506,7 +16467,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>620</v>
       </c>
@@ -16520,7 +16481,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>621</v>
       </c>
@@ -16534,7 +16495,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>622</v>
       </c>
@@ -16548,7 +16509,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>623</v>
       </c>
@@ -16562,7 +16523,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>624</v>
       </c>
@@ -16576,7 +16537,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="38" t="s">
         <v>625</v>
       </c>
@@ -16590,7 +16551,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>626</v>
       </c>
@@ -16604,7 +16565,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>627</v>
       </c>
@@ -16618,7 +16579,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="38" t="s">
         <v>628</v>
       </c>
@@ -16632,7 +16593,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>629</v>
       </c>
@@ -16646,7 +16607,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="38" t="s">
         <v>630</v>
       </c>
@@ -16660,7 +16621,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>631</v>
       </c>
@@ -16674,7 +16635,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="38" t="s">
         <v>632</v>
       </c>
@@ -16688,7 +16649,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>633</v>
       </c>
@@ -16702,7 +16663,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>634</v>
       </c>
@@ -16716,7 +16677,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="38" t="s">
         <v>635</v>
       </c>
@@ -16730,7 +16691,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>636</v>
       </c>
@@ -16744,7 +16705,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="38" t="s">
         <v>637</v>
       </c>
@@ -16758,7 +16719,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>638</v>
       </c>
@@ -16772,7 +16733,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>639</v>
       </c>
@@ -16786,7 +16747,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>640</v>
       </c>
@@ -16800,7 +16761,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="38" t="s">
         <v>641</v>
       </c>
@@ -16814,7 +16775,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="38" t="s">
         <v>642</v>
       </c>
@@ -16828,7 +16789,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>643</v>
       </c>
@@ -16842,7 +16803,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>644</v>
       </c>
@@ -16856,7 +16817,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>645</v>
       </c>
@@ -16870,7 +16831,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="35" t="s">
         <v>646</v>
       </c>
@@ -16884,7 +16845,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="38" t="s">
         <v>647</v>
       </c>
@@ -16898,7 +16859,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>648</v>
       </c>
@@ -16912,7 +16873,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>649</v>
       </c>
@@ -16926,7 +16887,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="38" t="s">
         <v>650</v>
       </c>
@@ -16940,7 +16901,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>651</v>
       </c>
@@ -16954,7 +16915,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="38" t="s">
         <v>652</v>
       </c>
@@ -16968,7 +16929,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="35" t="s">
         <v>653</v>
       </c>
@@ -16982,7 +16943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>654</v>
       </c>
@@ -16996,7 +16957,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>655</v>
       </c>
@@ -17010,7 +16971,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>656</v>
       </c>
@@ -17024,7 +16985,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>657</v>
       </c>
@@ -17038,7 +16999,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="38" t="s">
         <v>658</v>
       </c>
@@ -17052,7 +17013,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="38" t="s">
         <v>659</v>
       </c>
@@ -17066,7 +17027,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>660</v>
       </c>
@@ -17080,7 +17041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>661</v>
       </c>
@@ -17094,7 +17055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>662</v>
       </c>
@@ -17108,7 +17069,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="38" t="s">
         <v>663</v>
       </c>
@@ -17122,7 +17083,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>664</v>
       </c>
@@ -17136,7 +17097,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>665</v>
       </c>
@@ -17150,7 +17111,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>666</v>
       </c>
@@ -17164,7 +17125,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>667</v>
       </c>
@@ -17178,7 +17139,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="38" t="s">
         <v>668</v>
       </c>
@@ -17192,7 +17153,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="38" t="s">
         <v>669</v>
       </c>
@@ -17206,7 +17167,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="38" t="s">
         <v>670</v>
       </c>
@@ -17220,7 +17181,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="38" t="s">
         <v>671</v>
       </c>
@@ -17234,7 +17195,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="38" t="s">
         <v>672</v>
       </c>
@@ -17248,7 +17209,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>673</v>
       </c>
@@ -17262,7 +17223,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="35" t="s">
         <v>674</v>
       </c>
@@ -17276,7 +17237,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="35" t="s">
         <v>675</v>
       </c>
@@ -17290,7 +17251,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="38" t="s">
         <v>676</v>
       </c>
@@ -17304,7 +17265,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>677</v>
       </c>
@@ -17318,7 +17279,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="38" t="s">
         <v>678</v>
       </c>
@@ -17332,7 +17293,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="38" t="s">
         <v>679</v>
       </c>
@@ -17346,7 +17307,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="38" t="s">
         <v>680</v>
       </c>
@@ -17360,7 +17321,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>681</v>
       </c>
@@ -17374,7 +17335,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>682</v>
       </c>
@@ -17388,7 +17349,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="38" t="s">
         <v>683</v>
       </c>
@@ -17402,7 +17363,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="38" t="s">
         <v>684</v>
       </c>
@@ -17416,7 +17377,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>685</v>
       </c>
@@ -17430,7 +17391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="35" t="s">
         <v>686</v>
       </c>
@@ -17444,7 +17405,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>687</v>
       </c>
@@ -17458,7 +17419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>688</v>
       </c>
@@ -17472,7 +17433,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>689</v>
       </c>
@@ -17486,7 +17447,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>690</v>
       </c>
@@ -17500,7 +17461,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="38" t="s">
         <v>691</v>
       </c>
@@ -17514,7 +17475,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="38" t="s">
         <v>692</v>
       </c>
@@ -17528,7 +17489,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>693</v>
       </c>
@@ -17542,7 +17503,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="38" t="s">
         <v>694</v>
       </c>
@@ -17556,7 +17517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>695</v>
       </c>
@@ -17570,7 +17531,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="38" t="s">
         <v>696</v>
       </c>
@@ -17584,7 +17545,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="35" t="s">
         <v>697</v>
       </c>
@@ -17598,7 +17559,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>698</v>
       </c>
@@ -17612,7 +17573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>699</v>
       </c>
@@ -17626,7 +17587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="38" t="s">
         <v>700</v>
       </c>
@@ -17640,7 +17601,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="38" t="s">
         <v>701</v>
       </c>
@@ -17654,7 +17615,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="38" t="s">
         <v>702</v>
       </c>
@@ -17668,7 +17629,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="38" t="s">
         <v>703</v>
       </c>
@@ -17682,7 +17643,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>704</v>
       </c>
@@ -17696,7 +17657,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>705</v>
       </c>
@@ -17710,7 +17671,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="38" t="s">
         <v>706</v>
       </c>
@@ -17724,7 +17685,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>707</v>
       </c>
@@ -17738,7 +17699,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="35" t="s">
         <v>708</v>
       </c>
@@ -17752,7 +17713,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="38" t="s">
         <v>709</v>
       </c>
@@ -17766,7 +17727,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" s="35" t="s">
         <v>710</v>
       </c>
@@ -17780,91 +17741,91 @@
         <v>224</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="38" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B456" s="38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C456" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D456" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="38" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B457" s="38" t="s">
         <v>1327</v>
       </c>
-      <c r="B456" s="38" t="s">
+      <c r="C457" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D457" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="38" t="s">
         <v>1328</v>
       </c>
-      <c r="C456" s="38" t="s">
+      <c r="B458" s="38" t="s">
         <v>1329</v>
       </c>
-      <c r="D456" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="38" t="s">
+      <c r="C458" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D458" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="38" t="s">
         <v>1330</v>
       </c>
-      <c r="B457" s="38" t="s">
+      <c r="B459" s="38" t="s">
         <v>1331</v>
       </c>
-      <c r="C457" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D457" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="38" t="s">
+      <c r="C459" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D459" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="38" t="s">
         <v>1332</v>
       </c>
-      <c r="B458" s="38" t="s">
+      <c r="B460" s="38" t="s">
         <v>1333</v>
       </c>
-      <c r="C458" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D458" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="38" t="s">
+      <c r="C460" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D460" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="38" t="s">
         <v>1334</v>
       </c>
-      <c r="B459" s="38" t="s">
+      <c r="B461" s="38" t="s">
         <v>1335</v>
       </c>
-      <c r="C459" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D459" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="38" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B460" s="38" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C460" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D460" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="38" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B461" s="38" t="s">
-        <v>1339</v>
-      </c>
       <c r="C461" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="38" t="s">
         <v>711</v>
       </c>
@@ -17878,7 +17839,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="35" t="s">
         <v>712</v>
       </c>
@@ -17892,63 +17853,63 @@
         <v>232</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="38" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B464" s="38" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C464" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D464" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="38" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B465" s="38" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C465" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D465" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="38" t="s">
         <v>1340</v>
       </c>
-      <c r="B464" s="38" t="s">
+      <c r="B466" s="38" t="s">
         <v>1341</v>
       </c>
-      <c r="C464" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D464" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="38" t="s">
+      <c r="C466" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D466" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="38" t="s">
         <v>1342</v>
       </c>
-      <c r="B465" s="38" t="s">
+      <c r="B467" s="38" t="s">
         <v>1343</v>
       </c>
-      <c r="C465" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D465" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="38" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B466" s="38" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C466" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="38" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B467" s="38" t="s">
-        <v>1347</v>
-      </c>
       <c r="C467" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="38" t="s">
         <v>713</v>
       </c>
@@ -17962,7 +17923,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>714</v>
       </c>
@@ -17976,7 +17937,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="35" t="s">
         <v>715</v>
       </c>
@@ -17990,7 +17951,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>716</v>
       </c>
@@ -18004,7 +17965,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>717</v>
       </c>
@@ -18018,7 +17979,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="38" t="s">
         <v>718</v>
       </c>
@@ -18032,7 +17993,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="38" t="s">
         <v>719</v>
       </c>
@@ -18046,7 +18007,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="38" t="s">
         <v>720</v>
       </c>
@@ -18060,7 +18021,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="38" t="s">
         <v>721</v>
       </c>
@@ -18074,7 +18035,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A477" s="38" t="s">
         <v>722</v>
       </c>
@@ -18088,7 +18049,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="35" t="s">
         <v>723</v>
       </c>
@@ -18102,7 +18063,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="38" t="s">
         <v>724</v>
       </c>
@@ -18116,7 +18077,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="38" t="s">
         <v>725</v>
       </c>
@@ -18130,7 +18091,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="38" t="s">
         <v>726</v>
       </c>
@@ -18144,7 +18105,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="38" t="s">
         <v>727</v>
       </c>
@@ -18158,7 +18119,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="38" t="s">
         <v>728</v>
       </c>
@@ -18172,7 +18133,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="38" t="s">
         <v>729</v>
       </c>
@@ -18186,12 +18147,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="38" t="s">
         <v>730</v>
       </c>
       <c r="B485" s="38" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C485" s="38" t="s">
         <v>237</v>
@@ -18200,12 +18161,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="38" t="s">
         <v>731</v>
       </c>
       <c r="B486" s="38" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C486" s="38" t="s">
         <v>238</v>
@@ -18214,12 +18175,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="38" t="s">
         <v>732</v>
       </c>
       <c r="B487" s="38" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C487" s="38" t="s">
         <v>239</v>
@@ -18228,12 +18189,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="38" t="s">
         <v>733</v>
       </c>
       <c r="B488" s="38" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C488" s="38" t="s">
         <v>240</v>
@@ -18242,12 +18203,12 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="38" t="s">
         <v>734</v>
       </c>
       <c r="B489" s="38" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C489" s="38" t="s">
         <v>1243</v>
@@ -18256,11 +18217,11 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="119" t="s">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="118" t="s">
         <v>735</v>
       </c>
-      <c r="B490" s="119" t="s">
+      <c r="B490" s="118" t="s">
         <v>313</v>
       </c>
       <c r="C490" s="38" t="s">
@@ -18270,49 +18231,49 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="38" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B491" s="38" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C491" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D491" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="38" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B492" s="38" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C492" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D492" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="38" t="s">
         <v>1353</v>
       </c>
-      <c r="B491" s="38" t="s">
+      <c r="B493" s="38" t="s">
         <v>1354</v>
       </c>
-      <c r="C491" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D491" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="38" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B492" s="38" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C492" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D492" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="38" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B493" s="38" t="s">
-        <v>1358</v>
-      </c>
       <c r="C493" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D493" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="38" t="s">
         <v>736</v>
       </c>
@@ -18326,7 +18287,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="38" t="s">
         <v>737</v>
       </c>
@@ -18340,7 +18301,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="38" t="s">
         <v>738</v>
       </c>
@@ -18354,7 +18315,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="38" t="s">
         <v>739</v>
       </c>
@@ -18368,7 +18329,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="38" t="s">
         <v>740</v>
       </c>
@@ -18382,7 +18343,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="35" t="s">
         <v>741</v>
       </c>
@@ -18396,7 +18357,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="38" t="s">
         <v>742</v>
       </c>
@@ -18410,7 +18371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" s="38" t="s">
         <v>743</v>
       </c>
@@ -18424,7 +18385,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="38" t="s">
         <v>744</v>
       </c>
@@ -18438,7 +18399,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="38" t="s">
         <v>745</v>
       </c>
@@ -18452,7 +18413,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="38" t="s">
         <v>746</v>
       </c>
@@ -18466,7 +18427,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="38" t="s">
         <v>747</v>
       </c>
@@ -18480,7 +18441,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="38" t="s">
         <v>748</v>
       </c>
@@ -18494,7 +18455,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="38" t="s">
         <v>749</v>
       </c>
@@ -18508,7 +18469,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="38" t="s">
         <v>750</v>
       </c>
@@ -18522,7 +18483,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="35" t="s">
         <v>751</v>
       </c>
@@ -18536,7 +18497,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="38" t="s">
         <v>752</v>
       </c>
@@ -18550,7 +18511,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="35" t="s">
         <v>753</v>
       </c>
@@ -18564,49 +18525,49 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="38" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B512" s="38" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C512" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D512" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A513" s="38" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B513" s="38" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C513" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D513" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A514" s="38" t="s">
         <v>1359</v>
       </c>
-      <c r="B512" s="38" t="s">
+      <c r="B514" s="38" t="s">
         <v>1360</v>
       </c>
-      <c r="C512" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D512" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A513" s="38" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B513" s="38" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C513" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D513" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A514" s="38" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B514" s="38" t="s">
-        <v>1364</v>
-      </c>
       <c r="C514" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D514" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="38" t="s">
         <v>754</v>
       </c>
@@ -18620,7 +18581,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="38" t="s">
         <v>755</v>
       </c>
@@ -18634,7 +18595,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="38" t="s">
         <v>756</v>
       </c>
@@ -18648,7 +18609,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="38" t="s">
         <v>757</v>
       </c>
@@ -18662,7 +18623,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="38" t="s">
         <v>758</v>
       </c>
@@ -18676,7 +18637,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="35" t="s">
         <v>759</v>
       </c>
@@ -18690,7 +18651,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="38" t="s">
         <v>760</v>
       </c>
@@ -18704,7 +18665,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="38" t="s">
         <v>761</v>
       </c>
@@ -18718,7 +18679,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="38" t="s">
         <v>762</v>
       </c>
@@ -18732,7 +18693,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="38" t="s">
         <v>763</v>
       </c>
@@ -18746,7 +18707,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A525" s="38" t="s">
         <v>764</v>
       </c>
@@ -18760,7 +18721,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="38" t="s">
         <v>765</v>
       </c>
@@ -18774,7 +18735,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" s="38" t="s">
         <v>766</v>
       </c>
@@ -18788,7 +18749,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A528" s="38" t="s">
         <v>767</v>
       </c>
@@ -18802,7 +18763,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A529" s="38" t="s">
         <v>768</v>
       </c>
@@ -18816,7 +18777,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A530" s="38" t="s">
         <v>769</v>
       </c>
@@ -18830,7 +18791,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" s="38" t="s">
         <v>770</v>
       </c>
@@ -18844,7 +18805,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A532" s="38" t="s">
         <v>771</v>
       </c>
@@ -18858,7 +18819,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="38" t="s">
         <v>772</v>
       </c>
@@ -18872,7 +18833,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="38" t="s">
         <v>773</v>
       </c>
@@ -18886,7 +18847,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="38" t="s">
         <v>774</v>
       </c>
@@ -18900,7 +18861,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="38" t="s">
         <v>775</v>
       </c>
@@ -18914,7 +18875,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="38" t="s">
         <v>776</v>
       </c>
@@ -18928,7 +18889,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="38" t="s">
         <v>777</v>
       </c>
@@ -18942,7 +18903,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="38" t="s">
         <v>778</v>
       </c>
@@ -18956,7 +18917,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="38" t="s">
         <v>779</v>
       </c>
@@ -18970,7 +18931,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="38" t="s">
         <v>780</v>
       </c>
@@ -18984,7 +18945,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="38" t="s">
         <v>781</v>
       </c>
@@ -18998,7 +18959,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="35" t="s">
         <v>782</v>
       </c>
@@ -19012,7 +18973,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="38" t="s">
         <v>783</v>
       </c>
@@ -19026,7 +18987,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="35" t="s">
         <v>784</v>
       </c>
@@ -19040,49 +19001,49 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" s="38" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B546" s="38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C546" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D546" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A547" s="38" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B547" s="38" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C547" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D547" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A548" s="38" t="s">
         <v>1365</v>
       </c>
-      <c r="B546" s="38" t="s">
+      <c r="B548" s="38" t="s">
         <v>1366</v>
       </c>
-      <c r="C546" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D546" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A547" s="38" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B547" s="38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C547" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D547" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A548" s="38" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B548" s="38" t="s">
-        <v>1370</v>
-      </c>
       <c r="C548" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D548" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="38" t="s">
         <v>785</v>
       </c>
@@ -19096,7 +19057,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="38" t="s">
         <v>786</v>
       </c>
@@ -19110,7 +19071,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="38" t="s">
         <v>787</v>
       </c>
@@ -19124,7 +19085,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="35" t="s">
         <v>788</v>
       </c>
@@ -19138,7 +19099,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="35" t="s">
         <v>789</v>
       </c>
@@ -19152,49 +19113,49 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A554" s="38" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B554" s="38" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C554" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D554" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A555" s="38" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B555" s="38" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C555" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D555" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A556" s="38" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B556" s="38" t="s">
         <v>1371</v>
       </c>
-      <c r="C554" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D554" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A555" s="38" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B555" s="38" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C555" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D555" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A556" s="38" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B556" s="38" t="s">
-        <v>1375</v>
-      </c>
       <c r="C556" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D556" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="38" t="s">
         <v>790</v>
       </c>
@@ -19208,7 +19169,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="38" t="s">
         <v>791</v>
       </c>
@@ -19222,7 +19183,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="38" t="s">
         <v>792</v>
       </c>
@@ -19236,7 +19197,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="35" t="s">
         <v>793</v>
       </c>
@@ -19250,7 +19211,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="38" t="s">
         <v>794</v>
       </c>
@@ -19264,7 +19225,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="38" t="s">
         <v>795</v>
       </c>
@@ -19278,7 +19239,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="38" t="s">
         <v>796</v>
       </c>
@@ -19292,7 +19253,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="38" t="s">
         <v>797</v>
       </c>
@@ -19306,7 +19267,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="38" t="s">
         <v>798</v>
       </c>
@@ -19320,7 +19281,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="38" t="s">
         <v>799</v>
       </c>
@@ -19334,7 +19295,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="38" t="s">
         <v>800</v>
       </c>
@@ -19348,7 +19309,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="38" t="s">
         <v>801</v>
       </c>
@@ -19362,7 +19323,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="38" t="s">
         <v>802</v>
       </c>
@@ -19376,7 +19337,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="38" t="s">
         <v>803</v>
       </c>
@@ -19390,7 +19351,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="35" t="s">
         <v>804</v>
       </c>
@@ -19404,7 +19365,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="38" t="s">
         <v>805</v>
       </c>
@@ -19418,7 +19379,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="38" t="s">
         <v>806</v>
       </c>
@@ -19432,7 +19393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="38" t="s">
         <v>807</v>
       </c>
@@ -19446,7 +19407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="38" t="s">
         <v>808</v>
       </c>
@@ -19460,7 +19421,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="38" t="s">
         <v>809</v>
       </c>
@@ -19474,7 +19435,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="38" t="s">
         <v>810</v>
       </c>
@@ -19488,7 +19449,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="38" t="s">
         <v>811</v>
       </c>
@@ -19502,7 +19463,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="38" t="s">
         <v>812</v>
       </c>
@@ -19516,7 +19477,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="38" t="s">
         <v>813</v>
       </c>
@@ -19530,7 +19491,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="38" t="s">
         <v>814</v>
       </c>
@@ -19544,7 +19505,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="35" t="s">
         <v>815</v>
       </c>
@@ -19558,7 +19519,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="38" t="s">
         <v>816</v>
       </c>
@@ -19572,7 +19533,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="38" t="s">
         <v>817</v>
       </c>
@@ -19586,7 +19547,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="38" t="s">
         <v>818</v>
       </c>
@@ -19600,7 +19561,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="38" t="s">
         <v>819</v>
       </c>
@@ -19614,7 +19575,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="38" t="s">
         <v>820</v>
       </c>
@@ -19628,7 +19589,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="38" t="s">
         <v>821</v>
       </c>
@@ -19642,7 +19603,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="38" t="s">
         <v>822</v>
       </c>
@@ -19656,7 +19617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="38" t="s">
         <v>823</v>
       </c>
@@ -19670,7 +19631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="38" t="s">
         <v>824</v>
       </c>
@@ -19684,7 +19645,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="38" t="s">
         <v>825</v>
       </c>
@@ -19698,7 +19659,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="35" t="s">
         <v>826</v>
       </c>
@@ -19712,7 +19673,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="38" t="s">
         <v>827</v>
       </c>
@@ -19726,7 +19687,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="35" t="s">
         <v>828</v>
       </c>
@@ -19740,77 +19701,77 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A596" s="38" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B596" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C596" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D596" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A597" s="38" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B597" s="38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C597" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D597" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A598" s="38" t="s">
         <v>1376</v>
       </c>
-      <c r="B596" s="38" t="s">
+      <c r="B598" s="38" t="s">
         <v>1377</v>
       </c>
-      <c r="C596" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D596" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A597" s="38" t="s">
+      <c r="C598" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D598" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A599" s="38" t="s">
         <v>1378</v>
       </c>
-      <c r="B597" s="38" t="s">
+      <c r="B599" s="38" t="s">
         <v>1379</v>
       </c>
-      <c r="C597" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D597" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A598" s="38" t="s">
+      <c r="C599" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D599" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A600" s="38" t="s">
         <v>1380</v>
       </c>
-      <c r="B598" s="38" t="s">
+      <c r="B600" s="38" t="s">
         <v>1381</v>
       </c>
-      <c r="C598" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D598" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A599" s="38" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B599" s="38" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C599" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D599" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A600" s="38" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B600" s="38" t="s">
-        <v>1385</v>
-      </c>
       <c r="C600" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D600" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="38" t="s">
         <v>829</v>
       </c>
@@ -19824,7 +19785,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="35" t="s">
         <v>830</v>
       </c>
@@ -19838,77 +19799,77 @@
         <v>241</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A603" s="38" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B603" s="38" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C603" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D603" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A604" s="38" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B604" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C604" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D604" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A605" s="38" t="s">
         <v>1386</v>
       </c>
-      <c r="B603" s="38" t="s">
+      <c r="B605" s="38" t="s">
         <v>1387</v>
       </c>
-      <c r="C603" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D603" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A604" s="38" t="s">
+      <c r="C605" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D605" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A606" s="38" t="s">
         <v>1388</v>
       </c>
-      <c r="B604" s="38" t="s">
+      <c r="B606" s="38" t="s">
         <v>1389</v>
       </c>
-      <c r="C604" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D604" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A605" s="38" t="s">
+      <c r="C606" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D606" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A607" s="38" t="s">
         <v>1390</v>
       </c>
-      <c r="B605" s="38" t="s">
+      <c r="B607" s="38" t="s">
         <v>1391</v>
       </c>
-      <c r="C605" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D605" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A606" s="38" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B606" s="38" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C606" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D606" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A607" s="38" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B607" s="38" t="s">
-        <v>1395</v>
-      </c>
       <c r="C607" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D607" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="38" t="s">
         <v>831</v>
       </c>
@@ -19922,7 +19883,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="38" t="s">
         <v>832</v>
       </c>
@@ -19936,7 +19897,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="35" t="s">
         <v>833</v>
       </c>
@@ -19950,7 +19911,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="38" t="s">
         <v>834</v>
       </c>
@@ -19964,7 +19925,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="38" t="s">
         <v>835</v>
       </c>
@@ -19978,7 +19939,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="38" t="s">
         <v>836</v>
       </c>
@@ -19992,7 +19953,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="38" t="s">
         <v>837</v>
       </c>
@@ -20006,7 +19967,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A615" s="38" t="s">
         <v>838</v>
       </c>
@@ -20020,7 +19981,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="38" t="s">
         <v>839</v>
       </c>
@@ -20034,7 +19995,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="38" t="s">
         <v>840</v>
       </c>
@@ -20048,7 +20009,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="35" t="s">
         <v>841</v>
       </c>
@@ -20062,7 +20023,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="38" t="s">
         <v>842</v>
       </c>
@@ -20076,7 +20037,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="38" t="s">
         <v>843</v>
       </c>
@@ -20090,7 +20051,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="38" t="s">
         <v>844</v>
       </c>
@@ -20104,7 +20065,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="38" t="s">
         <v>845</v>
       </c>
@@ -20118,7 +20079,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="38" t="s">
         <v>846</v>
       </c>
@@ -20132,7 +20093,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="38" t="s">
         <v>847</v>
       </c>
@@ -20146,7 +20107,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="38" t="s">
         <v>848</v>
       </c>
@@ -20160,7 +20121,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="38" t="s">
         <v>849</v>
       </c>
@@ -20174,7 +20135,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="38" t="s">
         <v>850</v>
       </c>
@@ -20188,7 +20149,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="38" t="s">
         <v>851</v>
       </c>
@@ -20202,11 +20163,11 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A629" s="119" t="s">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" s="118" t="s">
         <v>852</v>
       </c>
-      <c r="B629" s="119" t="s">
+      <c r="B629" s="118" t="s">
         <v>1185</v>
       </c>
       <c r="C629" s="38" t="s">
@@ -20216,11 +20177,11 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A630" s="119" t="s">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" s="118" t="s">
         <v>853</v>
       </c>
-      <c r="B630" s="119" t="s">
+      <c r="B630" s="118" t="s">
         <v>1186</v>
       </c>
       <c r="C630" s="38" t="s">
@@ -20230,21 +20191,21 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="38" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B631" s="38" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C631" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D631" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="38" t="s">
         <v>854</v>
       </c>
@@ -20258,7 +20219,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="38" t="s">
         <v>855</v>
       </c>
@@ -20272,7 +20233,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="38" t="s">
         <v>856</v>
       </c>
@@ -20286,7 +20247,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="38" t="s">
         <v>857</v>
       </c>
@@ -20300,7 +20261,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="38" t="s">
         <v>858</v>
       </c>
@@ -20314,7 +20275,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="35" t="s">
         <v>859</v>
       </c>
@@ -20328,7 +20289,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="38" t="s">
         <v>860</v>
       </c>
@@ -20342,7 +20303,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A639" s="38" t="s">
         <v>861</v>
       </c>
@@ -20356,7 +20317,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="38" t="s">
         <v>862</v>
       </c>
@@ -20370,7 +20331,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="38" t="s">
         <v>863</v>
       </c>
@@ -20384,7 +20345,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="38" t="s">
         <v>864</v>
       </c>
@@ -20398,7 +20359,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="38" t="s">
         <v>865</v>
       </c>
@@ -20412,7 +20373,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="38" t="s">
         <v>866</v>
       </c>
@@ -20426,7 +20387,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="38" t="s">
         <v>867</v>
       </c>
@@ -20440,7 +20401,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="38" t="s">
         <v>868</v>
       </c>
@@ -20454,7 +20415,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="35" t="s">
         <v>869</v>
       </c>
@@ -20468,7 +20429,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="38" t="s">
         <v>870</v>
       </c>
@@ -20482,7 +20443,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="35" t="s">
         <v>871</v>
       </c>
@@ -20496,49 +20457,49 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A650" s="38" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B650" s="38" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C650" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D650" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A651" s="38" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B651" s="38" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C651" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D651" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A652" s="38" t="s">
         <v>1398</v>
       </c>
-      <c r="B650" s="38" t="s">
+      <c r="B652" s="38" t="s">
         <v>1399</v>
       </c>
-      <c r="C650" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D650" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A651" s="38" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B651" s="38" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C651" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D651" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A652" s="38" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B652" s="38" t="s">
-        <v>1403</v>
-      </c>
       <c r="C652" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D652" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="38" t="s">
         <v>872</v>
       </c>
@@ -20552,7 +20513,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="38" t="s">
         <v>873</v>
       </c>
@@ -20566,7 +20527,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="38" t="s">
         <v>874</v>
       </c>
@@ -20580,7 +20541,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="38" t="s">
         <v>875</v>
       </c>
@@ -20594,7 +20555,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="38" t="s">
         <v>876</v>
       </c>
@@ -20608,7 +20569,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="35" t="s">
         <v>877</v>
       </c>
@@ -20622,7 +20583,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="38" t="s">
         <v>878</v>
       </c>
@@ -20636,7 +20597,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="38" t="s">
         <v>879</v>
       </c>
@@ -20650,7 +20611,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A661" s="38" t="s">
         <v>880</v>
       </c>
@@ -20664,7 +20625,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A662" s="38" t="s">
         <v>881</v>
       </c>
@@ -20678,7 +20639,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A663" s="38" t="s">
         <v>882</v>
       </c>
@@ -20692,7 +20653,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="38" t="s">
         <v>883</v>
       </c>
@@ -20706,7 +20667,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="38" t="s">
         <v>884</v>
       </c>
@@ -20720,7 +20681,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="38" t="s">
         <v>885</v>
       </c>
@@ -20734,7 +20695,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="38" t="s">
         <v>886</v>
       </c>
@@ -20748,7 +20709,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="38" t="s">
         <v>887</v>
       </c>
@@ -20762,7 +20723,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="38" t="s">
         <v>888</v>
       </c>
@@ -20776,7 +20737,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="38" t="s">
         <v>889</v>
       </c>
@@ -20790,7 +20751,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="38" t="s">
         <v>890</v>
       </c>
@@ -20804,7 +20765,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="38" t="s">
         <v>891</v>
       </c>
@@ -20818,7 +20779,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="35" t="s">
         <v>892</v>
       </c>
@@ -20832,7 +20793,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="38" t="s">
         <v>893</v>
       </c>
@@ -20846,7 +20807,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="35" t="s">
         <v>894</v>
       </c>
@@ -20860,35 +20821,35 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A676" s="38" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B676" s="38" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C676" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D676" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A677" s="38" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B677" s="38" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C677" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D677" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="38" t="s">
         <v>895</v>
       </c>
@@ -20902,7 +20863,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="38" t="s">
         <v>896</v>
       </c>
@@ -20916,7 +20877,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="38" t="s">
         <v>897</v>
       </c>
@@ -20930,7 +20891,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="35" t="s">
         <v>898</v>
       </c>
@@ -20944,7 +20905,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="35" t="s">
         <v>899</v>
       </c>
@@ -20958,49 +20919,49 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A683" s="38" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B683" s="38" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C683" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D683" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A684" s="38" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B684" s="38" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C684" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D684" s="38" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A685" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="B683" s="38" t="s">
+      <c r="B685" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="C683" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D683" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A684" s="38" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B684" s="38" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C684" s="38" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D684" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A685" s="38" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B685" s="38" t="s">
-        <v>1413</v>
-      </c>
       <c r="C685" s="38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D685" s="38" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="38" t="s">
         <v>900</v>
       </c>
@@ -21014,7 +20975,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="38" t="s">
         <v>901</v>
       </c>
@@ -21028,7 +20989,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="38" t="s">
         <v>902</v>
       </c>
@@ -21042,7 +21003,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="35" t="s">
         <v>903</v>
       </c>
@@ -21056,7 +21017,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="38" t="s">
         <v>904</v>
       </c>
@@ -21070,7 +21031,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="38" t="s">
         <v>905</v>
       </c>
@@ -21084,7 +21045,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="35" t="s">
         <v>906</v>
       </c>
@@ -21098,7 +21059,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="38" t="s">
         <v>907</v>
       </c>
@@ -21112,7 +21073,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="38" t="s">
         <v>908</v>
       </c>
@@ -21139,17 +21100,17 @@
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>41</v>
       </c>
@@ -21175,7 +21136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
@@ -21201,7 +21162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
@@ -21227,7 +21188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
@@ -21253,7 +21214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
@@ -21279,7 +21240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>13</v>
       </c>
@@ -21305,7 +21266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>14</v>
       </c>
@@ -21331,7 +21292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -21357,7 +21318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>16</v>
       </c>
@@ -21383,7 +21344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>17</v>
       </c>
@@ -21409,7 +21370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
@@ -21435,7 +21396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>19</v>
       </c>
@@ -21461,7 +21422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>85</v>
       </c>
@@ -21487,7 +21448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>88</v>
       </c>
@@ -21513,7 +21474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>20</v>
       </c>
@@ -21539,7 +21500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>21</v>
       </c>
@@ -21565,7 +21526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>95</v>
       </c>
@@ -21591,7 +21552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>98</v>
       </c>
@@ -21617,7 +21578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>101</v>
       </c>
@@ -21643,7 +21604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>104</v>
       </c>
